--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -242,6 +242,330 @@
   </si>
   <si>
     <t>Пододеяльник из бязи 145 х 215 - М - 125 - Пушистый Разбойник</t>
+  </si>
+  <si>
+    <t>4630460960932</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 70 х 70 - М - 142 - Простор поля</t>
+  </si>
+  <si>
+    <t>4630460960925</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 160х200х20 - "Аметистовый Шёлк"</t>
+  </si>
+  <si>
+    <t>4630460960918</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - "Аметистовый Шёлк"</t>
+  </si>
+  <si>
+    <t>4630460960901</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 40 х 60 - М - 125 - Римская спаржа</t>
+  </si>
+  <si>
+    <t>4630460960895</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 260х260 - "Камара"</t>
+  </si>
+  <si>
+    <t>4630460960888</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка семейное на резинке 160х200х30 - "Серебряный Папоротник" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460960871</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро - М - Черничный смузи</t>
+  </si>
+  <si>
+    <t>4630460960864</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 120х200х30 - "Фиолетовый Шёпот" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460960857</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё креп-жатка 1,5 спальное на резинке 90х200х30 - М - 90 - Теплые Пожелания с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460960840</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 40 х 60 - М - 142 ГОСТ - Космические Звёзды</t>
+  </si>
+  <si>
+    <t>4630460960833</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Перкаль 1,5 спальное на резинке 140х200х30 - "Чёрное масло"</t>
+  </si>
+  <si>
+    <t>4630460960826</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 2 спальное на резинке 160х200х30 - "Легкий роман" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460960819</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё ранфорс семейное на резинке 180х200х30 - "Кремневый серый"</t>
+  </si>
+  <si>
+    <t>4630460960802</t>
+  </si>
+  <si>
+    <t>Пододеяльник Полисатин 200х220 - "Эбру"</t>
+  </si>
+  <si>
+    <t>4630460960796</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 240 х 260 - М - Блу Скай</t>
+  </si>
+  <si>
+    <t>4630460960789</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 180 х 200 х 40 - М - 140 - Белый 3х3</t>
+  </si>
+  <si>
+    <t>4630460960772</t>
+  </si>
+  <si>
+    <t>Пододеяльник сатин 150 х 200 - "Октябрьская берёза"</t>
+  </si>
+  <si>
+    <t>4630460960765</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 2 спальное на резинке 160х200х20 - "Глубь" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460960758</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 2 спальное на резинке 160х200х20 - "Тирас" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460960741</t>
+  </si>
+  <si>
+    <t>Пододеяльник Полисатин 240х260 - "Грис"</t>
+  </si>
+  <si>
+    <t>4630460960734</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 1,5 спальное на резинке 120х200х30 - М - Белое облако</t>
+  </si>
+  <si>
+    <t>4630460960727</t>
+  </si>
+  <si>
+    <t>Простыня из сатина-жаккарда на резинке 160 х 200 х 30 - М - Вайт Фейри</t>
+  </si>
+  <si>
+    <t>4630460960710</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина-жаккарда 50 х 70 - М - Вайт Фейри</t>
+  </si>
+  <si>
+    <t>4630460960703</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 150х220 - "Астероид"</t>
+  </si>
+  <si>
+    <t>4630460960697</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 140х200х30 - "Сумерин"</t>
+  </si>
+  <si>
+    <t>4630460960680</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 70х70 - "Сумерин"</t>
+  </si>
+  <si>
+    <t>4630460960673</t>
+  </si>
+  <si>
+    <t>Простыня круглая из сатина на резинке 250 х 250 х 30 - М - Премиум ТС 320 Бесконечность</t>
+  </si>
+  <si>
+    <t>4630460960666</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 220 х 240 - М - Премиум ТС 320 Бесконечность</t>
+  </si>
+  <si>
+    <t>4630460960659</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 70 х 70 - М - Премиум ТС 320 Бесконечность</t>
+  </si>
+  <si>
+    <t>4630460960642</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин Евро макси на резинке 180х200х30 - "Кленовая зелень"</t>
+  </si>
+  <si>
+    <t>4630460960635</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 50 х 70 - М - 125 - Паслен А+В</t>
+  </si>
+  <si>
+    <t>4630460960628</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 175 х 215 - М - 125 - Паслен А+В</t>
+  </si>
+  <si>
+    <t>4630460960611</t>
+  </si>
+  <si>
+    <t>Простыня Микрофибра 300х300 - "Марисоль"</t>
+  </si>
+  <si>
+    <t>4630460960604</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - Королевский пурпур</t>
+  </si>
+  <si>
+    <t>4630460960598</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 140х200х20 - "Леопардовый Сон"</t>
+  </si>
+  <si>
+    <t>4630460960581</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё перкаль Евро - М - 110 - Белоснежный луч</t>
+  </si>
+  <si>
+    <t>4630460960574</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 220 - М - Бирюзовый берег</t>
+  </si>
+  <si>
+    <t>4630460960567</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 220 - М - Пыльная роза</t>
+  </si>
+  <si>
+    <t>4630460960550</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин семейное на резинке 180х200х30 - М - 140 - Арахис</t>
+  </si>
+  <si>
+    <t>4630460960543</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - Блестящий миндаль</t>
+  </si>
+  <si>
+    <t>4630460960536</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - 60S 71 Персик</t>
+  </si>
+  <si>
+    <t>4630460960529</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 150 х 200 - "Сливочный"</t>
+  </si>
+  <si>
+    <t>4630460960512</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 160 х 200 х 20 - М - 120 - Северные Волки</t>
+  </si>
+  <si>
+    <t>4630460960505</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное на резинке 120х200х30 - М - Бирюзовый берег с наволочкой 50х70</t>
+  </si>
+  <si>
+    <t>4630460960499</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 300х300 - "Залив"</t>
+  </si>
+  <si>
+    <t>4630460960482</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Евро Макси - М - Премиум ТС 320 Белый</t>
+  </si>
+  <si>
+    <t>4630460960475</t>
+  </si>
+  <si>
+    <t>Пододеяльник сатин 150х200 - "Красная медь"</t>
+  </si>
+  <si>
+    <t>4630460960468</t>
+  </si>
+  <si>
+    <t>Пододеяльник бязь 150 х 200 - "Листья папоротника"</t>
+  </si>
+  <si>
+    <t>4630460960451</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель King Size на резинке 200х200х30 - М - 60S 4234 Морская нимфа с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460960444</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 140х200х40 - М - Серая умбра</t>
+  </si>
+  <si>
+    <t>4630460960437</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 2 спальное с Евро простыней - "Милда" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460960420</t>
+  </si>
+  <si>
+    <t>Пододеяльник из перкаля 200 х 200 - М - 110 - Посев Одуванчика А+В</t>
+  </si>
+  <si>
+    <t>4630460960413</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 300 х 300 - М - Чёрная гавань</t>
+  </si>
+  <si>
+    <t>4630460960406</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 220 - М - Селадон</t>
   </si>
 </sst>
 </file>
@@ -597,7 +921,7 @@
   <dimension ref="B1:P11478"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -927,6 +1251,438 @@
         <v>75</v>
       </c>
     </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" t="s">
+        <v>183</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="5"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -566,6 +566,138 @@
   </si>
   <si>
     <t>Пододеяльник из тенселя 200 х 220 - М - Селадон</t>
+  </si>
+  <si>
+    <t>4630460961151</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное на резинке 160х200х20 - "Замороженный Перец"</t>
+  </si>
+  <si>
+    <t>4630460961144</t>
+  </si>
+  <si>
+    <t>Простыня твил-сатин на резинке 180х200х40 - "Лесная тень"</t>
+  </si>
+  <si>
+    <t>4630460961137</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин Евро - М - Белоснежное</t>
+  </si>
+  <si>
+    <t>4630460961120</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 1,5 спальное - "Небосвод" Универсал</t>
+  </si>
+  <si>
+    <t>4630460961113</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро Макси на резинке 180х200х30 - М - Фазенда Лиара с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460961106</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 2 спальное на резинке 160х200х30 - М - 125 - Марсала с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460961090</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное на резинке 180х200х30 - М - Голубой хрусталь с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460961083</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное на резинке 180х200х30 - М - Пыльная роза с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460961076</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - Чериньола</t>
+  </si>
+  <si>
+    <t>4630460961069</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - Морбидецца</t>
+  </si>
+  <si>
+    <t>4630460961052</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин Евро на резинке 160х200х30 - М - 135 - Темно-синий 0,5х0,5</t>
+  </si>
+  <si>
+    <t>4630460961045</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 135 - Темно-синий 0,5х0,5</t>
+  </si>
+  <si>
+    <t>4630460961038</t>
+  </si>
+  <si>
+    <t>Наволочка страйп-сатин 50х70 - 125 - "Бразилин" 1х1</t>
+  </si>
+  <si>
+    <t>4630460961021</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин Евро на резинке 160х200х30 - 125 - "Бразилин" 1х1</t>
+  </si>
+  <si>
+    <t>4630460961014</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин Евро макси - "Севим"</t>
+  </si>
+  <si>
+    <t>4630460961007</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин семейное - "Флорал"</t>
+  </si>
+  <si>
+    <t>4630460960994</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - 60S 4235 Темно-синий</t>
+  </si>
+  <si>
+    <t>4630460960987</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 2 спальное на резинке 160х200х30 - М - Серая умбра</t>
+  </si>
+  <si>
+    <t>4630460960970</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 2 спальное на резинке 140х200х30 - "Страстный гранат" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460960963</t>
+  </si>
+  <si>
+    <t>Простыня из страйп сатина на резинке 160 х 200 х 30 - М - 140 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>4630460960956</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 300х300 - "Лунный Одуванчик"</t>
+  </si>
+  <si>
+    <t>4630460960949</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 1,5 спальное на резинке 120х200х30 - М - 142 - Монстера на коричневом</t>
   </si>
 </sst>
 </file>
@@ -1683,6 +1815,182 @@
         <v>183</v>
       </c>
     </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>196</v>
+      </c>
+      <c r="B101" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>198</v>
+      </c>
+      <c r="B102" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>200</v>
+      </c>
+      <c r="B103" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>212</v>
+      </c>
+      <c r="B109" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>214</v>
+      </c>
+      <c r="B110" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>216</v>
+      </c>
+      <c r="B111" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>218</v>
+      </c>
+      <c r="B112" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>220</v>
+      </c>
+      <c r="B113" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>222</v>
+      </c>
+      <c r="B114" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>224</v>
+      </c>
+      <c r="B115" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" t="s">
+        <v>227</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="5"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -698,6 +698,18 @@
   </si>
   <si>
     <t>КПБ Постельное бельё бязь 1,5 спальное на резинке 120х200х30 - М - 142 - Монстера на коричневом</t>
+  </si>
+  <si>
+    <t>4630460961175</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 200 - "Сиренево-розовый"</t>
+  </si>
+  <si>
+    <t>4630460961168</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50х70 - "Карибская волна"</t>
   </si>
 </sst>
 </file>
@@ -1991,6 +2003,22 @@
         <v>227</v>
       </c>
     </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>228</v>
+      </c>
+      <c r="B117" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>230</v>
+      </c>
+      <c r="B118" t="s">
+        <v>231</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="5"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -710,6 +710,378 @@
   </si>
   <si>
     <t>Наволочка тенсель 50х70 - "Карибская волна"</t>
+  </si>
+  <si>
+    <t>4630460961793</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - Халкидики</t>
+  </si>
+  <si>
+    <t>4630460961786</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин Евро макси на резинке 180х200х30 - М - 80 - Витражи с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460961779</t>
+  </si>
+  <si>
+    <t>Простыня из сатина-жаккарда 240 х 260 - М - Палладион</t>
+  </si>
+  <si>
+    <t>4630460961762</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 240х260 - "Небосвод"</t>
+  </si>
+  <si>
+    <t>4630460961755</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 200 х 220 - М - Королевский пурпур</t>
+  </si>
+  <si>
+    <t>4630460961748</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 220 - М - Пинклайт</t>
+  </si>
+  <si>
+    <t>4630460961731</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - Хрустальный оазис</t>
+  </si>
+  <si>
+    <t>4630460961724</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 175 х 215 - М - Гималайские маки</t>
+  </si>
+  <si>
+    <t>4630460961717</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 220х240 - "Метель"</t>
+  </si>
+  <si>
+    <t>4630460961700</t>
+  </si>
+  <si>
+    <t>Простыня круглая из тенселя на резинке 220х220х40 - М - 60S Белый</t>
+  </si>
+  <si>
+    <t>4630460961694</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 145х215 - "Небесный глянцевая"</t>
+  </si>
+  <si>
+    <t>4630460961687</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 145 х 215 - М - 125 - Голубая бирюза</t>
+  </si>
+  <si>
+    <t>4630460961670</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - 130 - Ночная синева</t>
+  </si>
+  <si>
+    <t>4630460961663</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 180х220 - "Парижский Шарм"</t>
+  </si>
+  <si>
+    <t>4630460961656</t>
+  </si>
+  <si>
+    <t>Пододеяльник твил-сатин 150 х 200 - "Дино-пати"</t>
+  </si>
+  <si>
+    <t>4630460961649</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное на резинке 180х200х30 - М - 60S 129 Темно-зеленый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460961632</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 80 х 200 х 30 - М - 142 ГОСТ - Спящий Мишка на бежевом</t>
+  </si>
+  <si>
+    <t>4630460961625</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 260 х 260 - М - 135 - Эмерэльд 1х1</t>
+  </si>
+  <si>
+    <t>4630460961618</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель-жаккард 200 х 220 - "Табия"</t>
+  </si>
+  <si>
+    <t>4630460961601</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50х70 - "Коньячный"</t>
+  </si>
+  <si>
+    <t>4630460961595</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50х50 - "Коньячный"</t>
+  </si>
+  <si>
+    <t>4630460961588</t>
+  </si>
+  <si>
+    <t>Простыня Микрофибра 300х300 - "Эстрелья"</t>
+  </si>
+  <si>
+    <t>4630460961571</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 280 х 280 - М - 135 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>4630460961564</t>
+  </si>
+  <si>
+    <t>Наволочка Жатка 50х70 - "Снежный Хищник"</t>
+  </si>
+  <si>
+    <t>4630460961557</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 70 х 70 - М - 125 - Сансет</t>
+  </si>
+  <si>
+    <t>4630460961540</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 200 х 200 х 40 - М - 125 - Голубая бирюза</t>
+  </si>
+  <si>
+    <t>4630460961533</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - 60S 4292 Кремовый</t>
+  </si>
+  <si>
+    <t>4630460961526</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё из страйп-сатина семейное на резинке 160х200х30 - М - 130 - Пел Догвуд 1х1</t>
+  </si>
+  <si>
+    <t>4630460961519</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 300х300 - "Леопардовый Сон"</t>
+  </si>
+  <si>
+    <t>4630460961502</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 220х240 - "Леопардовый Сон"</t>
+  </si>
+  <si>
+    <t>4630460961496</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 200 х 220 х 40 - М - 135 - Углерод 1х1</t>
+  </si>
+  <si>
+    <t>4630460961489</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 240 х 260 - М - 125 - Шампань 3х3</t>
+  </si>
+  <si>
+    <t>4630460961472</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - Изольда</t>
+  </si>
+  <si>
+    <t>4630460961465</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 180х220 - "Легкий роман"</t>
+  </si>
+  <si>
+    <t>4630460961458</t>
+  </si>
+  <si>
+    <t>Простыня круглая из сатина на резинке 230 х 230 х 30 - М - 125 - Вишневые лепестки</t>
+  </si>
+  <si>
+    <t>4630460961441</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 175х215 - 125 - "Миндаль" 1х1</t>
+  </si>
+  <si>
+    <t>4630460961434</t>
+  </si>
+  <si>
+    <t>Простыня круглая из перкаля на резинке 200 х 200 х 30 - М - 110 - Каори на зеленом</t>
+  </si>
+  <si>
+    <t>4630460961427</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 200 х 200 - М - Феста А+В</t>
+  </si>
+  <si>
+    <t>4630460961410</t>
+  </si>
+  <si>
+    <t>Наволочка из перкаля 70 х 70 - Р - М - Дуэт</t>
+  </si>
+  <si>
+    <t>4630460961403</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 70 х 70 - "Оллорины"</t>
+  </si>
+  <si>
+    <t>4630460961397</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель-жаккард 2 спальное на резинке 160х200х30 - "Табия" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460961380</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп микрофибры 220 х 240 - М - 85 - Белый 3х3</t>
+  </si>
+  <si>
+    <t>4630460961373</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 200 х 220 - М - Красный</t>
+  </si>
+  <si>
+    <t>4630460961366</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 40 х 40 - "Белый Страйп"</t>
+  </si>
+  <si>
+    <t>4630460961359</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье тенсель 1,5 спальное - М - Черный блеск с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460961342</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин Евро макси на резинке 180х200х30 - М - 135 - Марриотт Белый 3х3</t>
+  </si>
+  <si>
+    <t>4630460961335</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 260 х 260 - М - 140 - Можиана Люкс</t>
+  </si>
+  <si>
+    <t>4630460961328</t>
+  </si>
+  <si>
+    <t>Простыня из перкаля на резинке 120 х 200 х 30 - М - 125 - Лунный песок</t>
+  </si>
+  <si>
+    <t>4630460961311</t>
+  </si>
+  <si>
+    <t>Простыня тенсель на резинке 200х220х20 - "Эрос"</t>
+  </si>
+  <si>
+    <t>4630460961304</t>
+  </si>
+  <si>
+    <t>Наволочка страйп-сатин 50х70 - 125 - "Индиго" 1х1</t>
+  </si>
+  <si>
+    <t>4630460961298</t>
+  </si>
+  <si>
+    <t>Пододеяльник варёный хлопок 200х220 - "Стальная тень" (меланж)</t>
+  </si>
+  <si>
+    <t>4630460961281</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин на резинке 160х200х30 - 125 - "Олива" 1х1</t>
+  </si>
+  <si>
+    <t>4630460961274</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро на резинке 160х200х30 - М - Блу Скай</t>
+  </si>
+  <si>
+    <t>4630460961267</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин семейное - "Глубь"</t>
+  </si>
+  <si>
+    <t>4630460961250</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро на резинке 160х200х30 - "Замороженный Перец"</t>
+  </si>
+  <si>
+    <t>4630460961243</t>
+  </si>
+  <si>
+    <t>Простыня из поплина 220 х 240 - М - Гранола</t>
+  </si>
+  <si>
+    <t>4630460961236</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 300х300 - "Синиль"</t>
+  </si>
+  <si>
+    <t>4630460961229</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё ранфорс 1,5 спальное на резинке 140х200х30 - "Фантасмагория" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460961212</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 180х220 - "Ромашковая Нежность"</t>
+  </si>
+  <si>
+    <t>4630460961205</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё перкаль Евро - М - 110 - Каори на зеленом с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460961199</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - Пинклайт</t>
+  </si>
+  <si>
+    <t>4630460961182</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 150 х 200 - "Серый Райнар"</t>
   </si>
 </sst>
 </file>
@@ -2019,6 +2391,502 @@
         <v>231</v>
       </c>
     </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>232</v>
+      </c>
+      <c r="B119" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>234</v>
+      </c>
+      <c r="B120" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>236</v>
+      </c>
+      <c r="B121" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>238</v>
+      </c>
+      <c r="B122" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>240</v>
+      </c>
+      <c r="B123" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>242</v>
+      </c>
+      <c r="B124" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>244</v>
+      </c>
+      <c r="B125" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>246</v>
+      </c>
+      <c r="B126" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>248</v>
+      </c>
+      <c r="B127" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>250</v>
+      </c>
+      <c r="B128" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>252</v>
+      </c>
+      <c r="B129" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>254</v>
+      </c>
+      <c r="B130" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>260</v>
+      </c>
+      <c r="B133" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>262</v>
+      </c>
+      <c r="B134" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>266</v>
+      </c>
+      <c r="B136" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>268</v>
+      </c>
+      <c r="B137" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>276</v>
+      </c>
+      <c r="B141" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>280</v>
+      </c>
+      <c r="B143" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>284</v>
+      </c>
+      <c r="B145" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>286</v>
+      </c>
+      <c r="B146" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>288</v>
+      </c>
+      <c r="B147" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>290</v>
+      </c>
+      <c r="B148" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>292</v>
+      </c>
+      <c r="B149" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>294</v>
+      </c>
+      <c r="B150" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>296</v>
+      </c>
+      <c r="B151" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>298</v>
+      </c>
+      <c r="B152" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>300</v>
+      </c>
+      <c r="B153" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>302</v>
+      </c>
+      <c r="B154" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>304</v>
+      </c>
+      <c r="B155" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>306</v>
+      </c>
+      <c r="B156" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>308</v>
+      </c>
+      <c r="B157" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>310</v>
+      </c>
+      <c r="B158" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>312</v>
+      </c>
+      <c r="B159" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>314</v>
+      </c>
+      <c r="B160" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>316</v>
+      </c>
+      <c r="B161" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>318</v>
+      </c>
+      <c r="B162" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>320</v>
+      </c>
+      <c r="B163" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>322</v>
+      </c>
+      <c r="B164" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>324</v>
+      </c>
+      <c r="B165" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>326</v>
+      </c>
+      <c r="B166" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>328</v>
+      </c>
+      <c r="B167" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>330</v>
+      </c>
+      <c r="B168" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>332</v>
+      </c>
+      <c r="B169" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>334</v>
+      </c>
+      <c r="B170" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>336</v>
+      </c>
+      <c r="B171" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>338</v>
+      </c>
+      <c r="B172" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>340</v>
+      </c>
+      <c r="B173" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>342</v>
+      </c>
+      <c r="B174" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>344</v>
+      </c>
+      <c r="B175" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>346</v>
+      </c>
+      <c r="B176" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>348</v>
+      </c>
+      <c r="B177" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>350</v>
+      </c>
+      <c r="B178" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>352</v>
+      </c>
+      <c r="B179" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>354</v>
+      </c>
+      <c r="B180" t="s">
+        <v>355</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="5"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="846">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -1082,6 +1082,1476 @@
   </si>
   <si>
     <t>Пододеяльник тенсель 150 х 200 - "Серый Райнар"</t>
+  </si>
+  <si>
+    <t>4630460964237</t>
+  </si>
+  <si>
+    <t>Пододеяльник сатин 145х215 - "Скандинавская клетка"</t>
+  </si>
+  <si>
+    <t>4630460964220</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 50 х 50 - М - 120 - Цветник ромашек</t>
+  </si>
+  <si>
+    <t>4630460964213</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 240 х 260 - М - 233 Ментол</t>
+  </si>
+  <si>
+    <t>4630460964206</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 60 х 60 - М - 233 Ментол</t>
+  </si>
+  <si>
+    <t>4630460964190</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 300 х 300 - М - Пастельно-розовый</t>
+  </si>
+  <si>
+    <t>4630460964183</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное на резинке 120х200х30 - М - Фазенда Лиара с наволочкой 50х70</t>
+  </si>
+  <si>
+    <t>4630460964176</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное - "Лесная Вуаль"</t>
+  </si>
+  <si>
+    <t>4630460964169</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное - "Бейж" Универсал</t>
+  </si>
+  <si>
+    <t>4630460964152</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 175х215 - "Розовый Флёр"</t>
+  </si>
+  <si>
+    <t>4630460964145</t>
+  </si>
+  <si>
+    <t>Простыня круглая из тенселя на резинке 200х200х20 - М - 60S 4323 Бежево-розовый</t>
+  </si>
+  <si>
+    <t>4630460964138</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 40х60 - "Розовый Флёр"</t>
+  </si>
+  <si>
+    <t>4630460964121</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50х70 - "Бархатный Букет"</t>
+  </si>
+  <si>
+    <t>4630460964114</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 60 х 60 - "Крылатые сны"</t>
+  </si>
+  <si>
+    <t>4630460964107</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 140х200х40 - М - Пыльная роза</t>
+  </si>
+  <si>
+    <t>4630460964091</t>
+  </si>
+  <si>
+    <t>Пододеяльник твил-сатин 220 х 240 - "Лесная тень"</t>
+  </si>
+  <si>
+    <t>4630460964084</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 150х200 - "Лиловый тауп"</t>
+  </si>
+  <si>
+    <t>4630460964077</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Евро на резинке 160х200х30 - М - 135 - Бежевая Эстетика</t>
+  </si>
+  <si>
+    <t>4630460964060</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 150х200 - "ЭкоФлора"</t>
+  </si>
+  <si>
+    <t>4630460964053</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 200х200 - "Серебряный Папоротник"</t>
+  </si>
+  <si>
+    <t>4630460964046</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - Светлая орхидея</t>
+  </si>
+  <si>
+    <t>4630460964039</t>
+  </si>
+  <si>
+    <t>Простыня круглая из страйп-сатина на резинке 230 х 230 х 40 - М - 135 - Углерод 1х1</t>
+  </si>
+  <si>
+    <t>4630460964022</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - 125 - Лаванда</t>
+  </si>
+  <si>
+    <t>4630460964015</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 200 х 220 - М - 125 - Дневной Аромат</t>
+  </si>
+  <si>
+    <t>4630460964008</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Микрофибра 2 спальное на резинке 160х200х20 - "Гонсало" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460963995</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - 60S 4230 Молочный шоколад</t>
+  </si>
+  <si>
+    <t>4630460963988</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс 220х240 - "Матовый мрамор"</t>
+  </si>
+  <si>
+    <t>4630460963971</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 160 х 200 х 30 - М - 130 - Блю Маджента</t>
+  </si>
+  <si>
+    <t>4630460963964</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 200 х 220 - М - Икат (зеленый)</t>
+  </si>
+  <si>
+    <t>4630460963957</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 175х215 - "Хельми"</t>
+  </si>
+  <si>
+    <t>4630460963940</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин на резинке 140х200х30 - 125 - "Бразилин" 1х1</t>
+  </si>
+  <si>
+    <t>4630460963933</t>
+  </si>
+  <si>
+    <t>Простыня из поплина 180 х 220 - М - Сливочно-кремовый</t>
+  </si>
+  <si>
+    <t>4630460963926</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 280х280 - "Шаде"</t>
+  </si>
+  <si>
+    <t>4630460963919</t>
+  </si>
+  <si>
+    <t>Простыня Полисатин 280х280 - "Грис"</t>
+  </si>
+  <si>
+    <t>4630460963902</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 280х280 - "Шторм"</t>
+  </si>
+  <si>
+    <t>4630460963896</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 200 х 220 х 20 - М - 130 - Теплый металлик 1х1</t>
+  </si>
+  <si>
+    <t>4630460963889</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс на резинке 200х220х40 - "Фантасмагория"</t>
+  </si>
+  <si>
+    <t>4630460963872</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро на резинке 160х200х30 - "Медный"</t>
+  </si>
+  <si>
+    <t>4630460963865</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - Морбидецца</t>
+  </si>
+  <si>
+    <t>4630460963858</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300 х 300 - М - 125 - Аметист 1х1</t>
+  </si>
+  <si>
+    <t>4630460963841</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 300 х 300 - М - 120 - Хадусамат</t>
+  </si>
+  <si>
+    <t>4630460963834</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 300 х 300 - М - 120 - Морион</t>
+  </si>
+  <si>
+    <t>4630460963827</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300 х 300 - М - 125 - Фисташка 1х1</t>
+  </si>
+  <si>
+    <t>4630460963810</t>
+  </si>
+  <si>
+    <t>Простыня сатин 300х300 - "Нефритовый"</t>
+  </si>
+  <si>
+    <t>4630460963803</t>
+  </si>
+  <si>
+    <t>Простыня сатин 300х300 - "Элегантный вензель"</t>
+  </si>
+  <si>
+    <t>4630460963797</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин Евро на резинке 160х200х20 - М - Вуалетка</t>
+  </si>
+  <si>
+    <t>4630460963780</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 200 х 220 - М - 125 - Белый 3х3</t>
+  </si>
+  <si>
+    <t>4630460963773</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 300 х 300 - М - 125 - Обсидиан</t>
+  </si>
+  <si>
+    <t>4630460963766</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп микрофибры 150 х 200 - М - 85 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>4630460963759</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - Розовая лаванда</t>
+  </si>
+  <si>
+    <t>4630460963742</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 220 х 240 - М - 125 - Аквамарин 1х1</t>
+  </si>
+  <si>
+    <t>4630460963735</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное - М - 140 - Голубой 1х1</t>
+  </si>
+  <si>
+    <t>4630460963728</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 2 спальное - 130 - "Серый туман" 1х1</t>
+  </si>
+  <si>
+    <t>4630460963711</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 200 х 220 - М - 60S 41-020 Серебряный</t>
+  </si>
+  <si>
+    <t>4630460963704</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 2 спальное - "Вакита" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460963698</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 150 х 220 - М - 125 - Давид (светло-синий)</t>
+  </si>
+  <si>
+    <t>4630460963681</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 220 х 240 - М - 125 - Рея</t>
+  </si>
+  <si>
+    <t>4630460963674</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 300х300 - "Смоки"</t>
+  </si>
+  <si>
+    <t>4630460963667</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро на резинке 160х200х30 - "Белый Страйп"</t>
+  </si>
+  <si>
+    <t>4630460963650</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 200 х 220 - "Корги-пати"</t>
+  </si>
+  <si>
+    <t>4630460963643</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп Микрофибра 2 спальное на резинке 140х200х30 - "Альбелла" 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460963636</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 2 спальное на резинке 160х200х30 - М - 120 - Урубамба с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460963629</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 300х300 - "Гамба"</t>
+  </si>
+  <si>
+    <t>4630460963612</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 160х200х20 - М - Брызги прибоя</t>
+  </si>
+  <si>
+    <t>4630460963605</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - Брызги прибоя</t>
+  </si>
+  <si>
+    <t>4630460963599</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 200 х 220 х 40 - М - 130 - Антрацитовый</t>
+  </si>
+  <si>
+    <t>4630460963582</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 240 х 260 - М - 130 - Антрацитовый</t>
+  </si>
+  <si>
+    <t>4630460963575</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин Евро на резинке 160х200х30 - "Бонетто"</t>
+  </si>
+  <si>
+    <t>4630460963568</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 280х280 - "Смоки"</t>
+  </si>
+  <si>
+    <t>4630460963551</t>
+  </si>
+  <si>
+    <t>Простыня тенсель на резинке 200х220х30 - "Холодная элегия"</t>
+  </si>
+  <si>
+    <t>4630460963544</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 200х220 - "Холодная элегия"</t>
+  </si>
+  <si>
+    <t>4630460963537</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 70х70 - "Холодная элегия"</t>
+  </si>
+  <si>
+    <t>4630460963520</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье тенсель 2 спальное - "Ларион"</t>
+  </si>
+  <si>
+    <t>4630460963513</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин Евро макси - М - 135 - Эмерэльд 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460963506</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 200х220 - "Хельми"</t>
+  </si>
+  <si>
+    <t>4630460963490</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 50х70 - "Хельми"</t>
+  </si>
+  <si>
+    <t>4630460963483</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 70х70 - "Хельми"</t>
+  </si>
+  <si>
+    <t>4630460963476</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 70х70 - "Линнея"</t>
+  </si>
+  <si>
+    <t>4630460963469</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 50х70 - "Линнея"</t>
+  </si>
+  <si>
+    <t>4630460963452</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 180х200х30 - "Хельми"</t>
+  </si>
+  <si>
+    <t>4630460963445</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 220х240 - "Бракоте" 1х1</t>
+  </si>
+  <si>
+    <t>4630460963438</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 120х200х30 - "Инспайр"</t>
+  </si>
+  <si>
+    <t>4630460963421</t>
+  </si>
+  <si>
+    <t>Простыня тенсель 300х300 - "Чёрный Страйп"</t>
+  </si>
+  <si>
+    <t>4630460963414</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 120 х 200 х 30 - М - 130 - Сланцево-серый 1х1</t>
+  </si>
+  <si>
+    <t>4630460963407</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 130 - Сланцево-серый 1х1</t>
+  </si>
+  <si>
+    <t>4630460963391</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп сатина 175 х 215 - М - 130 - Сланцево-серый 1х1</t>
+  </si>
+  <si>
+    <t>4630460963384</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 1,5 спальное на резинке 120х200х30 - "Селинто" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460963377</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 145 х 215 - М - 120 - Цветник ромашек</t>
+  </si>
+  <si>
+    <t>4630460963360</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 240х260 - "Тонкий Лист"</t>
+  </si>
+  <si>
+    <t>4630460963353</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 70х70 - "Тонкий Лист"</t>
+  </si>
+  <si>
+    <t>4630460963346</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 160х200х30 - "Севим"</t>
+  </si>
+  <si>
+    <t>4630460963339</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 200х220 - "Севим"</t>
+  </si>
+  <si>
+    <t>4630460963322</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 70х70 - "Севим"</t>
+  </si>
+  <si>
+    <t>4630460963315</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин на резинке 140х200х20 - 130 - "Олива" 1х1</t>
+  </si>
+  <si>
+    <t>4630460963308</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин на резинке 200х200х20 - 130 - "Олива" 1х1</t>
+  </si>
+  <si>
+    <t>4630460963292</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 150х200 - 130 - "Олива" 1х1</t>
+  </si>
+  <si>
+    <t>4630460963285</t>
+  </si>
+  <si>
+    <t>Наволочка страйп-сатин 50х70 - 130 - "Олива" 1х1</t>
+  </si>
+  <si>
+    <t>4630460963278</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 2 спальное - М - 120 - Литера с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460963261</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин Евро на резинке 160х200х30 - М - 135 - Платина 1х1</t>
+  </si>
+  <si>
+    <t>4630460963254</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин Евро на резинке 160х200х30 - М - 135 - Кортадерия 1х1</t>
+  </si>
+  <si>
+    <t>4630460963247</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина-жаккарда 150 х 200 - М - Макадамия</t>
+  </si>
+  <si>
+    <t>4630460963230</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина-жаккарда 70 х 70 - М - Макадамия</t>
+  </si>
+  <si>
+    <t>4630460963223</t>
+  </si>
+  <si>
+    <t>Простыня из сатина-жаккарда 300 х 300 - М - Макадамия</t>
+  </si>
+  <si>
+    <t>4630460963216</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 150х200 - "Лунный Одуванчик"</t>
+  </si>
+  <si>
+    <t>4630460963209</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 80 х 200 х 30 - М - 135 - Цитрус 3х3</t>
+  </si>
+  <si>
+    <t>4630460963193</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин семейное на резинке 160х200х30 - 130 - "Летний дождь" 1х1</t>
+  </si>
+  <si>
+    <t>4630460963186</t>
+  </si>
+  <si>
+    <t>Простыня тенсель на резинке 200х200х30 - "Призрачная лагуна"</t>
+  </si>
+  <si>
+    <t>4630460963179</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 200х220 - "Призрачная лагуна"</t>
+  </si>
+  <si>
+    <t>4630460963162</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50х70 - "Призрачная лагуна"</t>
+  </si>
+  <si>
+    <t>4630460963155</t>
+  </si>
+  <si>
+    <t>Простыня тенсель на резинке 200х200х30 - "Серебро Облаков"</t>
+  </si>
+  <si>
+    <t>4630460963148</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 200х220 - "Серебро Облаков"</t>
+  </si>
+  <si>
+    <t>4630460963131</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50х70 - "Серебро Облаков"</t>
+  </si>
+  <si>
+    <t>4630460963124</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 120х200х30 - "Лунный Одуванчик" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460963117</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 140х200х30 - "Инспайр"</t>
+  </si>
+  <si>
+    <t>4630460963100</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 140х200х30 - "Лунный Одуванчик"</t>
+  </si>
+  <si>
+    <t>4630460963094</t>
+  </si>
+  <si>
+    <t>Наволочка из перкаля 50 х 70 - М - 110 - Каори на зеленом</t>
+  </si>
+  <si>
+    <t>4630460963087</t>
+  </si>
+  <si>
+    <t>Простыня из перкаля 280 х 280 - М - 110 - Каори на зеленом</t>
+  </si>
+  <si>
+    <t>4630460963070</t>
+  </si>
+  <si>
+    <t>Пододеяльник из перкаля 200 х 220 - М - 110 - Каори на зеленом</t>
+  </si>
+  <si>
+    <t>4630460963063</t>
+  </si>
+  <si>
+    <t>Пододеяльник из перкаля 175 х 215 - М - 110 - Каори на зеленом</t>
+  </si>
+  <si>
+    <t>4630460963056</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 300х300 - "Зайга"</t>
+  </si>
+  <si>
+    <t>4630460963049</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное на резинке 140х200х30 - "Плюмас"</t>
+  </si>
+  <si>
+    <t>4630460963032</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье варёный хлопок семейное на резинке 180х200х30 - "Стальная тень" (меланж)</t>
+  </si>
+  <si>
+    <t>4630460963025</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50 х 70 - "Ледяная Мята"</t>
+  </si>
+  <si>
+    <t>4630460963018</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 200х200х30 - "Гуголету"</t>
+  </si>
+  <si>
+    <t>4630460963001</t>
+  </si>
+  <si>
+    <t>Наволочка Тенсель 50х70 - "Дасти Роуз"</t>
+  </si>
+  <si>
+    <t>4630460962998</t>
+  </si>
+  <si>
+    <t>Пододеяльник Тенсель 240х260 - "Дасти Роуз"</t>
+  </si>
+  <si>
+    <t>4630460962981</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 300х300 - "Бежевый шлейф"</t>
+  </si>
+  <si>
+    <t>4630460962974</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 200х200х40 - М - Чериньола</t>
+  </si>
+  <si>
+    <t>4630460962967</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 145 х 215 - М - Чериньола</t>
+  </si>
+  <si>
+    <t>4630460962950</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - Чериньола</t>
+  </si>
+  <si>
+    <t>4630460962943</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - Черничный смузи</t>
+  </si>
+  <si>
+    <t>4630460962936</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50х70 - "Кофейный крем"</t>
+  </si>
+  <si>
+    <t>4630460962929</t>
+  </si>
+  <si>
+    <t>Пододеяльник Тенсель 220х240 - "Асунсьон"</t>
+  </si>
+  <si>
+    <t>4630460962912</t>
+  </si>
+  <si>
+    <t>Наволочка Тенсель 40х60 - "Асунсьон"</t>
+  </si>
+  <si>
+    <t>4630460962905</t>
+  </si>
+  <si>
+    <t>Простыня круглая полисатин на резинке 210 х 210 х 30 - "Кленовая зелень"</t>
+  </si>
+  <si>
+    <t>4630460962899</t>
+  </si>
+  <si>
+    <t>Наволочка микросатин 50х70 - "Легкий роман"</t>
+  </si>
+  <si>
+    <t>4630460962882</t>
+  </si>
+  <si>
+    <t>Наволочка микросатин 50х70 - "Залив"</t>
+  </si>
+  <si>
+    <t>4630460962875</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок Евро - М - Чёрная гавань</t>
+  </si>
+  <si>
+    <t>4630460962868</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок Евро - М - Голубая сталь</t>
+  </si>
+  <si>
+    <t>4630460962851</t>
+  </si>
+  <si>
+    <t>Наволочка варёный хлопок 70х70 - "Стальная тень" (меланж)</t>
+  </si>
+  <si>
+    <t>4630460962844</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 1,5 спальное на резинке 120х200х30 - "Милкшейк" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962837</t>
+  </si>
+  <si>
+    <t>Наволочка сатин 50х70 - "Скандинавская клетка"</t>
+  </si>
+  <si>
+    <t>4630460962820</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 70 х 70 - М - 140 - Голубой 1х1</t>
+  </si>
+  <si>
+    <t>4630460962813</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 120х200х30 - "Камара" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962806</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 300х300 - "Лав юселф"</t>
+  </si>
+  <si>
+    <t>4630460962790</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 300х300 - "Серебряная Фантазия"</t>
+  </si>
+  <si>
+    <t>4630460962783</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 280х280 - "Угольная Паутинка"</t>
+  </si>
+  <si>
+    <t>4630460962776</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 300х300 - "Эвергрин"</t>
+  </si>
+  <si>
+    <t>4630460962769</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье сатин Браш 2 спальное на резинке 160х200х30 - "Бронзит" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962752</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 240х260 - "Смоки"</t>
+  </si>
+  <si>
+    <t>4630460962745</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 2 спальное с Евро простыней - "Танец крыльев" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962738</t>
+  </si>
+  <si>
+    <t>КПБ Детское постельное бельё бязь 1,5 спальное - М - 120 - Спящий Мишка на бежевом с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962721</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 145 х 215 - М - 142 ГОСТ - Черный</t>
+  </si>
+  <si>
+    <t>4630460962714</t>
+  </si>
+  <si>
+    <t>Простыня твил-сатин на резинке 160х200х40 - "Хризоколла"</t>
+  </si>
+  <si>
+    <t>4630460962707</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 1,5 спальное на резинке 160х200х20 - М - Небесный Пиксель А+В</t>
+  </si>
+  <si>
+    <t>4630460962691</t>
+  </si>
+  <si>
+    <t>Пододеяльник Тенсель 240х260 - "Марципан"</t>
+  </si>
+  <si>
+    <t>4630460962684</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 1,5 спальное - "Флорал" Универсал</t>
+  </si>
+  <si>
+    <t>4630460962677</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное - М - Пинклайт Универсал</t>
+  </si>
+  <si>
+    <t>4630460962660</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное на резинке 90х200х30 - 125 - "Капучино" 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962653</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Перкаль 2 спальное - "Чёрное масло"</t>
+  </si>
+  <si>
+    <t>4630460962646</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 1,5 спальное на резинке 140х200х30 - "Линнея"</t>
+  </si>
+  <si>
+    <t>4630460962639</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё перкаль семейное на резинке 160х200х30 - М - 110 - Белоснежный луч</t>
+  </si>
+  <si>
+    <t>4630460962622</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс 260 х 260 - Голубой</t>
+  </si>
+  <si>
+    <t>4630460962615</t>
+  </si>
+  <si>
+    <t>Пододеяльник ранфорс 240 х 260 - Голубой</t>
+  </si>
+  <si>
+    <t>4630460962608</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 80 х 200 х 10 - М - 142 ГОСТ - Черный</t>
+  </si>
+  <si>
+    <t>4630460962592</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 300х300 - "Севим"</t>
+  </si>
+  <si>
+    <t>4630460962585</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 300х300 - "Гуголету"</t>
+  </si>
+  <si>
+    <t>4630460962578</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин Евро на резинке 160х200х20 - М - Прелат А+В</t>
+  </si>
+  <si>
+    <t>4630460962561</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 50 х 70 - М - 125 - Предгорье</t>
+  </si>
+  <si>
+    <t>4630460962554</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин King Size на резинке 200х200х30 - "Розанна"</t>
+  </si>
+  <si>
+    <t>4630460962547</t>
+  </si>
+  <si>
+    <t>Простыня Полисатин 240х260 - "Грис"</t>
+  </si>
+  <si>
+    <t>4630460962530</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 2 спальное с Евро простыней - М - 120 - Северные Волки</t>
+  </si>
+  <si>
+    <t>4630460962523</t>
+  </si>
+  <si>
+    <t>Простыня круглая Жатка на резинке 200х200х30 - "Природный Абстракт"</t>
+  </si>
+  <si>
+    <t>4630460962516</t>
+  </si>
+  <si>
+    <t>Простыня круглая Жатка на резинке 200х200х30 - "Звёздный Вальс"</t>
+  </si>
+  <si>
+    <t>4630460962509</t>
+  </si>
+  <si>
+    <t>Простыня круглая Жатка на резинке 200х200х20 - "Ледяной Мрамор"</t>
+  </si>
+  <si>
+    <t>4630460962493</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё твил-сатин 2 спальное на резинке 140х200х30 - "Котик в космосе" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962486</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 120х200х30 - "Письменный Бриз" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962479</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 1,5 спальное на резинке 140х200х30 - М - 125 - Паслен А+В с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962462</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп Микрофибра 2 спальное с Евро простыней - "Альбелла" 1х1</t>
+  </si>
+  <si>
+    <t>4630460962455</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное на резинке 140х200х30 - М - 130 - Пудровый 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962448</t>
+  </si>
+  <si>
+    <t>Простыня из перкаля на резинке 200 х 220 х 30 - М - 125 - Радмила</t>
+  </si>
+  <si>
+    <t>4630460962431</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё перкаль 1,5 спальное на резинке 120х200х30 - М - 110 - Каори на зеленом с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962424</t>
+  </si>
+  <si>
+    <t>Наволочка страйп-сатин 50х70 - 130 - "Изумрудный малахит" 1х1</t>
+  </si>
+  <si>
+    <t>4630460962417</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 70х70 - "Эвергрин"</t>
+  </si>
+  <si>
+    <t>4630460962400</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь Евро на резинке 160х200х20 - М - 142 - Биг Бен</t>
+  </si>
+  <si>
+    <t>4630460962394</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 70 х 70 - М - 142 ГОСТ - Космические Звёзды</t>
+  </si>
+  <si>
+    <t>4630460962387</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 300х300 - "Графитовый Зигзаг"</t>
+  </si>
+  <si>
+    <t>4630460962370</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 150 х 200 - М - 125 - Дневной Аромат</t>
+  </si>
+  <si>
+    <t>4630460962363</t>
+  </si>
+  <si>
+    <t>Наволочка Микрофибра 50х70 - "Петкана"</t>
+  </si>
+  <si>
+    <t>4630460962356</t>
+  </si>
+  <si>
+    <t>Простыня Микрофибра на резинке 120х200х30 - "Петкана"</t>
+  </si>
+  <si>
+    <t>4630460962349</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 120 х 200 х 30 - М - 130 - Полуночный ультрамарин 1х1</t>
+  </si>
+  <si>
+    <t>4630460962332</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 130 - Полуночный ультрамарин 1х1</t>
+  </si>
+  <si>
+    <t>4630460962325</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное на резинке 140х200х30 - "Замороженный Перец" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962318</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье тенсель семейное на резинке 180х200х30 - "Осенняя Слива"</t>
+  </si>
+  <si>
+    <t>4630460962301</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 200х200 - "Амелин" 1х1</t>
+  </si>
+  <si>
+    <t>4630460962295</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин Евро Макси - "Розанна" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962288</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок Евро Макси на резинке 180х200х30 - М - Светло-пюсовый</t>
+  </si>
+  <si>
+    <t>4630460962271</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Браш Евро - М - Кремовый бархат с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962264</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 1,5 спальное на резинке 160х200х20 - М - Черный матовый</t>
+  </si>
+  <si>
+    <t>4630460962257</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 200 х 220 х 30 - М - 135 - Марриотт Белый 3х3</t>
+  </si>
+  <si>
+    <t>4630460962240</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное на резинке 180х200х30 - М - Морской</t>
+  </si>
+  <si>
+    <t>4630460962233</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - Р - М - Фисташка</t>
+  </si>
+  <si>
+    <t>4630460962226</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное на резинке 160х200х30 - "Ледяная Мята" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962219</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье тенсель семейное на резинке 160х200х30 - "Песочная роза" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962202</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин 240х260 - 130 - "Изумрудный малахит" 1х1</t>
+  </si>
+  <si>
+    <t>4630460962196</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп сатина 240х260 - 130 - "Изумрудный малахит" 1х1</t>
+  </si>
+  <si>
+    <t>4630460962189</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 175х215 - "Страстный гранат"</t>
+  </si>
+  <si>
+    <t>4630460962172</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное - "Сиренево-розовый" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962165</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 240х260 - "Бездна"</t>
+  </si>
+  <si>
+    <t>4630460962158</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 240х260 - "Бежевый шлейф"</t>
+  </si>
+  <si>
+    <t>4630460962141</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 2 спальное на резинке 140х200х30 - М - 125 - Рея с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962134</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 2 спальное на резинке 140х200х30 - "Нежный Листопад" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962127</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 200 х 220 - М - 135 - Ларимар 1х1</t>
+  </si>
+  <si>
+    <t>4630460962110</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 140х200х20 - М - Блу Скай</t>
+  </si>
+  <si>
+    <t>4630460962103</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 40 х 40 - М - 125 - Аквамарин 1х1</t>
+  </si>
+  <si>
+    <t>4630460962097</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 60 х 60 - М - 135 - Блу Хейз 1х1</t>
+  </si>
+  <si>
+    <t>4630460962080</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 240х260 - "Залив"</t>
+  </si>
+  <si>
+    <t>4630460962073</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 200х220 - "Белый Этюд"</t>
+  </si>
+  <si>
+    <t>4630460962066</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 135 - Грейс-Бэй 1х1</t>
+  </si>
+  <si>
+    <t>4630460962059</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 200 х 220 - М - 135 - Грейс-Бэй 1х1</t>
+  </si>
+  <si>
+    <t>4630460962042</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 160 х 200 х 30 - М - 135 - Грейс-Бэй 1х1</t>
+  </si>
+  <si>
+    <t>4630460962035</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро на резинке 160х200х30 - М - Морской с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962028</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 200 - М - Петроль</t>
+  </si>
+  <si>
+    <t>4630460962011</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 2 спальное на резинке 160х200х30 - М - 60S 129 Темно-зеленый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460962004</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 150 х 200 - М - 140 - Тенерифе 1х1</t>
+  </si>
+  <si>
+    <t>4630460961991</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 180х200х30 - М - Фазенда Лиара</t>
+  </si>
+  <si>
+    <t>4630460961984</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 80 х 200 х 10 - М - 142 ГОСТ - Серый</t>
+  </si>
+  <si>
+    <t>4630460961977</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё твил-сатин 1,5 спальное на резинке 120х200х30 - "Ламы" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460961960</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро - М - 60S 71 Персик с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460961953</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 1,5 спальное на резинке 140х200х30 - "Зайга" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460961946</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс 300 х 300 - Голубой</t>
+  </si>
+  <si>
+    <t>4630460961939</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 120х200х30 - "Ледяной Мрамор"</t>
+  </si>
+  <si>
+    <t>4630460961922</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 1,5 спальное на резинке 120х200х30 - "Небосвод"</t>
+  </si>
+  <si>
+    <t>4630460961915</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 2 спальное на резинке 140х200х30 - М - Черный матовый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460961908</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 2 спальное на резинке 140х200х30 - М - Белоснежное с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460961892</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - Гималайские маки</t>
+  </si>
+  <si>
+    <t>4630460961885</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро - М - Мята</t>
+  </si>
+  <si>
+    <t>4630460961878</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 1,5 спальное на резинке 90х200х30 - М - Ночной колпак</t>
+  </si>
+  <si>
+    <t>4630460961861</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 160 х 200 х 40 - М - 135 - Грей Нимбус</t>
+  </si>
+  <si>
+    <t>4630460961854</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 1,5 спальное на резинке 140х200х30 - М - 120 - Баден Гольд</t>
+  </si>
+  <si>
+    <t>4630460961847</t>
+  </si>
+  <si>
+    <t>Пододеяльник из варёного хлопка 240 х 260 - М - 638 Крем-брюле</t>
+  </si>
+  <si>
+    <t>4630460961830</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 220 х 240 - "Кианит"</t>
+  </si>
+  <si>
+    <t>4630460961823</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 80 х 200 х 20 - М - 130 - Антрацитовый</t>
+  </si>
+  <si>
+    <t>4630460961816</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 200х220 - "Серебряный Папоротник"</t>
+  </si>
+  <si>
+    <t>4630460961809</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 160х200х40 - "Серебряный Папоротник"</t>
+  </si>
+  <si>
+    <t>4630460964244</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 200 х 220 - М - 125 - Паслен А+В</t>
   </si>
 </sst>
 </file>
@@ -2887,6 +4357,1966 @@
         <v>355</v>
       </c>
     </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>356</v>
+      </c>
+      <c r="B181" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>358</v>
+      </c>
+      <c r="B182" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>360</v>
+      </c>
+      <c r="B183" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>362</v>
+      </c>
+      <c r="B184" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>364</v>
+      </c>
+      <c r="B185" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>366</v>
+      </c>
+      <c r="B186" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>368</v>
+      </c>
+      <c r="B187" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>370</v>
+      </c>
+      <c r="B188" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>372</v>
+      </c>
+      <c r="B189" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>374</v>
+      </c>
+      <c r="B190" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>376</v>
+      </c>
+      <c r="B191" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>378</v>
+      </c>
+      <c r="B192" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>380</v>
+      </c>
+      <c r="B193" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>382</v>
+      </c>
+      <c r="B194" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>384</v>
+      </c>
+      <c r="B195" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>386</v>
+      </c>
+      <c r="B196" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>388</v>
+      </c>
+      <c r="B197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>390</v>
+      </c>
+      <c r="B198" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>392</v>
+      </c>
+      <c r="B199" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>394</v>
+      </c>
+      <c r="B200" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>396</v>
+      </c>
+      <c r="B201" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>398</v>
+      </c>
+      <c r="B202" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>400</v>
+      </c>
+      <c r="B203" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>402</v>
+      </c>
+      <c r="B204" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>404</v>
+      </c>
+      <c r="B205" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>406</v>
+      </c>
+      <c r="B206" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>408</v>
+      </c>
+      <c r="B207" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>410</v>
+      </c>
+      <c r="B208" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>412</v>
+      </c>
+      <c r="B209" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>414</v>
+      </c>
+      <c r="B210" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>416</v>
+      </c>
+      <c r="B211" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>418</v>
+      </c>
+      <c r="B212" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>420</v>
+      </c>
+      <c r="B213" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>422</v>
+      </c>
+      <c r="B214" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>424</v>
+      </c>
+      <c r="B215" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>426</v>
+      </c>
+      <c r="B216" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>428</v>
+      </c>
+      <c r="B217" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>430</v>
+      </c>
+      <c r="B218" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>432</v>
+      </c>
+      <c r="B219" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>434</v>
+      </c>
+      <c r="B220" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>436</v>
+      </c>
+      <c r="B221" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>438</v>
+      </c>
+      <c r="B222" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>440</v>
+      </c>
+      <c r="B223" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>442</v>
+      </c>
+      <c r="B224" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>444</v>
+      </c>
+      <c r="B225" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>446</v>
+      </c>
+      <c r="B226" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>448</v>
+      </c>
+      <c r="B227" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>450</v>
+      </c>
+      <c r="B228" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>452</v>
+      </c>
+      <c r="B229" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>454</v>
+      </c>
+      <c r="B230" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>456</v>
+      </c>
+      <c r="B231" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>458</v>
+      </c>
+      <c r="B232" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>460</v>
+      </c>
+      <c r="B233" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>462</v>
+      </c>
+      <c r="B234" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>464</v>
+      </c>
+      <c r="B235" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>466</v>
+      </c>
+      <c r="B236" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>468</v>
+      </c>
+      <c r="B237" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>470</v>
+      </c>
+      <c r="B238" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>472</v>
+      </c>
+      <c r="B239" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>474</v>
+      </c>
+      <c r="B240" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>476</v>
+      </c>
+      <c r="B241" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>478</v>
+      </c>
+      <c r="B242" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>480</v>
+      </c>
+      <c r="B243" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>482</v>
+      </c>
+      <c r="B244" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>484</v>
+      </c>
+      <c r="B245" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>486</v>
+      </c>
+      <c r="B246" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>488</v>
+      </c>
+      <c r="B247" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>490</v>
+      </c>
+      <c r="B248" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>492</v>
+      </c>
+      <c r="B249" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>494</v>
+      </c>
+      <c r="B250" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>496</v>
+      </c>
+      <c r="B251" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>498</v>
+      </c>
+      <c r="B252" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>500</v>
+      </c>
+      <c r="B253" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>502</v>
+      </c>
+      <c r="B254" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>504</v>
+      </c>
+      <c r="B255" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>506</v>
+      </c>
+      <c r="B256" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>508</v>
+      </c>
+      <c r="B257" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>510</v>
+      </c>
+      <c r="B258" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>512</v>
+      </c>
+      <c r="B259" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>514</v>
+      </c>
+      <c r="B260" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>516</v>
+      </c>
+      <c r="B261" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>518</v>
+      </c>
+      <c r="B262" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>520</v>
+      </c>
+      <c r="B263" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>522</v>
+      </c>
+      <c r="B264" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>524</v>
+      </c>
+      <c r="B265" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>526</v>
+      </c>
+      <c r="B266" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>528</v>
+      </c>
+      <c r="B267" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>530</v>
+      </c>
+      <c r="B268" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>532</v>
+      </c>
+      <c r="B269" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>534</v>
+      </c>
+      <c r="B270" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>536</v>
+      </c>
+      <c r="B271" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>538</v>
+      </c>
+      <c r="B272" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>540</v>
+      </c>
+      <c r="B273" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>542</v>
+      </c>
+      <c r="B274" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>544</v>
+      </c>
+      <c r="B275" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>546</v>
+      </c>
+      <c r="B276" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>548</v>
+      </c>
+      <c r="B277" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>550</v>
+      </c>
+      <c r="B278" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>552</v>
+      </c>
+      <c r="B279" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>554</v>
+      </c>
+      <c r="B280" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>556</v>
+      </c>
+      <c r="B281" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>558</v>
+      </c>
+      <c r="B282" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>560</v>
+      </c>
+      <c r="B283" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>562</v>
+      </c>
+      <c r="B284" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>564</v>
+      </c>
+      <c r="B285" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>566</v>
+      </c>
+      <c r="B286" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>568</v>
+      </c>
+      <c r="B287" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>570</v>
+      </c>
+      <c r="B288" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>572</v>
+      </c>
+      <c r="B289" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>574</v>
+      </c>
+      <c r="B290" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>576</v>
+      </c>
+      <c r="B291" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>578</v>
+      </c>
+      <c r="B292" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>580</v>
+      </c>
+      <c r="B293" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>582</v>
+      </c>
+      <c r="B294" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>584</v>
+      </c>
+      <c r="B295" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>586</v>
+      </c>
+      <c r="B296" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>588</v>
+      </c>
+      <c r="B297" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>590</v>
+      </c>
+      <c r="B298" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>592</v>
+      </c>
+      <c r="B299" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>594</v>
+      </c>
+      <c r="B300" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>596</v>
+      </c>
+      <c r="B301" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>598</v>
+      </c>
+      <c r="B302" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>600</v>
+      </c>
+      <c r="B303" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>602</v>
+      </c>
+      <c r="B304" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>604</v>
+      </c>
+      <c r="B305" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>606</v>
+      </c>
+      <c r="B306" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>608</v>
+      </c>
+      <c r="B307" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>610</v>
+      </c>
+      <c r="B308" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>612</v>
+      </c>
+      <c r="B309" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>614</v>
+      </c>
+      <c r="B310" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>616</v>
+      </c>
+      <c r="B311" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>618</v>
+      </c>
+      <c r="B312" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>620</v>
+      </c>
+      <c r="B313" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>622</v>
+      </c>
+      <c r="B314" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>624</v>
+      </c>
+      <c r="B315" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>626</v>
+      </c>
+      <c r="B316" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>628</v>
+      </c>
+      <c r="B317" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>630</v>
+      </c>
+      <c r="B318" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>632</v>
+      </c>
+      <c r="B319" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>634</v>
+      </c>
+      <c r="B320" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>636</v>
+      </c>
+      <c r="B321" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>638</v>
+      </c>
+      <c r="B322" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>640</v>
+      </c>
+      <c r="B323" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>642</v>
+      </c>
+      <c r="B324" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>644</v>
+      </c>
+      <c r="B325" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>646</v>
+      </c>
+      <c r="B326" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>648</v>
+      </c>
+      <c r="B327" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>650</v>
+      </c>
+      <c r="B328" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>652</v>
+      </c>
+      <c r="B329" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>654</v>
+      </c>
+      <c r="B330" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>656</v>
+      </c>
+      <c r="B331" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>658</v>
+      </c>
+      <c r="B332" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>660</v>
+      </c>
+      <c r="B333" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>662</v>
+      </c>
+      <c r="B334" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>664</v>
+      </c>
+      <c r="B335" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>666</v>
+      </c>
+      <c r="B336" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>668</v>
+      </c>
+      <c r="B337" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>670</v>
+      </c>
+      <c r="B338" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>672</v>
+      </c>
+      <c r="B339" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>674</v>
+      </c>
+      <c r="B340" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>676</v>
+      </c>
+      <c r="B341" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>678</v>
+      </c>
+      <c r="B342" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>680</v>
+      </c>
+      <c r="B343" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>682</v>
+      </c>
+      <c r="B344" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>684</v>
+      </c>
+      <c r="B345" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>686</v>
+      </c>
+      <c r="B346" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>688</v>
+      </c>
+      <c r="B347" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>690</v>
+      </c>
+      <c r="B348" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>692</v>
+      </c>
+      <c r="B349" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>694</v>
+      </c>
+      <c r="B350" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>696</v>
+      </c>
+      <c r="B351" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>698</v>
+      </c>
+      <c r="B352" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>700</v>
+      </c>
+      <c r="B353" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>702</v>
+      </c>
+      <c r="B354" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>704</v>
+      </c>
+      <c r="B355" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>706</v>
+      </c>
+      <c r="B356" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>708</v>
+      </c>
+      <c r="B357" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>710</v>
+      </c>
+      <c r="B358" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>712</v>
+      </c>
+      <c r="B359" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>714</v>
+      </c>
+      <c r="B360" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>716</v>
+      </c>
+      <c r="B361" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>718</v>
+      </c>
+      <c r="B362" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>720</v>
+      </c>
+      <c r="B363" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>722</v>
+      </c>
+      <c r="B364" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>724</v>
+      </c>
+      <c r="B365" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>726</v>
+      </c>
+      <c r="B366" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>728</v>
+      </c>
+      <c r="B367" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>730</v>
+      </c>
+      <c r="B368" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>732</v>
+      </c>
+      <c r="B369" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>734</v>
+      </c>
+      <c r="B370" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>736</v>
+      </c>
+      <c r="B371" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>738</v>
+      </c>
+      <c r="B372" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>740</v>
+      </c>
+      <c r="B373" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>742</v>
+      </c>
+      <c r="B374" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>744</v>
+      </c>
+      <c r="B375" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>746</v>
+      </c>
+      <c r="B376" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>748</v>
+      </c>
+      <c r="B377" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>750</v>
+      </c>
+      <c r="B378" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>752</v>
+      </c>
+      <c r="B379" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>754</v>
+      </c>
+      <c r="B380" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>756</v>
+      </c>
+      <c r="B381" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>758</v>
+      </c>
+      <c r="B382" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>760</v>
+      </c>
+      <c r="B383" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>762</v>
+      </c>
+      <c r="B384" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>764</v>
+      </c>
+      <c r="B385" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>766</v>
+      </c>
+      <c r="B386" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>768</v>
+      </c>
+      <c r="B387" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>770</v>
+      </c>
+      <c r="B388" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>772</v>
+      </c>
+      <c r="B389" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>774</v>
+      </c>
+      <c r="B390" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>776</v>
+      </c>
+      <c r="B391" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>778</v>
+      </c>
+      <c r="B392" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>780</v>
+      </c>
+      <c r="B393" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>782</v>
+      </c>
+      <c r="B394" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>784</v>
+      </c>
+      <c r="B395" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>786</v>
+      </c>
+      <c r="B396" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>788</v>
+      </c>
+      <c r="B397" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>790</v>
+      </c>
+      <c r="B398" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>792</v>
+      </c>
+      <c r="B399" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>794</v>
+      </c>
+      <c r="B400" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>796</v>
+      </c>
+      <c r="B401" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>798</v>
+      </c>
+      <c r="B402" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>800</v>
+      </c>
+      <c r="B403" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>802</v>
+      </c>
+      <c r="B404" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>804</v>
+      </c>
+      <c r="B405" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>806</v>
+      </c>
+      <c r="B406" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>808</v>
+      </c>
+      <c r="B407" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>810</v>
+      </c>
+      <c r="B408" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>812</v>
+      </c>
+      <c r="B409" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>814</v>
+      </c>
+      <c r="B410" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>816</v>
+      </c>
+      <c r="B411" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>818</v>
+      </c>
+      <c r="B412" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>820</v>
+      </c>
+      <c r="B413" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>822</v>
+      </c>
+      <c r="B414" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>824</v>
+      </c>
+      <c r="B415" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>826</v>
+      </c>
+      <c r="B416" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>828</v>
+      </c>
+      <c r="B417" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>830</v>
+      </c>
+      <c r="B418" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>832</v>
+      </c>
+      <c r="B419" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>834</v>
+      </c>
+      <c r="B420" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>836</v>
+      </c>
+      <c r="B421" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>838</v>
+      </c>
+      <c r="B422" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>840</v>
+      </c>
+      <c r="B423" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>842</v>
+      </c>
+      <c r="B424" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>844</v>
+      </c>
+      <c r="B425" t="s">
+        <v>845</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="5"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="1008">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -2552,6 +2552,492 @@
   </si>
   <si>
     <t>Пододеяльник из бязи 200 х 220 - М - 125 - Паслен А+В</t>
+  </si>
+  <si>
+    <t>4630460965036</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50х70 - "Чёрный Страйп"</t>
+  </si>
+  <si>
+    <t>4630460965029</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё креп-жатка 1,5 спальное на резинке 90х200х30 - М - 90 - Теплые Пожелания</t>
+  </si>
+  <si>
+    <t>4630460965012</t>
+  </si>
+  <si>
+    <t>Наволочка сатин 70х70 - "Цветы в Тумане"</t>
+  </si>
+  <si>
+    <t>4630460965005</t>
+  </si>
+  <si>
+    <t>Пододеяльник сатин 220х240 - "Цветы в Тумане"</t>
+  </si>
+  <si>
+    <t>4630460964992</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 1,5 спальное на резинке 120х200х30 - М - Берлинская лазурь с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460964985</t>
+  </si>
+  <si>
+    <t>Наволочка сатин Браш 40х40 - "Белый Оникс"</t>
+  </si>
+  <si>
+    <t>4630460964978</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 160х200х30 - "Лунный Одуванчик"</t>
+  </si>
+  <si>
+    <t>4630460964961</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро - "Серебряный Папоротник" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460964954</t>
+  </si>
+  <si>
+    <t>Наволочка Жатка 50х70 - "Альфредо"</t>
+  </si>
+  <si>
+    <t>4630460964947</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 160х200х30 - "Хельми"</t>
+  </si>
+  <si>
+    <t>4630460964930</t>
+  </si>
+  <si>
+    <t>Пододеяльник ранфорс 220 х 240 - Голубой</t>
+  </si>
+  <si>
+    <t>4630460964923</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 1,5 спальное на резинке 120х200х30 - "Глисса" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460964916</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин Евро на резинке 160х200х30 - "Легкий роман" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460964909</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 280х280 - "Серебряная Фантазия"</t>
+  </si>
+  <si>
+    <t>4630460964893</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 2 спальное на резинке 160х200х30 - 125 - "Бразилин" 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460964886</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 70х70 - "Серебро Облаков"</t>
+  </si>
+  <si>
+    <t>4630460964879</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 1,5 спальное на резинке 140х200х30 - М - 135 - Кремово-белый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460964862</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 280х280 - "Леопардовый Сон"</t>
+  </si>
+  <si>
+    <t>4630460964855</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 200 х 220 - М - 135 - Принцесс Эн 1х1</t>
+  </si>
+  <si>
+    <t>4630460964848</t>
+  </si>
+  <si>
+    <t>Пододеяльник ранфорс 175х215 - "Кремневый серый"</t>
+  </si>
+  <si>
+    <t>4630460964831</t>
+  </si>
+  <si>
+    <t>Наволочка ранфорс 50х70 - "Кремневый серый"</t>
+  </si>
+  <si>
+    <t>4630460964824</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс 280х280 - "Кремневый серый"</t>
+  </si>
+  <si>
+    <t>4630460964817</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс на резинке 180х200х30 - Белый</t>
+  </si>
+  <si>
+    <t>4630460964800</t>
+  </si>
+  <si>
+    <t>Наволочка ранфорс 70х70 - Белый</t>
+  </si>
+  <si>
+    <t>4630460964794</t>
+  </si>
+  <si>
+    <t>Наволочка ранфорс 50х70 - Белый</t>
+  </si>
+  <si>
+    <t>4630460964787</t>
+  </si>
+  <si>
+    <t>Пододеяльник ранфорс 145х215 - Белый</t>
+  </si>
+  <si>
+    <t>4630460964770</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 300х300 - "Розанна"</t>
+  </si>
+  <si>
+    <t>4630460964763</t>
+  </si>
+  <si>
+    <t>Наволочка Жатка 70х70 - "Парижский Шарм"</t>
+  </si>
+  <si>
+    <t>4630460964756</t>
+  </si>
+  <si>
+    <t>Простыня тенсель 280х280 - "Призрачная лагуна"</t>
+  </si>
+  <si>
+    <t>4630460964749</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 145 х 215 - М - Меропа</t>
+  </si>
+  <si>
+    <t>4630460964732</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Евро макси на резинке 180х200х30 - М - 120 - Снежинка</t>
+  </si>
+  <si>
+    <t>4630460964725</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50х70 - "Цветочный Шёпот"</t>
+  </si>
+  <si>
+    <t>4630460964718</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье тенсель 2 спальное с Евро простыней - "Лаванда Страйп"</t>
+  </si>
+  <si>
+    <t>4630460964701</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 180х200х30 - М - Премиум ТС 320 Белый</t>
+  </si>
+  <si>
+    <t>4630460964695</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 2 спальное с Евро простыней - М - 135 - Чирок</t>
+  </si>
+  <si>
+    <t>4630460964688</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50 х 50 - М - Морской</t>
+  </si>
+  <si>
+    <t>4630460964671</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 2 спальное с Евро простыней - "Бриллиантовые кружева" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460964664</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 200х220х30 - М - Блестящий миндаль</t>
+  </si>
+  <si>
+    <t>4630460964657</t>
+  </si>
+  <si>
+    <t>Наволочка страйп-сатин 70х70 - 125 - "Крем" 1х1</t>
+  </si>
+  <si>
+    <t>4630460964640</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное с Евро простыней - "Гамба" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460964633</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс 220х240 - "Трюфельный шарм"</t>
+  </si>
+  <si>
+    <t>4630460964626</t>
+  </si>
+  <si>
+    <t>Пододеяльник из перкаля 220 х 240 - М - 110 - Белоснежный луч</t>
+  </si>
+  <si>
+    <t>4630460964619</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 220 х 240 - М - 140 - Голубой 1х1</t>
+  </si>
+  <si>
+    <t>4630460964602</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 1,5 спальное - М - Гуава с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460964596</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 145 х 215 - "Формула-1"</t>
+  </si>
+  <si>
+    <t>4630460964589</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 140 х 200 х 40 - М - 125 - Дымка 1х1</t>
+  </si>
+  <si>
+    <t>4630460964572</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 220х240 - "Небосвод"</t>
+  </si>
+  <si>
+    <t>4630460964565</t>
+  </si>
+  <si>
+    <t>Гобеленовая наволочка 50х50 - М - Листья (светлые)</t>
+  </si>
+  <si>
+    <t>4630460964558</t>
+  </si>
+  <si>
+    <t>Простыня твил-сатин 220 х 240 - "Солнечные лучи"</t>
+  </si>
+  <si>
+    <t>4630460964541</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 150х200 - 125 - "Фиалка" 1х1</t>
+  </si>
+  <si>
+    <t>4630460964534</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 300х300 - "Сердечный Вихрь"</t>
+  </si>
+  <si>
+    <t>4630460964527</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 120х200х30 - М - Маренго</t>
+  </si>
+  <si>
+    <t>4630460964510</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 160 х 200 х 30 - М - 140 - Космос 1х1</t>
+  </si>
+  <si>
+    <t>4630460964503</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 200 х 200 - М - 125 - Папирус темный 1х1</t>
+  </si>
+  <si>
+    <t>4630460964497</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 125 - Папирус темный 1х1 1</t>
+  </si>
+  <si>
+    <t>4630460964480</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс на резинке 160х200х20 - "Трюфельный шарм"</t>
+  </si>
+  <si>
+    <t>4630460964473</t>
+  </si>
+  <si>
+    <t>Пододеяльник твил-сатин 145 х 215 - "Нева"</t>
+  </si>
+  <si>
+    <t>4630460964466</t>
+  </si>
+  <si>
+    <t>Простыня круглая ранфорс на резинке 200х200х20 - "Матовый мрамор"</t>
+  </si>
+  <si>
+    <t>4630460964459</t>
+  </si>
+  <si>
+    <t>Простыня круглая ранфорс на резинке 210 х 210 х 30 - Голубой</t>
+  </si>
+  <si>
+    <t>4630460964442</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 120 х 200 х 10 - М - 120 - Колыбель на зеленом</t>
+  </si>
+  <si>
+    <t>4630460964435</t>
+  </si>
+  <si>
+    <t>Простыня из полисатина на резинке 160 х 200 х 40 - М - 80 - Витражи</t>
+  </si>
+  <si>
+    <t>4630460964428</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье тенсель Евро - "Песочная роза"</t>
+  </si>
+  <si>
+    <t>4630460964411</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 120 х 200 х 30 - М - 135 - Марриотт Белый 3х3</t>
+  </si>
+  <si>
+    <t>4630460964404</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 180 х 220 - М - 135 - Пудра глянцевая</t>
+  </si>
+  <si>
+    <t>4630460964398</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 175 х 215 - "Золотой блеск"</t>
+  </si>
+  <si>
+    <t>4630460964381</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь Евро на резинке 160х200х20 - М - 120 - Северные Волки</t>
+  </si>
+  <si>
+    <t>4630460964374</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 220х240 - "Румянец"</t>
+  </si>
+  <si>
+    <t>4630460964367</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное - М - Зюйд Ост</t>
+  </si>
+  <si>
+    <t>4630460964350</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное на резинке 140х200х30 - "Морозный туман" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460964343</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Браш Евро на резинке 160х200х30 - М - Кремовый бархат</t>
+  </si>
+  <si>
+    <t>4630460964336</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок Евро на резинке 160х200х30 - М - Вечерний песок</t>
+  </si>
+  <si>
+    <t>4630460964329</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин Евро - "Бездна" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460964312</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин Евро - "Зайга" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460964305</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 1,5 спальное на резинке 120х200х30 - "Смоки" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460964299</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 1,5 спальное на резинке 120х200х30 - "Шторм" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460964282</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 2 спальное на резинке 160х200х30 - М - 140 - Белый Лучик</t>
+  </si>
+  <si>
+    <t>4630460964275</t>
+  </si>
+  <si>
+    <t>Наволочка ранфорс 60х60 - "Ванильный раф"</t>
+  </si>
+  <si>
+    <t>4630460964268</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё ранфорс семейное на резинке 180х200х30 - Голубой с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460964251</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 220 х 240 - М - 125 - Паслен А+В</t>
+  </si>
+  <si>
+    <t>4630460965050</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 220х240 - "Письменный Бриз"</t>
+  </si>
+  <si>
+    <t>4630460965043</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин 220х240 - 125 - Персик 1х1</t>
   </si>
 </sst>
 </file>
@@ -6317,6 +6803,654 @@
         <v>845</v>
       </c>
     </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>846</v>
+      </c>
+      <c r="B426" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>848</v>
+      </c>
+      <c r="B427" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>850</v>
+      </c>
+      <c r="B428" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>852</v>
+      </c>
+      <c r="B429" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>854</v>
+      </c>
+      <c r="B430" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>856</v>
+      </c>
+      <c r="B431" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>858</v>
+      </c>
+      <c r="B432" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>860</v>
+      </c>
+      <c r="B433" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>862</v>
+      </c>
+      <c r="B434" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>864</v>
+      </c>
+      <c r="B435" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>866</v>
+      </c>
+      <c r="B436" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>868</v>
+      </c>
+      <c r="B437" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>870</v>
+      </c>
+      <c r="B438" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>872</v>
+      </c>
+      <c r="B439" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>874</v>
+      </c>
+      <c r="B440" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>876</v>
+      </c>
+      <c r="B441" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>878</v>
+      </c>
+      <c r="B442" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>880</v>
+      </c>
+      <c r="B443" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>882</v>
+      </c>
+      <c r="B444" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>884</v>
+      </c>
+      <c r="B445" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>886</v>
+      </c>
+      <c r="B446" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>888</v>
+      </c>
+      <c r="B447" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>890</v>
+      </c>
+      <c r="B448" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>892</v>
+      </c>
+      <c r="B449" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>894</v>
+      </c>
+      <c r="B450" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>896</v>
+      </c>
+      <c r="B451" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>898</v>
+      </c>
+      <c r="B452" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>900</v>
+      </c>
+      <c r="B453" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>902</v>
+      </c>
+      <c r="B454" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>904</v>
+      </c>
+      <c r="B455" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>906</v>
+      </c>
+      <c r="B456" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>908</v>
+      </c>
+      <c r="B457" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>910</v>
+      </c>
+      <c r="B458" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>912</v>
+      </c>
+      <c r="B459" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>914</v>
+      </c>
+      <c r="B460" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>916</v>
+      </c>
+      <c r="B461" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>918</v>
+      </c>
+      <c r="B462" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>920</v>
+      </c>
+      <c r="B463" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>922</v>
+      </c>
+      <c r="B464" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>924</v>
+      </c>
+      <c r="B465" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>926</v>
+      </c>
+      <c r="B466" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>928</v>
+      </c>
+      <c r="B467" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>930</v>
+      </c>
+      <c r="B468" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>932</v>
+      </c>
+      <c r="B469" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>934</v>
+      </c>
+      <c r="B470" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>936</v>
+      </c>
+      <c r="B471" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>938</v>
+      </c>
+      <c r="B472" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>940</v>
+      </c>
+      <c r="B473" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>942</v>
+      </c>
+      <c r="B474" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>944</v>
+      </c>
+      <c r="B475" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>946</v>
+      </c>
+      <c r="B476" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>948</v>
+      </c>
+      <c r="B477" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>950</v>
+      </c>
+      <c r="B478" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>952</v>
+      </c>
+      <c r="B479" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>954</v>
+      </c>
+      <c r="B480" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>956</v>
+      </c>
+      <c r="B481" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>958</v>
+      </c>
+      <c r="B482" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>960</v>
+      </c>
+      <c r="B483" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>962</v>
+      </c>
+      <c r="B484" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>964</v>
+      </c>
+      <c r="B485" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>966</v>
+      </c>
+      <c r="B486" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>968</v>
+      </c>
+      <c r="B487" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>970</v>
+      </c>
+      <c r="B488" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>972</v>
+      </c>
+      <c r="B489" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>974</v>
+      </c>
+      <c r="B490" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>976</v>
+      </c>
+      <c r="B491" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>978</v>
+      </c>
+      <c r="B492" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>980</v>
+      </c>
+      <c r="B493" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>982</v>
+      </c>
+      <c r="B494" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>984</v>
+      </c>
+      <c r="B495" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>986</v>
+      </c>
+      <c r="B496" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>988</v>
+      </c>
+      <c r="B497" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>990</v>
+      </c>
+      <c r="B498" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>992</v>
+      </c>
+      <c r="B499" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>994</v>
+      </c>
+      <c r="B500" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>996</v>
+      </c>
+      <c r="B501" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>998</v>
+      </c>
+      <c r="B502" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1007</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="5"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="1142">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -3038,6 +3038,408 @@
   </si>
   <si>
     <t>Простыня страйп-сатин 220х240 - 125 - Персик 1х1</t>
+  </si>
+  <si>
+    <t>4630460965722</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 175 х 215 - М - 135 - Светлая лаванда 1х1</t>
+  </si>
+  <si>
+    <t>4630460965715</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 200 х 220 - М - Чёрная гавань</t>
+  </si>
+  <si>
+    <t>4630460965708</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 200 х 220 - М - Голубая сталь</t>
+  </si>
+  <si>
+    <t>4630460965692</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное на резинке 90х200х30 - М - 135 - Цитрус 3х3</t>
+  </si>
+  <si>
+    <t>4630460965685</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 120х200х20 - М - 60S 4292 Кремовый</t>
+  </si>
+  <si>
+    <t>4630460965678</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 2 спальное на резинке 160х200х30 - 130 - "Дивуар" 1х1</t>
+  </si>
+  <si>
+    <t>4630460965661</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель King Size на резинке 200х200х30 - М - Горький шоколад</t>
+  </si>
+  <si>
+    <t>4630460965654</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 120х200х30 - М - Пинклайт</t>
+  </si>
+  <si>
+    <t>4630460965647</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - Пыльная роза</t>
+  </si>
+  <si>
+    <t>4630460965630</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп сатина 150 х 200 - М - 140 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>4630460965623</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 150х200 - "Бриолен" 1х1</t>
+  </si>
+  <si>
+    <t>4630460965616</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 150х200 - "Амелин" 1х1</t>
+  </si>
+  <si>
+    <t>4630460965609</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное - "Бейж" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460965593</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин Евро макси - М - 130 - Теплый металлик 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460965586</t>
+  </si>
+  <si>
+    <t>Пододеяльник Микрофибра 220х240 - "Петкана"</t>
+  </si>
+  <si>
+    <t>4630460965579</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин Евро Макси - "Шторм" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460965562</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 200х220 - "Шаде"</t>
+  </si>
+  <si>
+    <t>4630460965555</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 220х240 - "Вердигри" 1х1</t>
+  </si>
+  <si>
+    <t>4630460965548</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - 125 - Голубая бирюза</t>
+  </si>
+  <si>
+    <t>4630460965531</t>
+  </si>
+  <si>
+    <t>Наволочка Тенсель 50х70 - "Пейл Силвер"</t>
+  </si>
+  <si>
+    <t>4630460965524</t>
+  </si>
+  <si>
+    <t>Простыня круглая из тенселя на резинке 220 х 220 х 40 - М - Изумруд Эсмеральды</t>
+  </si>
+  <si>
+    <t>4630460965517</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 1,5 спальное на резинке 120х200х30 - "Линнея"</t>
+  </si>
+  <si>
+    <t>4630460965500</t>
+  </si>
+  <si>
+    <t>Простыня микросатин на резинке 200х220х20 - "Смоки"</t>
+  </si>
+  <si>
+    <t>4630460965494</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 240 х 260 - М - Блестящий миндаль</t>
+  </si>
+  <si>
+    <t>4630460965487</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 150х200 - "Ажур"</t>
+  </si>
+  <si>
+    <t>4630460965470</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - "Сиренево-розовый"</t>
+  </si>
+  <si>
+    <t>4630460965463</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 150х200 - "Милда"</t>
+  </si>
+  <si>
+    <t>4630460965456</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 40 х 40 - М - 125 - Вишневые лепестки</t>
+  </si>
+  <si>
+    <t>4630460965449</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 40 х 40 - М - 120 - Урубамба</t>
+  </si>
+  <si>
+    <t>4630460965432</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 40 х 40 - М - 120 - Зефир</t>
+  </si>
+  <si>
+    <t>4630460965425</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро Макси на резинке 180х200х30 - М - 60S 4216 Серебро</t>
+  </si>
+  <si>
+    <t>4630460965418</t>
+  </si>
+  <si>
+    <t>Пододеяльник бязь 200 х 200 - "Осима"</t>
+  </si>
+  <si>
+    <t>4630460965401</t>
+  </si>
+  <si>
+    <t>Простыня круглая микросатин на резинке 200х200х30 - "Метель"</t>
+  </si>
+  <si>
+    <t>4630460965395</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 160х200х20 - "Леопардовый Сон"</t>
+  </si>
+  <si>
+    <t>4630460965388</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 40 - М - 60S 4323 Бежево-розовый</t>
+  </si>
+  <si>
+    <t>4630460965371</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 40 - М - 60S 4292 Кремовый</t>
+  </si>
+  <si>
+    <t>4630460965364</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 150 х 200 - М - 135 - Пудра глянцевая</t>
+  </si>
+  <si>
+    <t>4630460965357</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 280х280 - "Гамба"</t>
+  </si>
+  <si>
+    <t>4630460965340</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 70 х 70 - М - 140 - Лаванда 1х1</t>
+  </si>
+  <si>
+    <t>4630460965333</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 150 х 200 - М - 125 - Монохромная Полоса</t>
+  </si>
+  <si>
+    <t>4630460965326</t>
+  </si>
+  <si>
+    <t>Пододеяльник из твил сатина 150 х 200 - М - Архитектор</t>
+  </si>
+  <si>
+    <t>4630460965319</t>
+  </si>
+  <si>
+    <t>Пододеяльник твил-сатин 175 х 215 - "Дино-пати"</t>
+  </si>
+  <si>
+    <t>4630460965302</t>
+  </si>
+  <si>
+    <t>КПБ Детское постельное бельё из бязи для детских кроваток - Р - М - Единорожки на голубом</t>
+  </si>
+  <si>
+    <t>4630460965296</t>
+  </si>
+  <si>
+    <t>Наволочка из поплина 40 х 40 - М - Весенняя акварель 2</t>
+  </si>
+  <si>
+    <t>4630460965289</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное на резинке 140х200х30 - М - Пыльная роза</t>
+  </si>
+  <si>
+    <t>4630460965272</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина-жаккарда 70 х 70 - М - Треббиано</t>
+  </si>
+  <si>
+    <t>4630460965265</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 160 х 200 х 20 - М - 125 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>4630460965258</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро Макси на резинке 180х200х30 - "Сиренево-розовый"</t>
+  </si>
+  <si>
+    <t>4630460965241</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 200 х 220 - М - Каштановый</t>
+  </si>
+  <si>
+    <t>4630460965234</t>
+  </si>
+  <si>
+    <t>Наволочка из перкаля 50 х 70 - М - 110 - Акебия</t>
+  </si>
+  <si>
+    <t>4630460965227</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 40 х 40 - М - 130 - Дивуар 1х1 2</t>
+  </si>
+  <si>
+    <t>4630460965210</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 70 х 70 - "Медный"</t>
+  </si>
+  <si>
+    <t>4630460965203</t>
+  </si>
+  <si>
+    <t>Наволочка сатин 70х70 - "Красная медь"</t>
+  </si>
+  <si>
+    <t>4630460965197</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 160х200х30 - М - Голубой Элис</t>
+  </si>
+  <si>
+    <t>4630460965180</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро Макси на резинке 180х200х30 - М - Блестящий миндаль</t>
+  </si>
+  <si>
+    <t>4630460965173</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 200 - М - 60S 4323 Бежево-розовый</t>
+  </si>
+  <si>
+    <t>4630460965166</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 200 х 220 - М - 120 - Литера</t>
+  </si>
+  <si>
+    <t>4630460965159</t>
+  </si>
+  <si>
+    <t>Простыня страйп Микрофибра 300х300 - "Альбелла" 1х1</t>
+  </si>
+  <si>
+    <t>4630460965142</t>
+  </si>
+  <si>
+    <t>Простыня круглая из страйп сатина на резинке 210 x 210 х 30 - М - 140 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>4630460965135</t>
+  </si>
+  <si>
+    <t>Простыня круглая полисатин на резинке 200 х 200 х 30 - "Кленовая зелень"</t>
+  </si>
+  <si>
+    <t>4630460965128</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 280 х 280 - М - Пинклайт</t>
+  </si>
+  <si>
+    <t>4630460965111</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп сатина 240х260 - 130 - "Серый туман" 1х1</t>
+  </si>
+  <si>
+    <t>4630460965104</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 70 х 70 - М - 142 ГОСТ - Оранжевый</t>
+  </si>
+  <si>
+    <t>4630460965098</t>
+  </si>
+  <si>
+    <t>Простыня круглая из тенселя на резинке 200х200х20 - М - 4216 Серебро</t>
+  </si>
+  <si>
+    <t>4630460965081</t>
+  </si>
+  <si>
+    <t>Простыня круглая из тенселя на резинке 200х200х20 - М - 60S 4294 Перламутровый</t>
+  </si>
+  <si>
+    <t>4630460965074</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 180 х 220 - М - 135 - Мокрый асфальт 1х1</t>
+  </si>
+  <si>
+    <t>4630460965067</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 280х280 - "Графитовый Зигзаг"</t>
   </si>
 </sst>
 </file>
@@ -7451,6 +7853,542 @@
         <v>1007</v>
       </c>
     </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1141</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="5"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1228">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -3440,6 +3440,264 @@
   </si>
   <si>
     <t>Простыня Жатка 280х280 - "Графитовый Зигзаг"</t>
+  </si>
+  <si>
+    <t>4630460966156</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 145 х 215 - М - 140 - Лаванда Люкс</t>
+  </si>
+  <si>
+    <t>4630460966149</t>
+  </si>
+  <si>
+    <t>Пододеяльник из варёного хлопка 220 х 240 - М - 323 Серый</t>
+  </si>
+  <si>
+    <t>4630460966132</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 280 х 280 - М - Белый</t>
+  </si>
+  <si>
+    <t>4630460966125</t>
+  </si>
+  <si>
+    <t>Наволочка сатин 40х40 - "Коралловый Шёлк"</t>
+  </si>
+  <si>
+    <t>4630460966118</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 200 х 220 - М - 120 - Хадусамат</t>
+  </si>
+  <si>
+    <t>4630460966101</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 2 спальное - М - Грей Стайл с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460966095</t>
+  </si>
+  <si>
+    <t>Наволочка из перкаля 60 х 60 - М - 110 - Каори на зеленом</t>
+  </si>
+  <si>
+    <t>4630460966088</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 150 х 200 - М - 142 - Рецепт любви</t>
+  </si>
+  <si>
+    <t>4630460966071</t>
+  </si>
+  <si>
+    <t>КПБ Детское постельное бельё бязь для детских кроваток - М - ГОСТ 142 - Затея Котика</t>
+  </si>
+  <si>
+    <t>4630460966064</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 200 х 220 х 20 - М - 140 - Чернила 1х1</t>
+  </si>
+  <si>
+    <t>4630460966057</t>
+  </si>
+  <si>
+    <t>Наволочка страйп-сатин 60х60 - 125 - "Олива" 1х1</t>
+  </si>
+  <si>
+    <t>4630460966040</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 300х300 - "Анхела"</t>
+  </si>
+  <si>
+    <t>4630460966033</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 180х200х30 - М - Зеленый чай</t>
+  </si>
+  <si>
+    <t>4630460966026</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 180х200х20 - "Серебряный Папоротник"</t>
+  </si>
+  <si>
+    <t>4630460966019</t>
+  </si>
+  <si>
+    <t>Наволочка из поплина 50 х 50 - М - Весенняя акварель 2</t>
+  </si>
+  <si>
+    <t>4630460966002</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 145 х 215 - "Кианит"</t>
+  </si>
+  <si>
+    <t>4630460965999</t>
+  </si>
+  <si>
+    <t>Наволочка из поплина 50 х 50 - М - Ночной колпак</t>
+  </si>
+  <si>
+    <t>4630460965982</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин семейное на резинке 160х200х30 - М - 125 - Белое тепло с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460965975</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп сатина 150 х 200 - М - 130 - Теплый металлик 1х1</t>
+  </si>
+  <si>
+    <t>4630460965968</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 40 х 60 - "Серый Райнар"</t>
+  </si>
+  <si>
+    <t>4630460965951</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300 х 300 - М - 140 - Миндаль 1х1</t>
+  </si>
+  <si>
+    <t>4630460965944</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 150х200 - 125 - "Серебро" 1х1</t>
+  </si>
+  <si>
+    <t>4630460965937</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье тенсель 1,5 спальное на резинке 140х200х30 - "Песочная роза" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460965920</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное - "Серебряный Папоротник" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460965913</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное - "Бирюзовый Рельеф" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460965906</t>
+  </si>
+  <si>
+    <t>Пододеяльник из варёного хлопка 220 х 240 - М - Зеленый чай</t>
+  </si>
+  <si>
+    <t>4630460965890</t>
+  </si>
+  <si>
+    <t>Пододеяльник ранфорс 220х240 - Белый</t>
+  </si>
+  <si>
+    <t>4630460965883</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 145 х 215 - М - 140 - Голубой 1х1</t>
+  </si>
+  <si>
+    <t>4630460965876</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 1,5 спальное на резинке 120х200х30 - М - Белоснежное с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460965869</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё перкаль семейное на резинке 160х200х30 - М - 110 - Каори на зеленом с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460965852</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 1,5 спальное на резинке 120х200х30 - "Бездна" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460965845</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 280х280 - "Ледяной Мрамор"</t>
+  </si>
+  <si>
+    <t>4630460965838</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 1,5 спальное на резинке 140х200х30 - М - Белоснежное с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460965821</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 240х260 - "Розанна"</t>
+  </si>
+  <si>
+    <t>4630460965814</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 2 спальное на резинке 160х200х30 - "Шторм"</t>
+  </si>
+  <si>
+    <t>4630460965807</t>
+  </si>
+  <si>
+    <t>Наволочка из полисатина 50 х 70 - М - 80 - Югацу</t>
+  </si>
+  <si>
+    <t>4630460965791</t>
+  </si>
+  <si>
+    <t>Простыня из полисатина 300 х 300 - М - 80 - Югацу</t>
+  </si>
+  <si>
+    <t>4630460965784</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное на резинке 140х200х30 - "Ночная Симфония"</t>
+  </si>
+  <si>
+    <t>4630460965777</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 140х200х30 - М - Премиум ТС 320 Вишенка</t>
+  </si>
+  <si>
+    <t>4630460965760</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 145 х 215 - М - 135 - Лаватера 1х1</t>
+  </si>
+  <si>
+    <t>4630460965753</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 145 х 215 - М - 135 - Дип Пёрпл 1х1</t>
+  </si>
+  <si>
+    <t>4630460965746</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 145 х 215 - М - 135 - Лаймкват 1х1</t>
+  </si>
+  <si>
+    <t>4630460965739</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 145 х 215 - М - 135 - Белый 1х1</t>
   </si>
 </sst>
 </file>
@@ -8389,6 +8647,350 @@
         <v>1141</v>
       </c>
     </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1227</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="5"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B03A726-5F53-47BC-96D6-E1BC4F37C25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Краткий отчет" state="visible" r:id="rId4"/>
+    <sheet name="Краткий отчет" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="1246">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -3698,35 +3699,89 @@
   </si>
   <si>
     <t>Пододеяльник из страйп-сатина 145 х 215 - М - 135 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>4630460966248</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - 60S 4323 Бежево-розовый</t>
+  </si>
+  <si>
+    <t>4630460966231</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное на резинке 160х200х30 - М - Петроль</t>
+  </si>
+  <si>
+    <t>4630460966224</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 280 х 280 - М - 135 - Мокрый асфальт 1х1</t>
+  </si>
+  <si>
+    <t>4630460966217</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 140х200х30 - "Лунный Одуванчик" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460966200</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 300 х 300 - М - 125 - Тапиока</t>
+  </si>
+  <si>
+    <t>4630460966194</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 220х240 - "Ажур"</t>
+  </si>
+  <si>
+    <t>4630460966187</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 40 х 60 - М - 142 ГОСТ - Бирюза</t>
+  </si>
+  <si>
+    <t>4630460966170</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 60 х 60 - М - Альбертус</t>
+  </si>
+  <si>
+    <t>4630460966163</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 150х200 - "Розовый Флёр"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3746,10 +3801,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -3772,7 +3835,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4049,26 +4112,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P11478"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P11478"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A608" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A626" sqref="A626:B626"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="177" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4095,7 +4158,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4103,7 +4166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4111,7 +4174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4119,7 +4182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4127,7 +4190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4135,7 +4198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -4143,7 +4206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -4151,7 +4214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -4159,7 +4222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -4167,7 +4230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4175,7 +4238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -4183,7 +4246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -8991,13 +9054,85 @@
         <v>1227</v>
       </c>
     </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1245</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="5"/>
     </row>
     <row r="4853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4853" s="6"/>
     </row>
-    <row r="4890" ht="26.25" customHeight="1" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="4890" spans="7:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4890" s="6"/>
     </row>
     <row r="7716" spans="2:2" x14ac:dyDescent="0.25">
@@ -9013,6 +9148,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B03A726-5F53-47BC-96D6-E1BC4F37C25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Краткий отчет" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Краткий отчет" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="1246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1276">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -3753,35 +3752,125 @@
   </si>
   <si>
     <t>Пододеяльник тенсель 150х200 - "Розовый Флёр"</t>
+  </si>
+  <si>
+    <t>4630460966392</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 40х60 - "Холодная элегия"</t>
+  </si>
+  <si>
+    <t>4630460966385</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 70 х 70 - М - 135 - Эмерэльд 1х1</t>
+  </si>
+  <si>
+    <t>4630460966378</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин King Size на резинке 200х200х30 - М - 135 - Пармелия 1х1</t>
+  </si>
+  <si>
+    <t>4630460966361</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 200 х 220 - М - 142 - Антиквариат</t>
+  </si>
+  <si>
+    <t>4630460966354</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина-жаккарда 145 х 215 - М - Вайт Фейри</t>
+  </si>
+  <si>
+    <t>4630460966347</t>
+  </si>
+  <si>
+    <t>Простыня круглая страйп-сатин на резинке 220х220х30 - 125 - Персик 1х1</t>
+  </si>
+  <si>
+    <t>4630460966330</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 140 - Асфальт 1х1</t>
+  </si>
+  <si>
+    <t>4630460966323</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 50 х 70 - М - 142 ГОСТ - Черный</t>
+  </si>
+  <si>
+    <t>4630460966316</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 50 - М - Фазенда Лиара</t>
+  </si>
+  <si>
+    <t>4630460966309</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 150х200 - "Кофейный крем"</t>
+  </si>
+  <si>
+    <t>4630460966293</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок Евро Макси - М - Молочный</t>
+  </si>
+  <si>
+    <t>4630460966286</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 40 х 40 - М - 140 - Мускусная дыня 1х1</t>
+  </si>
+  <si>
+    <t>4630460966279</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное - "Угольная Паутинка" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460966262</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 50 - М - Премиум ТС 320 Белый</t>
+  </si>
+  <si>
+    <t>4630460966255</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп сатина 175х215 - 130 - "Изумрудный малахит" 1х1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3801,18 +3890,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -3835,7 +3916,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4112,26 +4193,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11478"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P11478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A608" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A626" sqref="A626:B626"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A626" sqref="A626"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="177" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4158,7 +4239,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4166,7 +4247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4174,7 +4255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4182,7 +4263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4190,7 +4271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4198,7 +4279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -4206,7 +4287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -4214,7 +4295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -4222,7 +4303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -4230,7 +4311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4238,7 +4319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -4246,7 +4327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -9126,13 +9207,133 @@
         <v>1245</v>
       </c>
     </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1275</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="5"/>
     </row>
     <row r="4853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4853" s="6"/>
     </row>
-    <row r="4890" spans="7:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4890" ht="26.25" customHeight="1" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G4890" s="6"/>
     </row>
     <row r="7716" spans="2:2" x14ac:dyDescent="0.25">
@@ -9148,6 +9349,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="1324">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -3842,6 +3842,150 @@
   </si>
   <si>
     <t>Пододеяльник из страйп сатина 175х215 - 130 - "Изумрудный малахит" 1х1</t>
+  </si>
+  <si>
+    <t>4630460966613</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 280х280 - "Природный Абстракт"</t>
+  </si>
+  <si>
+    <t>4630460966606</t>
+  </si>
+  <si>
+    <t>Простыня круглая Жатка на резинке 200х200х30 - "Инспайр"</t>
+  </si>
+  <si>
+    <t>4630460966590</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё ранфорс 1,5 спальное на резинке 140х200х30 - "Лазурный бриз" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460966583</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 1,5 спальное на резинке 140х200х30 - М - 125 - Вибрация с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460966576</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 140х200х30 - "Альфредо" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460966569</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 140 х 200 х 30 - М - 135 - Эмерэльд 1х1</t>
+  </si>
+  <si>
+    <t>4630460966552</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 280 х 280 - М - Зеленый чай</t>
+  </si>
+  <si>
+    <t>4630460966545</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - Селадон</t>
+  </si>
+  <si>
+    <t>4630460966538</t>
+  </si>
+  <si>
+    <t>Простыня круглая из страйп сатина на резинке 230 x 230 х 30 - М - 140 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>4630460966521</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро макси - "Звёздный туман"</t>
+  </si>
+  <si>
+    <t>4630460966514</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 2 спальное на резинке 160х200х30 - "Коралловый Шёлк" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460966507</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное - М - 60S 4323 Бежево-розовый</t>
+  </si>
+  <si>
+    <t>4630460966491</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин 300х300 - 125 - "Крем" 1х1</t>
+  </si>
+  <si>
+    <t>4630460966484</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 100 х 150 - М - 120 - Колыбель на сиреневом</t>
+  </si>
+  <si>
+    <t>4630460966477</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 112 х 147 - М - 120 - Колыбель на сиреневом</t>
+  </si>
+  <si>
+    <t>4630460966460</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 40 х 60 - М - 120 - Колыбель на сиреневом</t>
+  </si>
+  <si>
+    <t>4630460966453</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 150х200 - "Аршелия"</t>
+  </si>
+  <si>
+    <t>4630460966446</t>
+  </si>
+  <si>
+    <t>Пододеяльник из варёного хлопка 200 х 220 - М - Ванильный</t>
+  </si>
+  <si>
+    <t>4630460966439</t>
+  </si>
+  <si>
+    <t>Простыня из поплина 180 х 220 - М - Гуава</t>
+  </si>
+  <si>
+    <t>4630460966422</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин Евро на резинке 160х200х20 - М - Грей Стайл</t>
+  </si>
+  <si>
+    <t>4630460966415</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 2 спальное - М - 142 - Сиреневые маки с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460966408</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка семейное на резинке 180х200х30 - "Бирюзовый Рельеф" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460966637</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 220 х 240 - "Сливочный"</t>
+  </si>
+  <si>
+    <t>4630460966620</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное - "Песочный Рельеф"</t>
   </si>
 </sst>
 </file>
@@ -9327,6 +9471,198 @@
         <v>1275</v>
       </c>
     </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1323</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="5"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="1572">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -3986,6 +3986,750 @@
   </si>
   <si>
     <t>КПБ Постельное бельё Жатка 2 спальное - "Песочный Рельеф"</t>
+  </si>
+  <si>
+    <t>4630460967856</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 120х200х30 - "Соколиная охота"</t>
+  </si>
+  <si>
+    <t>4630460967849</t>
+  </si>
+  <si>
+    <t>Простыня непромокаемая на резинке 140 х 200 х 10 - М - Мулетон Полиэстер</t>
+  </si>
+  <si>
+    <t>4630460967832</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 70х70 - "Лиловый тауп"</t>
+  </si>
+  <si>
+    <t>4630460967825</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - Блестящий миндаль</t>
+  </si>
+  <si>
+    <t>4630460967818</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 1,5 спальное на резинке 140х200х30 - М - 125 - Римская спаржа</t>
+  </si>
+  <si>
+    <t>4630460967801</t>
+  </si>
+  <si>
+    <t>Наволочка сатин Браш 50 х 70 - М - Лайлак</t>
+  </si>
+  <si>
+    <t>4630460967795</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин Евро на резинке 160х200х30 - "Дизанта"</t>
+  </si>
+  <si>
+    <t>4630460967788</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 1,5 спальное на резинке 140х200х30 - М - 125 - Рея</t>
+  </si>
+  <si>
+    <t>4630460967771</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин Евро на резинке 160х200х30 - "Анхела"</t>
+  </si>
+  <si>
+    <t>4630460967764</t>
+  </si>
+  <si>
+    <t>Наволочка ранфорс 50х70 - "Трюфельный шарм"</t>
+  </si>
+  <si>
+    <t>4630460967757</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс 240х260 - "Трюфельный шарм"</t>
+  </si>
+  <si>
+    <t>4630460967740</t>
+  </si>
+  <si>
+    <t>Простыня тенсель на резинке 180х200х30 - "Морозный туман"</t>
+  </si>
+  <si>
+    <t>4630460967733</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 145х215 - "Морозный туман"</t>
+  </si>
+  <si>
+    <t>4630460967726</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 40 х 60 - М - 130 - Белая 1х1</t>
+  </si>
+  <si>
+    <t>4630460967719</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 180 х 200 х 40 - М - 135 - Марриотт Белый 3х3</t>
+  </si>
+  <si>
+    <t>4630460967702</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 175 х 215 - М - 135 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>4630460967696</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 130 - Белая 1х1</t>
+  </si>
+  <si>
+    <t>4630460967689</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 2 спальное на резинке 140х200х30 - "Дювеля" 1х1</t>
+  </si>
+  <si>
+    <t>4630460967672</t>
+  </si>
+  <si>
+    <t>КПБ Детское постельное бельё бязь 1,5 спальное - М - 120 - Спящий Мишка на голубом с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460967665</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 80 х 200 х 20 - М - 142 ГОСТ - Сиреневый</t>
+  </si>
+  <si>
+    <t>4630460967658</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель King Size на резинке 200х200х30 - М - Халкидики</t>
+  </si>
+  <si>
+    <t>4630460967641</t>
+  </si>
+  <si>
+    <t>Наволочка Полисатин 60х60 - "Мелек"</t>
+  </si>
+  <si>
+    <t>4630460967634</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 80 х 200 х 20 - М - 120 - Серебристый металлик</t>
+  </si>
+  <si>
+    <t>4630460967627</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 150 х 200 - "Кианит"</t>
+  </si>
+  <si>
+    <t>4630460967610</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё ранфорс Евро на резинке 160х200х30 - "Ванильный раф"</t>
+  </si>
+  <si>
+    <t>4630460967603</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс на резинке 180х200х30 - "Ванильный раф"</t>
+  </si>
+  <si>
+    <t>4630460967597</t>
+  </si>
+  <si>
+    <t>Пододеяльник ранфорс 240х260 - "Ванильный раф"</t>
+  </si>
+  <si>
+    <t>4630460967580</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 120х200х30 - "Графитовый Зигзаг" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460967573</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина-жаккарда 150 х 200 - М - Вайт Фейри</t>
+  </si>
+  <si>
+    <t>4630460967566</t>
+  </si>
+  <si>
+    <t>Простыня из поплина 100 х 150 - "Мотокросс"</t>
+  </si>
+  <si>
+    <t>4630460967559</t>
+  </si>
+  <si>
+    <t>Пододеяльник варёный хлопок 150х200 - "Стальная тень" (меланж)</t>
+  </si>
+  <si>
+    <t>4630460967542</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 140х200х40 - "Глубь"</t>
+  </si>
+  <si>
+    <t>4630460967535</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 240х260 - "Страстный гранат"</t>
+  </si>
+  <si>
+    <t>4630460967528</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 300х300 - "Тирас"</t>
+  </si>
+  <si>
+    <t>4630460967511</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 220х240 - "Ноксия"</t>
+  </si>
+  <si>
+    <t>4630460967504</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё ранфорс 2 спальное на резинке 140х200х30 - "Фантасмагория" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460967498</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье варёный хлопок 1,5 спальное - "Вишня" (меланж)</t>
+  </si>
+  <si>
+    <t>4630460967481</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин Евро на резинке 160х200х30 - "Далиян"</t>
+  </si>
+  <si>
+    <t>4630460967474</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 145х215 - "Далиян"</t>
+  </si>
+  <si>
+    <t>4630460967467</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное на резинке 90х200х30 - "Тиффани" 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460967450</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье варёный хлопок 1,5 спальное на резинке 120х200х30 - "Стальная тень" (меланж) с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460967443</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 1,5 спальное на резинке 120х200х30 - "Нефритовый" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460967436</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное на резинке 120х200х30 - "Креадам" 1х1</t>
+  </si>
+  <si>
+    <t>4630460967429</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 150х200 - "Цветочный Шёпот"</t>
+  </si>
+  <si>
+    <t>4630460967412</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 150х200 - "Нежный Листопад"</t>
+  </si>
+  <si>
+    <t>4630460967405</t>
+  </si>
+  <si>
+    <t>Пододеяльник Микрофибра 150х200 - "Эстрелья"</t>
+  </si>
+  <si>
+    <t>4630460967399</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 180х200х45 - М - 130 - "Лавандула" 1х1</t>
+  </si>
+  <si>
+    <t>4630460967382</t>
+  </si>
+  <si>
+    <t>Простыня Полисатин на резинке 160х200х40 - "Грис"</t>
+  </si>
+  <si>
+    <t>4630460967375</t>
+  </si>
+  <si>
+    <t>Наволочка Полисатин 50х70 - "Грис"</t>
+  </si>
+  <si>
+    <t>4630460967368</t>
+  </si>
+  <si>
+    <t>Пододеяльник из варёного хлопка 200 х 200 - М - Бертолеция</t>
+  </si>
+  <si>
+    <t>4630460967351</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 220 х 240 - М - Вечерний песок</t>
+  </si>
+  <si>
+    <t>4630460967344</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин семейное на резинке 180х200х30 - 130 - "Изумрудный малахит" 1х1</t>
+  </si>
+  <si>
+    <t>4630460967337</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 80х200х30 - "Анхела"</t>
+  </si>
+  <si>
+    <t>4630460967320</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 200х200 - "Анхела"</t>
+  </si>
+  <si>
+    <t>4630460967313</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 40х60 - "Анхела"</t>
+  </si>
+  <si>
+    <t>4630460967306</t>
+  </si>
+  <si>
+    <t>Простыня из страйп сатина 240 х 260 - М - 140 - Белый 3х3</t>
+  </si>
+  <si>
+    <t>4630460967290</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка семейное - "Звёздный Вальс"</t>
+  </si>
+  <si>
+    <t>4630460967283</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин семейное на резинке 160х200х30 - М - 125 - Дом Периньон</t>
+  </si>
+  <si>
+    <t>4630460967276</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Микрофибра 1,5 спальное на резинке 80х200х30 - "Эстрелья"</t>
+  </si>
+  <si>
+    <t>4630460967269</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное на резинке 160х200х30 - "Ажур"</t>
+  </si>
+  <si>
+    <t>4630460967252</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин семейное - М - Премиум ТС 320 Бесконечность с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460967245</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро на резинке 160х200х30 - "Серебряный Папоротник" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460967238</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 200х200 - "Шторм"</t>
+  </si>
+  <si>
+    <t>4630460967221</t>
+  </si>
+  <si>
+    <t>Наволочка микросатин 50х70 - "Шторм"</t>
+  </si>
+  <si>
+    <t>4630460967214</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 300х300 - "Шторм"</t>
+  </si>
+  <si>
+    <t>4630460967207</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок King Size на резинке 200х200х30 - М - Пастельно-розовый</t>
+  </si>
+  <si>
+    <t>4630460967191</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 180х200х40 - "Малика"</t>
+  </si>
+  <si>
+    <t>4630460967184</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 135 - Айсфогель 1х1</t>
+  </si>
+  <si>
+    <t>4630460967177</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300 х 300 - М - 135 - Шартрез 3х3</t>
+  </si>
+  <si>
+    <t>4630460967160</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300 х 300 - М - 140 - Белый 3х3</t>
+  </si>
+  <si>
+    <t>4630460967153</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 175 х 215 - М - 60S 4323 Бежево-розовый</t>
+  </si>
+  <si>
+    <t>4630460967146</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро на резинке 160х200х30 - М - Серая умбра</t>
+  </si>
+  <si>
+    <t>4630460967139</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Евро макси - М - 140 - Белый Люкс</t>
+  </si>
+  <si>
+    <t>4630460967122</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 2 спальное - М - 135 - Пудра 0,5х0,5 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460967115</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 1,5 спальное на резинке 160х200х20 - М - 125 - Паслен А+В</t>
+  </si>
+  <si>
+    <t>4630460967108</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 200х220 - "Дюмар" 1х1</t>
+  </si>
+  <si>
+    <t>4630460967092</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье тенсель Евро - М - Черный блеск с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460967085</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 180х200х40 - М - 60S 74 Оливковый</t>
+  </si>
+  <si>
+    <t>4630460967078</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 50 - М - 125 - Абрикос</t>
+  </si>
+  <si>
+    <t>4630460967061</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 40 х 40 - М - Зеленый чай</t>
+  </si>
+  <si>
+    <t>4630460967054</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 260х260 - "Глисса"</t>
+  </si>
+  <si>
+    <t>4630460967047</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 043 Морская волна</t>
+  </si>
+  <si>
+    <t>4630460967030</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - Блу Скай</t>
+  </si>
+  <si>
+    <t>4630460967023</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 60 х 60 - М - 135 - Пудра глянцевая</t>
+  </si>
+  <si>
+    <t>4630460967016</t>
+  </si>
+  <si>
+    <t>Наволочка из поплина 50 х 70 - М - Розариум А+В</t>
+  </si>
+  <si>
+    <t>4630460967009</t>
+  </si>
+  <si>
+    <t>Наволочка из поплина 60 х 60 - М - Воздушная Мелодия А+В</t>
+  </si>
+  <si>
+    <t>4630460966996</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное с Евро простыней - "Плюмас"</t>
+  </si>
+  <si>
+    <t>4630460966989</t>
+  </si>
+  <si>
+    <t>Наволочка из поплина 50 х 70 - М - Ясное небо</t>
+  </si>
+  <si>
+    <t>4630460966972</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин Евро макси на резинке 180х200х30 - 130 - "Серый туман" 1х1</t>
+  </si>
+  <si>
+    <t>4630460966965</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 145 х 215 - М - Весенняя акварель 2</t>
+  </si>
+  <si>
+    <t>4630460966958</t>
+  </si>
+  <si>
+    <t>Простыня сатин Браш 280х280 - "Блю Айс"</t>
+  </si>
+  <si>
+    <t>4630460966941</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 60 х 60 - М - 130 - Полуночный ультрамарин 1х1</t>
+  </si>
+  <si>
+    <t>4630460966934</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 60 х 60 - М - 135 - Темно-синий 0,5х0,5</t>
+  </si>
+  <si>
+    <t>4630460966927</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50 х 50 - "Ледяная Мята"</t>
+  </si>
+  <si>
+    <t>4630460966910</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 200х200 - "Звёздный туман"</t>
+  </si>
+  <si>
+    <t>4630460966903</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 70 х 70 - М - 125 - Давид (светло-синий)</t>
+  </si>
+  <si>
+    <t>4630460966897</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - Фазенда Лиара</t>
+  </si>
+  <si>
+    <t>4630460966880</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё перкаль 1,5 спальное на резинке 120х200х30 - М - 125 - Лунный песок с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460966873</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 220 х 240 - М - Грей блес</t>
+  </si>
+  <si>
+    <t>4630460966866</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 175х215 - 125 - "Крем" 1х1</t>
+  </si>
+  <si>
+    <t>4630460966859</t>
+  </si>
+  <si>
+    <t>Простыня Микрофибра 280х280 - "Марисоль"</t>
+  </si>
+  <si>
+    <t>4630460966842</t>
+  </si>
+  <si>
+    <t>Наволочка перкаль 50 х 50 - "Светлый лён"</t>
+  </si>
+  <si>
+    <t>4630460966835</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 40 - М - Горький шоколад</t>
+  </si>
+  <si>
+    <t>4630460966828</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 40 - М - 60S 4393 Темно-серый</t>
+  </si>
+  <si>
+    <t>4630460966811</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 200 х 220 - "Кленовая зелень"</t>
+  </si>
+  <si>
+    <t>4630460966804</t>
+  </si>
+  <si>
+    <t>Простыня круглая из сатина на резинке 210 х 210 х 40 - М - 125 - Вишневые лепестки</t>
+  </si>
+  <si>
+    <t>4630460966798</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - 60S 4393 Темно-серый</t>
+  </si>
+  <si>
+    <t>4630460966781</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 50 х 70 - "Кленовая зелень"</t>
+  </si>
+  <si>
+    <t>4630460966774</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 240 х 260 - М - Зеленый чай</t>
+  </si>
+  <si>
+    <t>4630460966767</t>
+  </si>
+  <si>
+    <t>Наволочка из поплина 50 х 50 - М - Кружева на сером</t>
+  </si>
+  <si>
+    <t>4630460966750</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин King Size семейное на резинке 200х200х30 - "Молочная мечта"</t>
+  </si>
+  <si>
+    <t>4630460966743</t>
+  </si>
+  <si>
+    <t>Простыня круглая из тенселя на резинке 220х220х20 - М - 60S Белый</t>
+  </si>
+  <si>
+    <t>4630460966736</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 200 х 200 - М - 130 - Ночная синева</t>
+  </si>
+  <si>
+    <t>4630460966729</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 200 х 200 - М - 135 - Кортадерия 1х1</t>
+  </si>
+  <si>
+    <t>4630460966712</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 150 х 200 - М - 140 - Голубой 1х1</t>
+  </si>
+  <si>
+    <t>4630460966705</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 150 х 200 - М - 135 - Цитрус 3х3</t>
+  </si>
+  <si>
+    <t>4630460966699</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 280 х 280 - М - 130 - Бирюза глянцевая</t>
+  </si>
+  <si>
+    <t>4630460966682</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 300 х 300 - М - 120 - Зефир</t>
+  </si>
+  <si>
+    <t>4630460966675</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300 х 300 - М - 125 - Шашки Шампань 0,5х0,5</t>
+  </si>
+  <si>
+    <t>4630460966668</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 140 х 200 х 30 - М - 125 - Фисташка 1х1</t>
+  </si>
+  <si>
+    <t>4630460966651</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин Евро Макси - "Страстный гранат" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460966644</t>
+  </si>
+  <si>
+    <t>Простыня поплин на резинке 140 х 200 х 30 - "Оллорины"</t>
+  </si>
+  <si>
+    <t>4630460967863</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё перкаль 1,5 спальное на резинке 140х200х30 - М - 110 - Каори на зеленом с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460967870</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 2 спальное на резинке 160х200х30 - "Бейж" с наволочками 50х70</t>
   </si>
 </sst>
 </file>
@@ -9663,6 +10407,998 @@
         <v>1323</v>
       </c>
     </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B782" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1571</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="5"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="1572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="1638">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -4730,6 +4730,204 @@
   </si>
   <si>
     <t>КПБ Постельное бельё тенсель 2 спальное на резинке 160х200х30 - "Бейж" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460968204</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 120 х 200 х 20 - М - 142 ГОСТ - Флокс</t>
+  </si>
+  <si>
+    <t>4630460968198</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 145 х 215 - М - 142 ГОСТ - Флокс</t>
+  </si>
+  <si>
+    <t>4630460968181</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 50 х 70 - М - 142 ГОСТ - Флокс</t>
+  </si>
+  <si>
+    <t>4630460968174</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин King Size семейное на резинке 200х200х30 - "Страстный гранат" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460968167</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 70 х 70 - "Золотое солнце"</t>
+  </si>
+  <si>
+    <t>4630460968150</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё твил-сатин Евро - "Лесная тень"</t>
+  </si>
+  <si>
+    <t>4630460968143</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 220х240 - "Хельми"</t>
+  </si>
+  <si>
+    <t>4630460968136</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 300 х 300 - М - 60S Белый</t>
+  </si>
+  <si>
+    <t>4630460968129</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 150х200 - "Глисса"</t>
+  </si>
+  <si>
+    <t>4630460968112</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 1,5 спальное на резинке 120х200х30 - "Мяурель" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460968105</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 1,5 спальное на резинке 120х200х30 - М - Ночной колпак с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460968099</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - 60S 4247 Сирень</t>
+  </si>
+  <si>
+    <t>4630460968082</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 50х70 - "Аврела"</t>
+  </si>
+  <si>
+    <t>4630460968075</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 4225 Зелёный лесной</t>
+  </si>
+  <si>
+    <t>4630460968068</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 40 - "Сиренево-розовый"</t>
+  </si>
+  <si>
+    <t>4630460968051</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 2 спальное на резинке 140х200х30 - "Глисса" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460968044</t>
+  </si>
+  <si>
+    <t>Простыня круглая из сатина на резинке 210 х 210 х 40 - М - 120 - Морион</t>
+  </si>
+  <si>
+    <t>4630460968037</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 150х200 - "Астероид"</t>
+  </si>
+  <si>
+    <t>4630460968020</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 50 - М - Сарсуэла</t>
+  </si>
+  <si>
+    <t>4630460968013</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 2 спальное - М - Фазенда Лиара с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460968006</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - Блестящий миндаль</t>
+  </si>
+  <si>
+    <t>4630460967993</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро макси - "Гамба" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460967986</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - Петроль</t>
+  </si>
+  <si>
+    <t>4630460967979</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 175 х 215 - М - Петроль</t>
+  </si>
+  <si>
+    <t>4630460967962</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 80 х 200 х 20 - М - 140 - Космос 1х1</t>
+  </si>
+  <si>
+    <t>4630460967955</t>
+  </si>
+  <si>
+    <t>Простыня круглая из сатина на резинке 220 х 220 х 20 - М - 140 - Белый Лучик</t>
+  </si>
+  <si>
+    <t>4630460967948</t>
+  </si>
+  <si>
+    <t>Простыня круглая твил-сатин на резинке 220х220х20 - "Лебединое перо"</t>
+  </si>
+  <si>
+    <t>4630460967931</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро - М - Королевский пурпур</t>
+  </si>
+  <si>
+    <t>4630460967924</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин Евро Макси - "Молочная мечта"</t>
+  </si>
+  <si>
+    <t>4630460967917</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное на резинке 90х200х30 - М - 135 - Углерод 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460967900</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 300х300 - "Шаде"</t>
+  </si>
+  <si>
+    <t>4630460967894</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 200 х 200 - М - 135 - Темно-синий 0,5х0,5</t>
+  </si>
+  <si>
+    <t>4630460967887</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп микрофибры 175 х 215 - М - 85 - Белый 3х3</t>
   </si>
 </sst>
 </file>
@@ -11399,6 +11597,270 @@
         <v>1571</v>
       </c>
     </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1637</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="5"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A601451-53FC-4C7E-9BEC-0383722CA063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Краткий отчет" state="visible" r:id="rId4"/>
+    <sheet name="Краткий отчет" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -4933,38 +4934,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -4976,17 +4983,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5000,9 +5015,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5279,26 +5295,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P11478"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P11478"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A626" sqref="A626"/>
+    <sheetView tabSelected="1" topLeftCell="A771" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A789" sqref="A789"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="177" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5325,7 +5341,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5333,7 +5349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5341,7 +5357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5349,7 +5365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -5357,7 +5373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -5365,7 +5381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -5373,7 +5389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -5381,7 +5397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -5389,7 +5405,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -5397,7 +5413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5405,7 +5421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -5413,7 +5429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -11598,7 +11614,7 @@
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A789" t="s">
+      <c r="A789" s="7" t="s">
         <v>1572</v>
       </c>
       <c r="B789" t="s">
@@ -11867,7 +11883,7 @@
     <row r="4853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4853" s="6"/>
     </row>
-    <row r="4890" ht="26.25" customHeight="1" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="4890" spans="7:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4890" s="6"/>
     </row>
     <row r="7716" spans="2:2" x14ac:dyDescent="0.25">
@@ -11883,6 +11899,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A601451-53FC-4C7E-9BEC-0383722CA063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Краткий отчет" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Краткий отчет" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="1638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="1694">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -4929,35 +4928,203 @@
   </si>
   <si>
     <t>Пододеяльник из страйп микрофибры 175 х 215 - М - 85 - Белый 3х3</t>
+  </si>
+  <si>
+    <t>4630460968464</t>
+  </si>
+  <si>
+    <t>Наволочкастрайп-сатин 50х50 - 125 - "Черника" 1х1</t>
+  </si>
+  <si>
+    <t>4630460968457</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - 60S 4382 Персик</t>
+  </si>
+  <si>
+    <t>4630460968440</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 145х215 - "Чёрный Страйп"</t>
+  </si>
+  <si>
+    <t>4630460968433</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 60 х 60 - М - Пыльная роза</t>
+  </si>
+  <si>
+    <t>4630460968426</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 90х200х30 - "Снежный Хищник"</t>
+  </si>
+  <si>
+    <t>4630460968419</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро на резинке 160х200х30 - М - Дзета Ориона</t>
+  </si>
+  <si>
+    <t>4630460968402</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 40 х 40 - М - 135 - Кувертюр 1х1</t>
+  </si>
+  <si>
+    <t>4630460968396</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 2 спальное на резинке 160х200х30 - М - Мазарин блу</t>
+  </si>
+  <si>
+    <t>4630460968389</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро Макси на резинке 180х200х30 - М - Блу Скай</t>
+  </si>
+  <si>
+    <t>4630460968372</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 2 спальное на резинке 160х200х30 - М - 140 - Тенерифе 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460968365</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин семейное на резинке 160х200х30 - М - 125 - Фисташка 1х1</t>
+  </si>
+  <si>
+    <t>4630460968358</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок 1,5 спальное - М - Бертолеция</t>
+  </si>
+  <si>
+    <t>4630460968341</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин-жаккард 1,5 спальное на резинке 140х200х30 - М - Снежное королевство</t>
+  </si>
+  <si>
+    <t>4630460968334</t>
+  </si>
+  <si>
+    <t>Наволочка Тенсель 50х70 - "Трендис"</t>
+  </si>
+  <si>
+    <t>4630460968327</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50х70 - "Осенняя Слива"</t>
+  </si>
+  <si>
+    <t>4630460968310</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 135 - Ларимар 1х1</t>
+  </si>
+  <si>
+    <t>4630460968303</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 2 спальное на резинке 160х200х20 - "Глисса" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460968297</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 150х200 - 125 - "Миндаль" 1х1</t>
+  </si>
+  <si>
+    <t>4630460968280</t>
+  </si>
+  <si>
+    <t>Наволочка страйп-сатин 50х70 - 125 - "Миндаль" 1х1</t>
+  </si>
+  <si>
+    <t>4630460968273</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 200х220 - "Угольная Паутинка"</t>
+  </si>
+  <si>
+    <t>4630460968266</t>
+  </si>
+  <si>
+    <t>Наволочка Жатка 50х70 - "Угольная Паутинка"</t>
+  </si>
+  <si>
+    <t>4630460968259</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное на резинке 160х200х30 - М - 60S 4216 Серебро</t>
+  </si>
+  <si>
+    <t>4630460968242</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин-жаккард 2 спальное - М - Пинкроуз с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460968235</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 2 спальное с Евро простыней - М - 135 - Амур де Молен 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460968228</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Евро макси на резинке 180х200х30 - М - 120 - Синий кобальт с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460968211</t>
+  </si>
+  <si>
+    <t>Пододеяльник варёный хлопок 145х215 - "Стальная тень" (меланж)</t>
+  </si>
+  <si>
+    <t>4630460968488</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 280х280 - "Лесная Мелодия"</t>
+  </si>
+  <si>
+    <t>4630460968471</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 280х280 - "Камара"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4983,18 +5150,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -5009,16 +5168,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5295,26 +5454,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11478"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P11478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A771" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A789" sqref="A789"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A846" sqref="A846"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="177" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5341,7 +5500,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5349,7 +5508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5357,7 +5516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5365,7 +5524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -5373,7 +5532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -5381,7 +5540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -5389,7 +5548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -5397,7 +5556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -5405,7 +5564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -5413,7 +5572,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5421,7 +5580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -5429,7 +5588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -11614,7 +11773,7 @@
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A789" s="7" t="s">
+      <c r="A789" s="5" t="s">
         <v>1572</v>
       </c>
       <c r="B789" t="s">
@@ -11877,28 +12036,252 @@
         <v>1637</v>
       </c>
     </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1693</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3449" s="5"/>
+      <c r="A3449" s="6"/>
     </row>
     <row r="4853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4853" s="6"/>
-    </row>
-    <row r="4890" spans="7:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4890" s="6"/>
+      <c r="A4853" s="7"/>
+    </row>
+    <row r="4890" ht="26.25" customHeight="1" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G4890" s="7"/>
     </row>
     <row r="7716" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7716" s="6"/>
+      <c r="B7716" s="7"/>
     </row>
     <row r="7776" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10818" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10818" s="6"/>
+      <c r="B10818" s="7"/>
     </row>
     <row r="10905" ht="128.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11478" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11478" s="6"/>
+      <c r="B11478" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="1694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="1806">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -5096,6 +5096,342 @@
   </si>
   <si>
     <t>Простыня Жатка 280х280 - "Камара"</t>
+  </si>
+  <si>
+    <t>4630460969041</t>
+  </si>
+  <si>
+    <t>Простыня круглая ранфорс на резинке 200х200х30 - "Ванильный раф"</t>
+  </si>
+  <si>
+    <t>4630460969034</t>
+  </si>
+  <si>
+    <t>Простыня круглая полисатин на резинке 200х200х30 - "Эвергрин"</t>
+  </si>
+  <si>
+    <t>4630460969027</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 220 - "Аметистовый Шёлк"</t>
+  </si>
+  <si>
+    <t>4630460969010</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 80х200х30 - "Элефас"</t>
+  </si>
+  <si>
+    <t>4630460969003</t>
+  </si>
+  <si>
+    <t>Пододеяльник Микрофибра 145х215 - "Эстрелья"</t>
+  </si>
+  <si>
+    <t>4630460968990</t>
+  </si>
+  <si>
+    <t>Наволочка Микрофибра 40х60 - "Эстрелья"</t>
+  </si>
+  <si>
+    <t>4630460968983</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин 300х300 - 125 - "Фая" 1х1</t>
+  </si>
+  <si>
+    <t>4630460968976</t>
+  </si>
+  <si>
+    <t>Простыня твил-сатин на резинке 90х200х30 - "Солнечные лучи"</t>
+  </si>
+  <si>
+    <t>4630460968969</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 145 х 215 - М - 125 - Виолет Мореля</t>
+  </si>
+  <si>
+    <t>4630460968952</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Полисатин семейное на резинке 160х200х30 - "Грис" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460968945</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 175 х 215 - М - 125 - Марсала</t>
+  </si>
+  <si>
+    <t>4630460968938</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - Пыльная роза</t>
+  </si>
+  <si>
+    <t>4630460968921</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс на резинке 200х220х40 - Белый</t>
+  </si>
+  <si>
+    <t>4630460968914</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 200х220х20 - М - Серая умбра</t>
+  </si>
+  <si>
+    <t>4630460968907</t>
+  </si>
+  <si>
+    <t>Пододеяльник детский из бязи 145 х 215 - М - Автоботы</t>
+  </si>
+  <si>
+    <t>4630460968891</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 220х240 - "Розелина"</t>
+  </si>
+  <si>
+    <t>4630460968884</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - 60S 4373 Пудровый</t>
+  </si>
+  <si>
+    <t>4630460968877</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 220 х 240 - М - Серая умбра</t>
+  </si>
+  <si>
+    <t>4630460968860</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 1,5 спальное на резинке 120х200х30 - М - 80 - Витражи с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460968853</t>
+  </si>
+  <si>
+    <t>Простыня микросатин на резинке 180х200х30 - "Пудинг"</t>
+  </si>
+  <si>
+    <t>4630460968846</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 80 х 120 - ГОСТ 142 - Затея Котика</t>
+  </si>
+  <si>
+    <t>4630460968839</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 240 х 260 - М - 135 - Секондо колоро 1х1</t>
+  </si>
+  <si>
+    <t>4630460968822</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 200 х 220 х 30 - М - 135 - Секондо колоро 1х1</t>
+  </si>
+  <si>
+    <t>4630460968815</t>
+  </si>
+  <si>
+    <t>Простыня круглая твил-сатин на резинке 200х200х20 - "Облачка"</t>
+  </si>
+  <si>
+    <t>4630460968808</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное - М - 135 - Цитрус 3х3 Универсал</t>
+  </si>
+  <si>
+    <t>4630460968792</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 160 х 200 х 40 - "Кленовая зелень"</t>
+  </si>
+  <si>
+    <t>4630460968785</t>
+  </si>
+  <si>
+    <t>Простыня из поплина 150 х 220 - М - Грей Стайл</t>
+  </si>
+  <si>
+    <t>4630460968778</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 70 х 70 - М - 142 - Рецепт любви</t>
+  </si>
+  <si>
+    <t>4630460968761</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 180х200х40 - "Шаде"</t>
+  </si>
+  <si>
+    <t>4630460968754</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 40 х 40 - "Золотое солнце"</t>
+  </si>
+  <si>
+    <t>4630460968747</t>
+  </si>
+  <si>
+    <t>Простыня из поплина 220 х 240 - М - Бонди</t>
+  </si>
+  <si>
+    <t>4630460968730</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин 260х260 - 125 - "Серебро" 1х1</t>
+  </si>
+  <si>
+    <t>4630460968723</t>
+  </si>
+  <si>
+    <t>Простыня круглая из тенселя на резинке 220х220х40 - М - 60S 4373 Пудровый</t>
+  </si>
+  <si>
+    <t>4630460968716</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 40 х 60 - М - 323 Серый</t>
+  </si>
+  <si>
+    <t>4630460968709</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное - "Розелина"</t>
+  </si>
+  <si>
+    <t>4630460968693</t>
+  </si>
+  <si>
+    <t>Наволочка из полисатина 50 х 50 - М - 90 - Франция</t>
+  </si>
+  <si>
+    <t>4630460968686</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 180х200х20 - М - 60S 129 Темно-зеленый</t>
+  </si>
+  <si>
+    <t>4630460968679</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин-жаккард 2 спальное с Евро простыней - М - Пинкроуз с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460968662</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро на резинке 160х200х30 - "Ромашковая Нежность" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460968655</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 140х200х30 - "Ночная Симфония" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460968648</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин Евро на резинке 160х200х30 - 130 - "Изумрудный малахит" 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460968631</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 240х260 - "Шторм"</t>
+  </si>
+  <si>
+    <t>4630460968624</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 200 х 220 х 20 - М - 130 - Белый</t>
+  </si>
+  <si>
+    <t>4630460968617</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 150 х 200 - М - 135 - Грей Нимбус</t>
+  </si>
+  <si>
+    <t>4630460968600</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин на резинке 120х200х40 - "Эльвас" 1х1</t>
+  </si>
+  <si>
+    <t>4630460968594</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 80х200х30 - М - 4216 Серебро</t>
+  </si>
+  <si>
+    <t>4630460968587</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 180 х 200 х 45 - М - 130 - Сланцево-серый 1х1</t>
+  </si>
+  <si>
+    <t>4630460968570</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 180 х 200 х 45 - М - 130 - Hotel Белый 3х3</t>
+  </si>
+  <si>
+    <t>4630460968563</t>
+  </si>
+  <si>
+    <t>Простыня Тенсель на резинке 140х200х30 - "Ларион"</t>
+  </si>
+  <si>
+    <t>4630460968556</t>
+  </si>
+  <si>
+    <t>Пододеяльник Тенсель 200х220 - "Ларион"</t>
+  </si>
+  <si>
+    <t>4630460968549</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 300х300 - "Малика"</t>
+  </si>
+  <si>
+    <t>4630460968532</t>
+  </si>
+  <si>
+    <t>Наволочка микросатин 70х70 - "Бездна"</t>
+  </si>
+  <si>
+    <t>4630460968525</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 200х220 - "Ледяной Мрамор"</t>
+  </si>
+  <si>
+    <t>4630460968518</t>
+  </si>
+  <si>
+    <t>Наволочка Жатка 50х70 - "Элефас"</t>
+  </si>
+  <si>
+    <t>4630460968501</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 140х200х40 - "Элефас"</t>
+  </si>
+  <si>
+    <t>4630460968495</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 2 спальное на резинке 160х200х30 - "Голубая дымка"</t>
   </si>
 </sst>
 </file>
@@ -12260,6 +12596,454 @@
         <v>1693</v>
       </c>
     </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1805</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="1806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="1858">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -5432,6 +5432,162 @@
   </si>
   <si>
     <t>КПБ Постельное бельё тенсель 2 спальное на резинке 160х200х30 - "Голубая дымка"</t>
+  </si>
+  <si>
+    <t>4630460969300</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - 125 - Обсидиан</t>
+  </si>
+  <si>
+    <t>4630460969294</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье тенсель 2 спальное с Евро простыней - "Призрачная лагуна" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460969287</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро на резинке 160х200х30 - "Золотой блеск"</t>
+  </si>
+  <si>
+    <t>4630460969270</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 200х200 - "Мятный Квадро"</t>
+  </si>
+  <si>
+    <t>4630460969263</t>
+  </si>
+  <si>
+    <t>Наволочка Жатка 70х70 - "Мятный Квадро"</t>
+  </si>
+  <si>
+    <t>4630460969256</t>
+  </si>
+  <si>
+    <t>Наволочка Жатка 50х70 - "Мятный Квадро"</t>
+  </si>
+  <si>
+    <t>4630460969249</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 200х200 - "Солнечный Лоск"</t>
+  </si>
+  <si>
+    <t>4630460969232</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 40х60 - "Песочная роза"</t>
+  </si>
+  <si>
+    <t>4630460969225</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 200х200 - 125 - "Фая" 1х1</t>
+  </si>
+  <si>
+    <t>4630460969218</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 150 х 200 - М - Гуава</t>
+  </si>
+  <si>
+    <t>4630460969201</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 280 х 280 - М - 120 - Серебристый металлик</t>
+  </si>
+  <si>
+    <t>4630460969195</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс 300х300 - "Трюфельный шарм"</t>
+  </si>
+  <si>
+    <t>4630460969188</t>
+  </si>
+  <si>
+    <t>Простыня из перкаля 300 х 300 - М - 110 - Белоснежный луч</t>
+  </si>
+  <si>
+    <t>4630460969171</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 40 х 60 - М - Дымчатый</t>
+  </si>
+  <si>
+    <t>4630460969164</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 1,5 спальное - М - Просторы с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460969157</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 70х70 - "Морозный туман"</t>
+  </si>
+  <si>
+    <t>4630460969140</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 70 х 70 - М - 140 - Пыльная роза Люкс</t>
+  </si>
+  <si>
+    <t>4630460969133</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 60 х 60 - М - 125 - Черный 1х1</t>
+  </si>
+  <si>
+    <t>4630460969126</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 150 х 200 - М - 135 - Бежевый крем 1х1</t>
+  </si>
+  <si>
+    <t>4630460969119</t>
+  </si>
+  <si>
+    <t>Простыня круглая из тенселя на резинке 240 х 240 х 30 - М - Изумруд Эсмеральды</t>
+  </si>
+  <si>
+    <t>4630460969102</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 300 х 300 - М - 125 - Римская спаржа</t>
+  </si>
+  <si>
+    <t>4630460969096</t>
+  </si>
+  <si>
+    <t>Простыня круглая из тенселя на резинке 200х200х20 - М - Пыльная роза</t>
+  </si>
+  <si>
+    <t>4630460969089</t>
+  </si>
+  <si>
+    <t>Простыня круглая из сатина на резинке 200 х 200 х 30 - М - 140 - Белый Люкс</t>
+  </si>
+  <si>
+    <t>4630460969072</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 280 х 280 - М - 130 - Ночная синева</t>
+  </si>
+  <si>
+    <t>4630460969065</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 200х200х40 - М - 60S 4235 Темно-синий</t>
+  </si>
+  <si>
+    <t>4630460969058</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 220 - М - Изумруд Эсмеральды</t>
   </si>
 </sst>
 </file>
@@ -13044,6 +13200,214 @@
         <v>1805</v>
       </c>
     </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1857</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="1858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="2114">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -5588,6 +5588,774 @@
   </si>
   <si>
     <t>Пододеяльник из тенселя 200 х 220 - М - Изумруд Эсмеральды</t>
+  </si>
+  <si>
+    <t>4660674640566</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 90 х 200 х 30 - М - 135 - Барбаденсис 1х1</t>
+  </si>
+  <si>
+    <t>4660674640559</t>
+  </si>
+  <si>
+    <t>Наволочка ранфорс 50х70 - "Ванильный раф"</t>
+  </si>
+  <si>
+    <t>4660674640542</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 40 х 60 - М - Премиум ТС 320 Бесконечность</t>
+  </si>
+  <si>
+    <t>4660674640535</t>
+  </si>
+  <si>
+    <t>Простыня сатин 300х300 - "Цветы в Тумане"</t>
+  </si>
+  <si>
+    <t>4660674640528</t>
+  </si>
+  <si>
+    <t>Наволочка сатин 50х70 - "Цветы в Тумане"</t>
+  </si>
+  <si>
+    <t>4660674640511</t>
+  </si>
+  <si>
+    <t>Простыня твил-сатин 300 х 300 - "Солнечные лучи"</t>
+  </si>
+  <si>
+    <t>4660674640504</t>
+  </si>
+  <si>
+    <t>Наволочка твил-сатин 50 х 70 - "Солнечные лучи"</t>
+  </si>
+  <si>
+    <t>4660674640498</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 2 спальное с Евро простыней - М - 60S 129 Темно-зеленый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674640481</t>
+  </si>
+  <si>
+    <t>Простыня тенсель 240 х 260 - "Темный изумруд"</t>
+  </si>
+  <si>
+    <t>4660674640474</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин семейное на резинке 160х200х30 - "Флорал" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674640467</t>
+  </si>
+  <si>
+    <t>Наволочка ранфорс 40х40 - "Фантасмагория"</t>
+  </si>
+  <si>
+    <t>4660674640450</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро макси на резинке 180х200х30 - "Лунный Одуванчик"</t>
+  </si>
+  <si>
+    <t>4660674640443</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё твил-сатин Евро макси на резинке 180х200х30 - "Лесная тень"</t>
+  </si>
+  <si>
+    <t>4660674640436</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс на резинке 180х200х40 - "Лазурный бриз"</t>
+  </si>
+  <si>
+    <t>4660674640429</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 2 спальное на резинке 140х200х30 - "Далиян"</t>
+  </si>
+  <si>
+    <t>4660674640412</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное на резинке 160х200х30 - М - Фазенда Лиара с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674640405</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 240х260 - "Смоки"</t>
+  </si>
+  <si>
+    <t>4660674640399</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 1,5 спальное на резинке 120х200х30 - "Гуголету" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674640382</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин Евро - "Экзотический" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674640375</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 2 спальное с Евро простыней - "Фиорис"</t>
+  </si>
+  <si>
+    <t>4660674640368</t>
+  </si>
+  <si>
+    <t>Простыня круглая из страйп-сатина на резинке 200 х 200 х 30 - М - 135 - Дионис 1х1</t>
+  </si>
+  <si>
+    <t>4660674640351</t>
+  </si>
+  <si>
+    <t>Простыня круглая из страйп-сатина на резинке 200 х 200 х 30 - М - 140 - Агатовый серый 1х1</t>
+  </si>
+  <si>
+    <t>4660674640344</t>
+  </si>
+  <si>
+    <t>Простыня круглая из страйп сатина на резинке 200 x 200 х 40 - М - 130 - Hotel Белый 3х3</t>
+  </si>
+  <si>
+    <t>4660674640337</t>
+  </si>
+  <si>
+    <t>Простыня круглая из сатина на резинке 200 х 200 х 30 - М - 140 - Белый Лучик</t>
+  </si>
+  <si>
+    <t>4660674640320</t>
+  </si>
+  <si>
+    <t>Простыня Тенсель 240х260 - "Твист"</t>
+  </si>
+  <si>
+    <t>4660674640313</t>
+  </si>
+  <si>
+    <t>Пододеяльник Тенсель 150х200 - "Твист"</t>
+  </si>
+  <si>
+    <t>4660674640306</t>
+  </si>
+  <si>
+    <t>Наволочка Тенсель 50х70 - "Твист"</t>
+  </si>
+  <si>
+    <t>4660674640290</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 2 спальное на резинке 140х200х30 - М - 120 - Синий кобальт</t>
+  </si>
+  <si>
+    <t>4660674640283</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро макси на резинке 180х200х30 - "Песочный Рельеф" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674640276</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 260х260 - "Солнечный Лоск"</t>
+  </si>
+  <si>
+    <t>4660674640269</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 150 х 220 - М - 142 ГОСТ - Космические Звёзды</t>
+  </si>
+  <si>
+    <t>4660674640252</t>
+  </si>
+  <si>
+    <t>Простыня круглая Жатка на резинке 200х200х30 - "Розелина"</t>
+  </si>
+  <si>
+    <t>4660674640245</t>
+  </si>
+  <si>
+    <t>Наволочка Тенсель 70х70 - "Асунсьон"</t>
+  </si>
+  <si>
+    <t>4660674640238</t>
+  </si>
+  <si>
+    <t>Наволочка Тенсель 50х70 - "Асунсьон"</t>
+  </si>
+  <si>
+    <t>4660674640221</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 160 х 200 х 30 - М - 140 - Миндаль 1х1</t>
+  </si>
+  <si>
+    <t>4660674640214</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 300х300 - "Бездна"</t>
+  </si>
+  <si>
+    <t>4660674640207</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 175 х 215 - М - Зюйд Ост</t>
+  </si>
+  <si>
+    <t>4660674640191</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - Зюйд Ост</t>
+  </si>
+  <si>
+    <t>4660674640184</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 200х220х40 - М - 60S Белый</t>
+  </si>
+  <si>
+    <t>4660674640177</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 220х240 - "Туманная Аура"</t>
+  </si>
+  <si>
+    <t>4660674640160</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин-жаккард 2 спальное - "Хромалит" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674640153</t>
+  </si>
+  <si>
+    <t>Наволочка Жатка 70х70 - "Письменный Бриз"</t>
+  </si>
+  <si>
+    <t>4660674640146</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное - "Парижский Шарм" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674640139</t>
+  </si>
+  <si>
+    <t>Наволочка Жатка 70х70 - "Серебряный Папоротник"</t>
+  </si>
+  <si>
+    <t>4660674640122</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 200х220 - "Селинто"</t>
+  </si>
+  <si>
+    <t>4660674640115</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Микрофибра Евро макси на резинке 180х200х30 - "Эстрелья"</t>
+  </si>
+  <si>
+    <t>4660674640108</t>
+  </si>
+  <si>
+    <t>Наволочка Жатка 50х70 - "Лунный Одуванчик"</t>
+  </si>
+  <si>
+    <t>4660674640092</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 120х200х30 - "Лунный Одуванчик"</t>
+  </si>
+  <si>
+    <t>4660674640085</t>
+  </si>
+  <si>
+    <t>Наволочка Жатка 70х70 - "Астероид"</t>
+  </si>
+  <si>
+    <t>4660674640078</t>
+  </si>
+  <si>
+    <t>Простыня круглая Жатка на резинке 210х210х30 - "Астероид"</t>
+  </si>
+  <si>
+    <t>4660674640061</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 200х220 - "Астероид"</t>
+  </si>
+  <si>
+    <t>4660674640054</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Микрофибра Евро на резинке 160х200х30 - "Петкана" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674640047</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Евро макси на резинке 180х200х30 - "Мелори" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674640030</t>
+  </si>
+  <si>
+    <t>Простыня твил-сатин на резинке 160х200х30 - "Хризоколла"</t>
+  </si>
+  <si>
+    <t>4660674640023</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 240х260 - "Страстный гранат"</t>
+  </si>
+  <si>
+    <t>4660674640016</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 240х260 - "Манцель" 3х3</t>
+  </si>
+  <si>
+    <t>4630460969997</t>
+  </si>
+  <si>
+    <t>Пододеяльник Полисатин 240х260 - "Эбру"</t>
+  </si>
+  <si>
+    <t>4630460969980</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё ранфорс семейное на резинке 180х200х30 - "Трюфельный шарм"</t>
+  </si>
+  <si>
+    <t>4630460969973</t>
+  </si>
+  <si>
+    <t>КПБ Детское постельное бельё из бязи для детских кроваток - Р - М - Качели с компаньоном</t>
+  </si>
+  <si>
+    <t>4630460969966</t>
+  </si>
+  <si>
+    <t>КПБ Детское постельное бельё из бязи для детских кроваток - Р - М - Овечка без комп</t>
+  </si>
+  <si>
+    <t>4630460969959</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное на резинке 120х200х30 - М - 60S 4216 Серебро</t>
+  </si>
+  <si>
+    <t>4630460969942</t>
+  </si>
+  <si>
+    <t>Пододеяльник ранфорс 150х200 - "Трюфельный шарм"</t>
+  </si>
+  <si>
+    <t>4630460969935</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 160 х 200 х 30 - М - 140 - Таинственность</t>
+  </si>
+  <si>
+    <t>4630460969928</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 50 - М - 120 - Морион</t>
+  </si>
+  <si>
+    <t>4630460969911</t>
+  </si>
+  <si>
+    <t>Простыня твил-сатин на резинке 180х200х30 - "Лебединое перо"</t>
+  </si>
+  <si>
+    <t>4630460969904</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - 120 - Иолит</t>
+  </si>
+  <si>
+    <t>4630460969898</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка семейное на резинке 160х200х30 - "Звёздный Вальс"</t>
+  </si>
+  <si>
+    <t>4630460969881</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 200х220 - "Ночная Симфония"</t>
+  </si>
+  <si>
+    <t>4630460969874</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 280 х 280 - М - 130 - Антрацитовый</t>
+  </si>
+  <si>
+    <t>4630460969867</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 145 х 215 - М - 60S Белый</t>
+  </si>
+  <si>
+    <t>4630460969850</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 300х300 - "Снежный Хищник"</t>
+  </si>
+  <si>
+    <t>4630460969843</t>
+  </si>
+  <si>
+    <t>Пододеяльник сатин 150х200 - "Лунная Пальма"</t>
+  </si>
+  <si>
+    <t>4630460969836</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин-жаккард 2 спальное на резинке 160х200х30 - М - Палладион</t>
+  </si>
+  <si>
+    <t>4630460969829</t>
+  </si>
+  <si>
+    <t>Наволочка из перкаля 50 х 70 - М - 125 - Айвори Беж</t>
+  </si>
+  <si>
+    <t>4630460969812</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное на резинке 120х200х30 - М - Петроль</t>
+  </si>
+  <si>
+    <t>4630460969805</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 200 х 220 - "Сиренево-розовый"</t>
+  </si>
+  <si>
+    <t>4630460969799</t>
+  </si>
+  <si>
+    <t>Простыня из поплина на резинке 120 х 200 х 30 - М - Белоснежное</t>
+  </si>
+  <si>
+    <t>4630460969782</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 50 - М - 60S 71 Персик</t>
+  </si>
+  <si>
+    <t>4630460969775</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 150 х 220 - М - Бисквитный</t>
+  </si>
+  <si>
+    <t>4630460969768</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро Макси - "Бейж"</t>
+  </si>
+  <si>
+    <t>4630460969751</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро Макси - М - 60S 41-020 Серебряный</t>
+  </si>
+  <si>
+    <t>4630460969744</t>
+  </si>
+  <si>
+    <t>Простыня сатин Браш 240 х 260 - М - Мастард</t>
+  </si>
+  <si>
+    <t>4630460969737</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 180 х 220 - М - 135 - Фиолетовый 3х3</t>
+  </si>
+  <si>
+    <t>4630460969720</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - Р - М - 60S Белый</t>
+  </si>
+  <si>
+    <t>4630460969713</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 40х40 - "Песочная роза"</t>
+  </si>
+  <si>
+    <t>4630460969706</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 200х200х40 - "Макена"</t>
+  </si>
+  <si>
+    <t>4630460969690</t>
+  </si>
+  <si>
+    <t>Простыня тенсель 220х240 - "Лиловый тауп"</t>
+  </si>
+  <si>
+    <t>4630460969683</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин Евро - Р - СД - A-25</t>
+  </si>
+  <si>
+    <t>4630460969676</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное - "Лав юселф"</t>
+  </si>
+  <si>
+    <t>4630460969669</t>
+  </si>
+  <si>
+    <t>Наволочка Микрофибра 50х70 - "Эстрелья"</t>
+  </si>
+  <si>
+    <t>4630460969652</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё перкаль 2 спальное на резинке 160х200х20 - М - 110 - Атлантида с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460969645</t>
+  </si>
+  <si>
+    <t>Наволочка из полисатина 50 х 70 - М - 90 - Гепарды</t>
+  </si>
+  <si>
+    <t>4630460969638</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 140х200х20 - "Угольная Паутинка"</t>
+  </si>
+  <si>
+    <t>4630460969621</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 200 х 220 - М - 120 - Хадусамат</t>
+  </si>
+  <si>
+    <t>4630460969614</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье варёный хлопок 1,5 спальное на резинке 120х200х30 - "Вишня" (меланж) с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460969607</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 50 - М - Блестящий миндаль</t>
+  </si>
+  <si>
+    <t>4630460969591</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 1,5 спальное - М - 120 - Парковая Роза с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460969584</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 80 х 200 х 40 - М - 125 - Предгорье</t>
+  </si>
+  <si>
+    <t>4630460969577</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин 220х240 - 130 - "Дивуар" 1х1</t>
+  </si>
+  <si>
+    <t>4630460969560</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 2 спальное - М - 60S 4302 Зеленый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460969553</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 240х260 - "Шторм"</t>
+  </si>
+  <si>
+    <t>4630460969546</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 150 х 200 - "Цветочный Шарм"</t>
+  </si>
+  <si>
+    <t>4630460969539</t>
+  </si>
+  <si>
+    <t>Пододеяльник ранфорс 240х260 - "Кремневый серый"</t>
+  </si>
+  <si>
+    <t>4630460969522</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50х70 - "Ажур"</t>
+  </si>
+  <si>
+    <t>4630460969515</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро на резинке 160х200х30 - "Бархатный Букет"</t>
+  </si>
+  <si>
+    <t>4630460969508</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 200х220 - "Бархатный Букет"</t>
+  </si>
+  <si>
+    <t>4630460969492</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро на резинке 160х200х30 - "Аметистовый Шёлк" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460969485</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 150 х 200 - М - 140 - Белый Лучик</t>
+  </si>
+  <si>
+    <t>4630460969478</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное на резинке 140х200х30 - М - Розовая лаванда с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460969461</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок 2 спальное на резинке 160х200х30 - М - Каштановый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460969454</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 220 х 240 - М - Дзета Ориона</t>
+  </si>
+  <si>
+    <t>4630460969447</t>
+  </si>
+  <si>
+    <t>Простыня тенсель 180 х 220 - "Золотой блеск"</t>
+  </si>
+  <si>
+    <t>4630460969430</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 70 х 70 - М - 120 - Вазарели</t>
+  </si>
+  <si>
+    <t>4630460969423</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - 125 - Дом Периньон</t>
+  </si>
+  <si>
+    <t>4630460969416</t>
+  </si>
+  <si>
+    <t>Наволочка Жатка 70х70 - "Элефас"</t>
+  </si>
+  <si>
+    <t>4630460969409</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 175х215 - "Элефас"</t>
+  </si>
+  <si>
+    <t>4630460969393</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 300х300 - "Пудинг"</t>
+  </si>
+  <si>
+    <t>4630460969386</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 145 х 215 - М - 125 - Черный 1х1</t>
+  </si>
+  <si>
+    <t>4630460969379</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 280 х 280 - М - 135 - Эмерэльд 1х1</t>
+  </si>
+  <si>
+    <t>4630460969362</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 200 х 220 - М - 135 - Эмерэльд 1х1</t>
+  </si>
+  <si>
+    <t>4630460969355</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин Евро Макси - "Легкий роман"</t>
+  </si>
+  <si>
+    <t>4630460969348</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 2 спальное на резинке 140х200х30 - М - 130 - Антрацитовый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4630460969331</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 240 х 260 - М - 135 - Белая 1х1</t>
+  </si>
+  <si>
+    <t>4630460969324</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 200 х 220 - М - 135 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>4630460969317</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - Светлая орхидея</t>
+  </si>
+  <si>
+    <t>4660674640597</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 260х260 - "Бежевый шлейф"</t>
+  </si>
+  <si>
+    <t>4660674640580</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 40х40 - "Линнея"</t>
+  </si>
+  <si>
+    <t>4660674640573</t>
+  </si>
+  <si>
+    <t>Наволочка страйп-поплин 40 х 40 - М - Гестхаус Белый 3х3</t>
   </si>
 </sst>
 </file>
@@ -13408,6 +14176,1030 @@
         <v>1857</v>
       </c>
     </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>2113</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="2114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="2164">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -6356,6 +6356,156 @@
   </si>
   <si>
     <t>Наволочка страйп-поплин 40 х 40 - М - Гестхаус Белый 3х3</t>
+  </si>
+  <si>
+    <t>4660674640849</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 50 х 70 - М - 142 ГОСТ - Белый</t>
+  </si>
+  <si>
+    <t>4660674640832</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро - М - Льняной с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674640825</t>
+  </si>
+  <si>
+    <t>Простыня круглая твил-сатин на резинке 220х220х20 - "Солнечные лучи"</t>
+  </si>
+  <si>
+    <t>4660674640818</t>
+  </si>
+  <si>
+    <t>Простыня круглая из варёного хлопка на резинке 220x220х30 - М - Чёрная гавань</t>
+  </si>
+  <si>
+    <t>4660674640801</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 180 х 200 х 30 - М - 120 - Белый</t>
+  </si>
+  <si>
+    <t>4660674640795</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 140 - Голубой 1х1</t>
+  </si>
+  <si>
+    <t>4660674640788</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 180 х 220 - М - 135 - Фиолетовый глянцевая</t>
+  </si>
+  <si>
+    <t>4660674640771</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 200х200х40 - "Элефас"</t>
+  </si>
+  <si>
+    <t>4660674640764</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 120х200х30 - "Инспайр"</t>
+  </si>
+  <si>
+    <t>4660674640757</t>
+  </si>
+  <si>
+    <t>Наволочка твил-сатин 40 х 60 - "Дино-пати"</t>
+  </si>
+  <si>
+    <t>4660674640740</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 300х300 - "Страстный гранат"</t>
+  </si>
+  <si>
+    <t>4660674640733</t>
+  </si>
+  <si>
+    <t>Наволочка Жатка 40х60 - "Леопардовый Сон"</t>
+  </si>
+  <si>
+    <t>4660674640726</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 1,5 спальное на резинке 120х200х30 - "Русалки"</t>
+  </si>
+  <si>
+    <t>4660674640719</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 1,5 спальное на резинке 120х200х30 - "Розовый Сад"</t>
+  </si>
+  <si>
+    <t>4660674640702</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 40х40 - "Лиламар"</t>
+  </si>
+  <si>
+    <t>4660674640696</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 300х300 - "Серебряный Папоротник"</t>
+  </si>
+  <si>
+    <t>4660674640689</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 175х215 - "Серебряный Папоротник"</t>
+  </si>
+  <si>
+    <t>4660674640672</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина-жаккарда 50 х 70 - М - Палладион</t>
+  </si>
+  <si>
+    <t>4660674640665</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин-жаккард Евро на резинке 160х200х30 - М - Палладион с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674640658</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное на резинке 160х200х20 - "Угольная Паутинка"</t>
+  </si>
+  <si>
+    <t>4660674640641</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - Льняной</t>
+  </si>
+  <si>
+    <t>4660674640634</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 200х220 - "Белава"</t>
+  </si>
+  <si>
+    <t>4660674640627</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 200х220 - "Андреза"</t>
+  </si>
+  <si>
+    <t>4660674640610</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё ранфорс 1,5 спальное на резинке 120х200х30 - "Лазурный бриз" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674640603</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное на резинке 120х200х30 - "Эльвас" 1х1</t>
   </si>
 </sst>
 </file>
@@ -15200,6 +15350,206 @@
         <v>2113</v>
       </c>
     </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>2163</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="2164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="2240">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -6506,6 +6506,234 @@
   </si>
   <si>
     <t>КПБ Постельное бельё страйп-сатин 1,5 спальное на резинке 120х200х30 - "Эльвас" 1х1</t>
+  </si>
+  <si>
+    <t>4660674641204</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 300х300 - "Огнерон"</t>
+  </si>
+  <si>
+    <t>4660674641198</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 220х240 - "Огнерон"</t>
+  </si>
+  <si>
+    <t>4660674641181</t>
+  </si>
+  <si>
+    <t>КПБ Детское постельное бельё твил-сатин для детских кроваток - "Мишка в лесу"</t>
+  </si>
+  <si>
+    <t>4660674641174</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин семейное на резинке 160х200х30 - "Лазурный Мегаполис"</t>
+  </si>
+  <si>
+    <t>4660674641167</t>
+  </si>
+  <si>
+    <t>Пододеяльник ранфорс 240х260 - Белый</t>
+  </si>
+  <si>
+    <t>4660674641150</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 2 спальное - М - 142 - Монстера на коричневом с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674641143</t>
+  </si>
+  <si>
+    <t>Пододеяльник Перкаль 150х200 - "Чёрное масло"</t>
+  </si>
+  <si>
+    <t>4660674641136</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 200 х 220 - М - 130 - Полуночный ультрамарин 1х1</t>
+  </si>
+  <si>
+    <t>4660674641129</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 70 х 70 - М - 130 - Полуночный ультрамарин 1х1</t>
+  </si>
+  <si>
+    <t>4660674641112</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп сатина 200 х 200 - М - 130 - Сланцево-серый 1х1</t>
+  </si>
+  <si>
+    <t>4660674641105</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 70 х 70 - М - 130 - Сланцево-серый 1х1</t>
+  </si>
+  <si>
+    <t>4660674641099</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро - "Письменный Бриз"</t>
+  </si>
+  <si>
+    <t>4660674641082</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс на резинке 140х200х20 - "Кремневый серый"</t>
+  </si>
+  <si>
+    <t>4660674641075</t>
+  </si>
+  <si>
+    <t>Наволочка микросатин 70х70 - "Страстный гранат"</t>
+  </si>
+  <si>
+    <t>4660674641068</t>
+  </si>
+  <si>
+    <t>Простыня Полисатин на резинке 200х220х30 - "Эбру"</t>
+  </si>
+  <si>
+    <t>4660674641051</t>
+  </si>
+  <si>
+    <t>Простыня Перкаль на резинке 200х220х20 - "Чёрное масло"</t>
+  </si>
+  <si>
+    <t>4660674641044</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё ранфорс 2 спальное на резинке 160х200х30 - "Фантасмагория" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674641037</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 2 спальное - М - 130 - Теплый металлик 1х1</t>
+  </si>
+  <si>
+    <t>4660674641020</t>
+  </si>
+  <si>
+    <t>Пододеяльник твил-сатин 150 х 200 - "Солнечные лучи"</t>
+  </si>
+  <si>
+    <t>4660674641013</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё ранфорс семейное - "Трюфельный шарм"</t>
+  </si>
+  <si>
+    <t>4660674641006</t>
+  </si>
+  <si>
+    <t>Простыня Тенсель на резинке 200х200х20 - "Твист"</t>
+  </si>
+  <si>
+    <t>4660674640993</t>
+  </si>
+  <si>
+    <t>Простыня круглая ранфорс на резинке 210х210х30 - Белый</t>
+  </si>
+  <si>
+    <t>4660674640986</t>
+  </si>
+  <si>
+    <t>Пододеяльник твил-сатин 175 х 215 - "Мишка в лесу"</t>
+  </si>
+  <si>
+    <t>4660674640979</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 150 х 220 - М - 142 ГОСТ - Кружащие перья</t>
+  </si>
+  <si>
+    <t>4660674640962</t>
+  </si>
+  <si>
+    <t>Пододеяльник ранфорс 240х260 - "Лиловая нежность"</t>
+  </si>
+  <si>
+    <t>4660674640955</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё креп-жатка 1,5 спальное - М - 80 - Теплые Пожелания с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674640948</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 180 х 220 - М - Каштановый</t>
+  </si>
+  <si>
+    <t>4660674640931</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 50 х 70 - М - Каштановый</t>
+  </si>
+  <si>
+    <t>4660674640924</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 180х200х40 - "Альфредо"</t>
+  </si>
+  <si>
+    <t>4660674640917</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 180х200х40 - "Элефас"</t>
+  </si>
+  <si>
+    <t>4660674640900</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 140х200х20 - М - 60S Белый</t>
+  </si>
+  <si>
+    <t>4660674640894</t>
+  </si>
+  <si>
+    <t>Наволочка из поплина 60 х 60 - М - Танец под водой</t>
+  </si>
+  <si>
+    <t>4660674640887</t>
+  </si>
+  <si>
+    <t>Простыня тенсель на резинке 180х200х20 - "Осенняя Слива"</t>
+  </si>
+  <si>
+    <t>4660674640870</t>
+  </si>
+  <si>
+    <t>Простыня из поплина 180 х 220 - М - В ассортименте</t>
+  </si>
+  <si>
+    <t>4660674640863</t>
+  </si>
+  <si>
+    <t>Наволочка сатин 40х60 - "Скандинавская клетка"</t>
+  </si>
+  <si>
+    <t>4660674640856</t>
+  </si>
+  <si>
+    <t>Простыня тенсель 180х220 - "Морозный туман"</t>
+  </si>
+  <si>
+    <t>4660674641228</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье тенсель 2 спальное - "Румянец"</t>
+  </si>
+  <si>
+    <t>4660674641211</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 60х60 - "Ягуар"</t>
   </si>
 </sst>
 </file>
@@ -15550,6 +15778,310 @@
         <v>2163</v>
       </c>
     </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>2239</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="2240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="2326">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -6734,6 +6734,264 @@
   </si>
   <si>
     <t>Наволочка поплин 60х60 - "Ягуар"</t>
+  </si>
+  <si>
+    <t>4660674641648</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 1,5 спальное - М - 120 - Цветочный Нектар</t>
+  </si>
+  <si>
+    <t>4660674641631</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное на резинке 120х200х30 - М - 135 - Дарк Блу 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674641624</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 180х220 - "Небесный глянцевая"</t>
+  </si>
+  <si>
+    <t>4660674641617</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 180х220 - "Севим"</t>
+  </si>
+  <si>
+    <t>4660674641600</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 1,5 спальное на резинке 90х200х30 - М - Бонди с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674641594</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 50х50 - "Дизанта"</t>
+  </si>
+  <si>
+    <t>4660674641587</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё ранфорс 2 спальное - "Кремневый серый" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674641570</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 2 спальное - М - 60S 4373 Пудровый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674641563</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 2 спальное - М - Одуванчики (голуб)</t>
+  </si>
+  <si>
+    <t>4660674641556</t>
+  </si>
+  <si>
+    <t>Пододеяльник ранфорс 240х260 - "Лазурный бриз"</t>
+  </si>
+  <si>
+    <t>4660674641549</t>
+  </si>
+  <si>
+    <t>Пододеяльник из варёного хлопка 240 х 260 - М - Молочный</t>
+  </si>
+  <si>
+    <t>4660674641532</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп сатина 200 х 200 - М - 135 - Марриотт Белый 3х3</t>
+  </si>
+  <si>
+    <t>4660674641525</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 135 - Марриотт Белый 3х3</t>
+  </si>
+  <si>
+    <t>4660674641518</t>
+  </si>
+  <si>
+    <t>Простыня тенсель 300 х 300 - "Серый Райнар"</t>
+  </si>
+  <si>
+    <t>4660674641501</t>
+  </si>
+  <si>
+    <t>Простыня круглая твил-сатин на резинке 200х200х20 - "Нева"</t>
+  </si>
+  <si>
+    <t>4660674641495</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - Изумруд Эсмеральды</t>
+  </si>
+  <si>
+    <t>4660674641488</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 2 спальное - М - Морбидецца</t>
+  </si>
+  <si>
+    <t>4660674641471</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное - М - Блу Скай с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674641464</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 150 х 200 - М - Кончерто гроссо</t>
+  </si>
+  <si>
+    <t>4660674641457</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин Евро макси - М - 135 - Кортадерия 1х1</t>
+  </si>
+  <si>
+    <t>4660674641440</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок 1,5 спальное - М - Графит (меланж) с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674641433</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 60 х 60 - М - Аргентум</t>
+  </si>
+  <si>
+    <t>4660674641426</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 70 х 70 - М - 142 ГОСТ - Желтый</t>
+  </si>
+  <si>
+    <t>4660674641419</t>
+  </si>
+  <si>
+    <t>Простыня тенсель на резинке 160х200х30 - "Золотой блеск"</t>
+  </si>
+  <si>
+    <t>4660674641402</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 200 - М - Халкидики</t>
+  </si>
+  <si>
+    <t>4660674641396</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50х70 - "Цветочная Графика"</t>
+  </si>
+  <si>
+    <t>4660674641389</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - Джампит</t>
+  </si>
+  <si>
+    <t>4660674641372</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное на резинке 180х200х30 - М - Королевский пурпур с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674641365</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 2 спальное - "Ноксия"</t>
+  </si>
+  <si>
+    <t>4660674641358</t>
+  </si>
+  <si>
+    <t>Простыня твил-сатин на резинке 160х200х30 - "Лесная тень"</t>
+  </si>
+  <si>
+    <t>4660674641341</t>
+  </si>
+  <si>
+    <t>Наволочка твил-сатин 50 х 70 - "Лесная тень"</t>
+  </si>
+  <si>
+    <t>4660674641334</t>
+  </si>
+  <si>
+    <t>Пододеяльник твил-сатин 200 х 220 - "Лесная тень"</t>
+  </si>
+  <si>
+    <t>4660674641327</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 2 спальное с Евро простыней - М - Фазенда Лиара с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674641310</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин Евро макси - 125 - "Бирюза" 1х1</t>
+  </si>
+  <si>
+    <t>4660674641303</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 200 х 200 х 20 - М - 125 - Обсидиан</t>
+  </si>
+  <si>
+    <t>4660674641297</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 145 х 215 - М - 142 - Плата</t>
+  </si>
+  <si>
+    <t>4660674641280</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 280 х 280 - М - 60S 4247 Сирень</t>
+  </si>
+  <si>
+    <t>4660674641273</t>
+  </si>
+  <si>
+    <t>Наволочка бязь 50х50 - "Траектория"</t>
+  </si>
+  <si>
+    <t>4660674641266</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 1,5 спальное на резинке 140х200х30 - "Флорал" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674641259</t>
+  </si>
+  <si>
+    <t>Простыня сатин Браш 240 х 260 - М - Вайлет</t>
+  </si>
+  <si>
+    <t>4660674641242</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 140х200х30 - "Графитовый Зигзаг"</t>
+  </si>
+  <si>
+    <t>4660674641235</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 2 спальное - "Легкий роман"</t>
+  </si>
+  <si>
+    <t>4660674641655</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 220х240 - "Бездна"</t>
   </si>
 </sst>
 </file>
@@ -16082,6 +16340,350 @@
         <v>2239</v>
       </c>
     </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1141" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1142" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1143" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1144" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1146" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1147" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1148" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1149" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1150" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1151" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1153" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1154" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1157" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1158" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1160" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1161" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1162" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1163" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1164" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1165" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>2325</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="2326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="2386">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -6992,6 +6992,186 @@
   </si>
   <si>
     <t>Пододеяльник микросатин 220х240 - "Бездна"</t>
+  </si>
+  <si>
+    <t>4660674641952</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 2 спальное на резинке 160х200х30 - "Небосвод"</t>
+  </si>
+  <si>
+    <t>4660674641945</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 120 х 200 х 30 - М - 142 ГОСТ - Серый</t>
+  </si>
+  <si>
+    <t>4660674641938</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 300х300 - "Небосвод"</t>
+  </si>
+  <si>
+    <t>4660674641921</t>
+  </si>
+  <si>
+    <t>Простыня тенсель на резинке 200х200х40 - "Песчаный ветер"</t>
+  </si>
+  <si>
+    <t>4660674641914</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 2 спальное - М - 120 - Белое с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674641907</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 200х220 - "Звёздный туман"</t>
+  </si>
+  <si>
+    <t>4660674641891</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 175 х 215 - М - Горький шоколад</t>
+  </si>
+  <si>
+    <t>4660674641884</t>
+  </si>
+  <si>
+    <t>Наволочка Жатка 40х60 - "Макена"</t>
+  </si>
+  <si>
+    <t>4660674641877</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 40 х 60 - "Кленовая зелень"</t>
+  </si>
+  <si>
+    <t>4660674641860</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 140х200х30 - М - 233 Ментол</t>
+  </si>
+  <si>
+    <t>4660674641853</t>
+  </si>
+  <si>
+    <t>Простыня твил-сатин на резинке 80х200х20 - "Солнечные лучи"</t>
+  </si>
+  <si>
+    <t>4660674641846</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин Евро на резинке 160х200х20 - М - Алькор А+В</t>
+  </si>
+  <si>
+    <t>4660674641839</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин Евро макси на резинке 180х200х30 - М - 135 - Эмерэльд 1х1</t>
+  </si>
+  <si>
+    <t>4660674641822</t>
+  </si>
+  <si>
+    <t>Наволочка страйп-сатин 40х60 - 130 - "Олива" 1х1</t>
+  </si>
+  <si>
+    <t>4660674641815</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 300х300 - "Аврела"</t>
+  </si>
+  <si>
+    <t>4660674641808</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 200х200 - "Плюмас"</t>
+  </si>
+  <si>
+    <t>4660674641792</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 200 х 200 - М - 130 - Пел Догвуд 1х1</t>
+  </si>
+  <si>
+    <t>4660674641785</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 70 х 70 - М - 130 - Пел Догвуд 1х1</t>
+  </si>
+  <si>
+    <t>4660674641778</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 120х200х30 - "Бирюзовый Рельеф"</t>
+  </si>
+  <si>
+    <t>4660674641761</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 220 х 240 - М - 120 - Отбеленный</t>
+  </si>
+  <si>
+    <t>4660674641754</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 150х200 - "Альфредо"</t>
+  </si>
+  <si>
+    <t>4660674641747</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 300 х 300 - М - 60S 4292 Кремовый</t>
+  </si>
+  <si>
+    <t>4660674641730</t>
+  </si>
+  <si>
+    <t>Простыня Микрофибра 220х240 - "Марисоль"</t>
+  </si>
+  <si>
+    <t>4660674641723</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 160х200х40 - "Элефас"</t>
+  </si>
+  <si>
+    <t>4660674641716</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 200х200х30 - "Бирюзовый Рельеф"</t>
+  </si>
+  <si>
+    <t>4660674641709</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Микрофибра 1,5 спальное на резинке 140х200х30 - "Марисоль" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674641693</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - 125 - Марсала</t>
+  </si>
+  <si>
+    <t>4660674641686</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 220х240 - "Лесная Мелодия"</t>
+  </si>
+  <si>
+    <t>4660674641679</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 180х200х40 - "Ледяной Мрамор"</t>
+  </si>
+  <si>
+    <t>4660674641662</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин Евро Макси - "Страстный гранат"</t>
   </si>
 </sst>
 </file>
@@ -16684,6 +16864,246 @@
         <v>2325</v>
       </c>
     </row>
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1166" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1167" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1168" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1169" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1170" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1171" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1172" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1173" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1174" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1175" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1176" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1177" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1178" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1179" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1180" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1181" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1182" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1183" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1184" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1185" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1186" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1187" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1188" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1189" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1190" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1191" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1192" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1193" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1194" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1195" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>2385</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="2386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2620" uniqueCount="2620">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -7172,6 +7172,708 @@
   </si>
   <si>
     <t>КПБ Постельное белье микросатин Евро Макси - "Страстный гранат"</t>
+  </si>
+  <si>
+    <t>4660674643123</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро на резинке 160х200х30 - "Туманная Ветвь"</t>
+  </si>
+  <si>
+    <t>4660674643116</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 2 спальное на резинке 140х200х30 - 130 - "Изумрудный малахит" 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674643109</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро - "Белый Этюд" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674643093</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 160 х 200 х 30 - М - 125 - Римская спаржа</t>
+  </si>
+  <si>
+    <t>4660674643086</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин семейное на резинке 180х200х30 - "Страстный гранат" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674643079</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин Евро макси - "Фрезия" 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674643062</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 220х240 - "Розовый Флёр"</t>
+  </si>
+  <si>
+    <t>4660674643055</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье сатин Браш семейное на резинке 180х200х30 - "Голубой топаз"</t>
+  </si>
+  <si>
+    <t>4660674643048</t>
+  </si>
+  <si>
+    <t>Наволочка из полисатина 50 х 50 - М - 80 - Югацу</t>
+  </si>
+  <si>
+    <t>4660674643031</t>
+  </si>
+  <si>
+    <t>Наволочка из полисатина 40 х 40 - М - 90 - Франция</t>
+  </si>
+  <si>
+    <t>4660674643024</t>
+  </si>
+  <si>
+    <t>Наволочка из полисатина 50 х 50 - М - 110 - Тростниковая стрекоза А+В</t>
+  </si>
+  <si>
+    <t>4660674643017</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин на резинке 120х200х30 - 125 - "Шоколад" 1х1</t>
+  </si>
+  <si>
+    <t>4660674643000</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Евро - "Хореография 3"</t>
+  </si>
+  <si>
+    <t>4660674642997</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин Евро - "Эвергрин"</t>
+  </si>
+  <si>
+    <t>4660674642980</t>
+  </si>
+  <si>
+    <t>Простыня сатин на резинке 80х200х20 - "Лавандис"</t>
+  </si>
+  <si>
+    <t>4660674642973</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 145 х 215 - М - Нега</t>
+  </si>
+  <si>
+    <t>4660674642966</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 1,5 спальное - "Эвергрин" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642959</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 240 х 260 - М - 60S Белый</t>
+  </si>
+  <si>
+    <t>4660674642942</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 150 х 200 - М - 125 - Вибрация</t>
+  </si>
+  <si>
+    <t>4660674642935</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 150х200 - "Орисса"</t>
+  </si>
+  <si>
+    <t>4660674642928</t>
+  </si>
+  <si>
+    <t>Простыня сатин Браш на резинке 200х220х30 - "Салатовый"</t>
+  </si>
+  <si>
+    <t>4660674642911</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - Меропа</t>
+  </si>
+  <si>
+    <t>4660674642904</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 240 х 260 - М - 135 - Лаймкват 1х1</t>
+  </si>
+  <si>
+    <t>4660674642898</t>
+  </si>
+  <si>
+    <t>Наволочка микросатин 60х60 - "Страстный гранат"</t>
+  </si>
+  <si>
+    <t>4660674642881</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин семейное на резинке 160х200х30 - М - 120 - Трюфель</t>
+  </si>
+  <si>
+    <t>4660674642874</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 90х200х40 - М - 60S 4216 Серебро</t>
+  </si>
+  <si>
+    <t>4660674642867</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 2 спальное на резинке 160х200х30 - "Цветочный Шёпот"</t>
+  </si>
+  <si>
+    <t>4660674642850</t>
+  </si>
+  <si>
+    <t>Наволочка твил-сатин 40 х 60 - "Лебединое перо"</t>
+  </si>
+  <si>
+    <t>4660674642843</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 175х215 - "Глубь"</t>
+  </si>
+  <si>
+    <t>4660674642836</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 300х300 - "Элефас"</t>
+  </si>
+  <si>
+    <t>4660674642829</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 200х220 - "Элефас"</t>
+  </si>
+  <si>
+    <t>4660674642812</t>
+  </si>
+  <si>
+    <t>Наволочка Жатка 60х60 - "Элефас"</t>
+  </si>
+  <si>
+    <t>4660674642805</t>
+  </si>
+  <si>
+    <t>Наволочка ранфорс 70х70 - "Лазурный бриз"</t>
+  </si>
+  <si>
+    <t>4660674642799</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс 240х260 - "Лазурный бриз"</t>
+  </si>
+  <si>
+    <t>4660674642782</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное с Евро простыней - "Розелина" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642775</t>
+  </si>
+  <si>
+    <t>Простыня микросатин на резинке 160х200х40 - "Смоки"</t>
+  </si>
+  <si>
+    <t>4660674642768</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное на резинке 160х200х30 - М - Морбидецца</t>
+  </si>
+  <si>
+    <t>4660674642751</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 2 спальное на резинке 160х200х30 - 130 - "Дивуар" 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642744</t>
+  </si>
+  <si>
+    <t>Простыня из перкаля 220 х 240 - М - 110 - Белоснежный луч</t>
+  </si>
+  <si>
+    <t>4660674642737</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок Евро Макси на резинке 180х200х30 - М - Светло-пюсовый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642720</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 2 спальное с Евро простыней - М - Пыльная роза с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642713</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное на резинке 140х200х30 - М - 130 - Пудровый 1х1</t>
+  </si>
+  <si>
+    <t>4660674642706</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 130 - Пудровый 1х1</t>
+  </si>
+  <si>
+    <t>4660674642690</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 220 х 240 - М - 142 - Ария</t>
+  </si>
+  <si>
+    <t>4660674642683</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок Евро Макси на резинке 180х200х30 - М - Молочный</t>
+  </si>
+  <si>
+    <t>4660674642676</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - Р - М - Черника</t>
+  </si>
+  <si>
+    <t>4660674642669</t>
+  </si>
+  <si>
+    <t>Простыня непромокаемая на резинке 140 х 200 х 20 - М - Мулетон Полиэстер</t>
+  </si>
+  <si>
+    <t>4660674642652</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 280 х 280 - М - 60S 4292 Кремовый</t>
+  </si>
+  <si>
+    <t>4660674642645</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 140х200х30 - "Туманная Аура"</t>
+  </si>
+  <si>
+    <t>4660674642638</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 280 х 280 - "Кианит"</t>
+  </si>
+  <si>
+    <t>4660674642621</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - 120 - Лиловая дымка</t>
+  </si>
+  <si>
+    <t>4660674642614</t>
+  </si>
+  <si>
+    <t>Простыня сатин Браш на резинке 180х200х40 - "Серпентин"</t>
+  </si>
+  <si>
+    <t>4660674642607</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 50х70 - "Селинто"</t>
+  </si>
+  <si>
+    <t>4660674642591</t>
+  </si>
+  <si>
+    <t>Наволочка микросатин 50х70 - "Бездна"</t>
+  </si>
+  <si>
+    <t>4660674642584</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 160 х 200 х 20 - М - 125 - Дневной Аромат</t>
+  </si>
+  <si>
+    <t>4660674642577</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - 60S 129 Темно-зеленый</t>
+  </si>
+  <si>
+    <t>4660674642560</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное - М - 135 - Кувертюр 1х1 Универсал</t>
+  </si>
+  <si>
+    <t>4660674642553</t>
+  </si>
+  <si>
+    <t>Пододеяльник варёный хлопок 150х200 - "Вишня" (меланж)</t>
+  </si>
+  <si>
+    <t>4660674642546</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 2 спальное на резинке 140х200х30 - М - 130 - Пудровый 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642539</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 220х240 - "Бонетто"</t>
+  </si>
+  <si>
+    <t>4660674642522</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 50х70 - "Бонетто"</t>
+  </si>
+  <si>
+    <t>4660674642515</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное с Евро простыней - "Фиолетовый Шёпот"</t>
+  </si>
+  <si>
+    <t>4660674642508</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 41-020 Серебряный</t>
+  </si>
+  <si>
+    <t>4660674642492</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 220 х 240 - М - 60S 41-020 Серебряный</t>
+  </si>
+  <si>
+    <t>4660674642485</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - 60S 41-020 Серебряный</t>
+  </si>
+  <si>
+    <t>4660674642478</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 300х300 - "Макена"</t>
+  </si>
+  <si>
+    <t>4660674642461</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 112х147 - "Принцесса"</t>
+  </si>
+  <si>
+    <t>4660674642454</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 260 х 260 - М - 60S 4247 Сирень</t>
+  </si>
+  <si>
+    <t>4660674642447</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 200х220 - "Розанна"</t>
+  </si>
+  <si>
+    <t>4660674642430</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин семейное на резинке 180х200х30 - М - 140 - Росток 1х1</t>
+  </si>
+  <si>
+    <t>4660674642423</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин Евро - 130 - "Изумрудный малахит" 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642416</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное - "ЭкоФлора" Универсал</t>
+  </si>
+  <si>
+    <t>4660674642409</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье сатин Браш 1,5 спальное на резинке 120х200х30 - "Блю Айс"</t>
+  </si>
+  <si>
+    <t>4660674642393</t>
+  </si>
+  <si>
+    <t>Пододеяльник Полисатин 240х260 - "Мелек"</t>
+  </si>
+  <si>
+    <t>4660674642386</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 2 спальное на резинке 160х200х30 - 130 - "Олива" 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642379</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 1,5 спальное на резинке 120х200х30 - М - Сливочно-кремовый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642362</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин Евро Макси на резинке 180х200х30 - "Страстный гранат" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642355</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин Евро на резинке 160х200х30 - "Воздушное касание" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642348</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 280х280 - "Розанна"</t>
+  </si>
+  <si>
+    <t>4660674642331</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 220х240 - "Хельми"</t>
+  </si>
+  <si>
+    <t>4660674642324</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 150х200 - "Эвергрин"</t>
+  </si>
+  <si>
+    <t>4660674642317</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 135 - Белая 1х1</t>
+  </si>
+  <si>
+    <t>4660674642300</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп сатина 150 х 200 - М - 140 - Белый 3х3</t>
+  </si>
+  <si>
+    <t>4660674642294</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 260х260 - "Инспайр"</t>
+  </si>
+  <si>
+    <t>4660674642287</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье варёный хлопок семейное на резинке 180х200х30 - "Стальная тень" (меланж) с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642270</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Евро на резинке 160х200х30 - "Деоника" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642263</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Евро на резинке 160х200х30 - "Цветы в Тумане" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642256</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 50 - М - 135 - Углерод 1х1</t>
+  </si>
+  <si>
+    <t>4660674642249</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 160х200х40 - "Эвергрин"</t>
+  </si>
+  <si>
+    <t>4660674642232</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 280х280 - "Розелина"</t>
+  </si>
+  <si>
+    <t>4660674642225</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 280х280 - "Сердечный Вихрь"</t>
+  </si>
+  <si>
+    <t>4660674642218</t>
+  </si>
+  <si>
+    <t>Простыня тенсель на резинке 200х220х30 - "Серебро Облаков"</t>
+  </si>
+  <si>
+    <t>4660674642201</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 240х260 - "Серебро Облаков"</t>
+  </si>
+  <si>
+    <t>4660674642195</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп Микрофибра семейное на резинке 160х200х30 - "Альбелла" 1х1</t>
+  </si>
+  <si>
+    <t>4660674642188</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 180 х 220 - М - Мазарин блу</t>
+  </si>
+  <si>
+    <t>4660674642171</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье варёный хлопок King Size семейное на резинке 200х200х30 - "Стальная тень" (меланж) с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642164</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье тенсель King Size семейное на резинке 200х200х30 - "Миндаль Страйп" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642157</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 1,5 спальное на резинке 120х200х30 - М - 120 - Серебристый металлик с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642140</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - Дзета Ориона</t>
+  </si>
+  <si>
+    <t>4660674642133</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 80х200х10 - "Линнея"</t>
+  </si>
+  <si>
+    <t>4660674642126</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 80х200х10 - "Зайга"</t>
+  </si>
+  <si>
+    <t>4660674642119</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 145х215 - "Альфредо"</t>
+  </si>
+  <si>
+    <t>4660674642102</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 1,5 спальное на резинке 140х200х30 - "Эвергрин" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642096</t>
+  </si>
+  <si>
+    <t>Простыня непромокаемая на резинке 120 х 200 х 40 - М - Мулетон Хлопок</t>
+  </si>
+  <si>
+    <t>4660674642089</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 260х260 - "Лунный Одуванчик"</t>
+  </si>
+  <si>
+    <t>4660674642072</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 200х220 - "Ягуар"</t>
+  </si>
+  <si>
+    <t>4660674642065</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 50х70 - "Ягуар"</t>
+  </si>
+  <si>
+    <t>4660674642058</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Евро макси на резинке 180х200х30 - М - 135 - Грей Нимбус</t>
+  </si>
+  <si>
+    <t>4660674642041</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 2 спальное на резинке 160х200х20 - "Эвергрин" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642034</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин на резинке 160х200х30 - 125 - "Персик" 1х1</t>
+  </si>
+  <si>
+    <t>4660674642027</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 140 - Миндаль 1х1</t>
+  </si>
+  <si>
+    <t>4660674642010</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 1,5 спальное - М - 142 ГОСТ - Оранжевый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674642003</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 40 х 40 - М - Дымчатый</t>
+  </si>
+  <si>
+    <t>4660674641990</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 40 х 40 - М - Каштановый</t>
+  </si>
+  <si>
+    <t>4660674641983</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 50х70 - "Орисса"</t>
+  </si>
+  <si>
+    <t>4660674641976</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 2 спальное на резинке 160х200х30 - "Бланманже" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674641969</t>
+  </si>
+  <si>
+    <t>Простыня твил-сатин 300 х 300 - "Хризоколла"</t>
   </si>
 </sst>
 </file>
@@ -17104,6 +17806,942 @@
         <v>2385</v>
       </c>
     </row>
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1196" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1197" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1198" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1199" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1200" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1201" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1202" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1203" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1204" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1205" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1206" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1207" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1208" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1209" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1210" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1211" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1212" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1213" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1214" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1215" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1216" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1217" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1218" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1219" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1220" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1221" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1222" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1223" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1224" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1225" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1226" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1227" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1228" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1229" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1230" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1231" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1232" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1233" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1234" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1235" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1236" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1237" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1238" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1239" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1240" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1241" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1242" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1243" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1244" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1245" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1246" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1247" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1248" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1249" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1250" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1251" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1252" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1253" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1254" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1255" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1256" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1257" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1258" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1259" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1260" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1261" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1262" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1263" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1264" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1265" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1266" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1267" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1268" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1269" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1270" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1271" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1272" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1273" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1274" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1275" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1276" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1277" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1278" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1279" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1280" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1281" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1282" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1283" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1284" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1285" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1286" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1287" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1288" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1289" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1290" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1291" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1292" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1293" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1294" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1295" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1296" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1297" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1298" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1299" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1300" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1301" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1302" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1303" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1304" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1305" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1306" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1307" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1308" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1309" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1310" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1311" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1312" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>2619</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2620" uniqueCount="2620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="2748">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -7874,6 +7874,390 @@
   </si>
   <si>
     <t>Простыня твил-сатин 300 х 300 - "Хризоколла"</t>
+  </si>
+  <si>
+    <t>4660674643741</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное на резинке 160х200х30 - "Морозный туман"</t>
+  </si>
+  <si>
+    <t>4660674643734</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное на резинке 160х200х30 - М - Морбидецца с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674643727</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 40 х 60 - М - 135 - Темно-синий 0,5х0,5</t>
+  </si>
+  <si>
+    <t>4660674643710</t>
+  </si>
+  <si>
+    <t>Наволочка из поплина 50 х 50 - М - Санто Стефано</t>
+  </si>
+  <si>
+    <t>4660674643703</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 150х200 - "Анхела"</t>
+  </si>
+  <si>
+    <t>4660674643697</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин 220х240 - 130 - "Лучезарный" 1х1</t>
+  </si>
+  <si>
+    <t>4660674643680</t>
+  </si>
+  <si>
+    <t>Пододеяльник из полисатина 220 х 240 - М - 80 - Югацу</t>
+  </si>
+  <si>
+    <t>4660674643673</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 180х220 - "Небосвод"</t>
+  </si>
+  <si>
+    <t>4660674643666</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 180х220 - "Пудинг"</t>
+  </si>
+  <si>
+    <t>4660674643659</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 240 х 260 - М - 323 Серый</t>
+  </si>
+  <si>
+    <t>4660674643642</t>
+  </si>
+  <si>
+    <t>Наволочка сатин Браш 60х60 - "Голубой топаз"</t>
+  </si>
+  <si>
+    <t>4660674643635</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 120х200х20 - М - Чёрная гавань</t>
+  </si>
+  <si>
+    <t>4660674643628</t>
+  </si>
+  <si>
+    <t>Пододеяльник из перкаля 200 х 200 - М - 110 - Веяние А+В</t>
+  </si>
+  <si>
+    <t>4660674643611</t>
+  </si>
+  <si>
+    <t>Наволочка из перкаля 70 х 70 - М - 110 - Веяние А+В</t>
+  </si>
+  <si>
+    <t>4660674643604</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс на резинке 160 х 200 х 40 - Голубой</t>
+  </si>
+  <si>
+    <t>4660674643598</t>
+  </si>
+  <si>
+    <t>Наволочка страйп-сатин 40х60 - 125 - "Индиго" 1х1</t>
+  </si>
+  <si>
+    <t>4660674643581</t>
+  </si>
+  <si>
+    <t>Простыня круглая из тенселя на резинке 210х210х40 - "Аметистовый Шёлк"</t>
+  </si>
+  <si>
+    <t>4660674643574</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 70 х 70 - М - 135 - Гелиос 1х1</t>
+  </si>
+  <si>
+    <t>4660674643567</t>
+  </si>
+  <si>
+    <t>Простыня тенсель на резинке 120х200х30 - "Тонкий Лист"</t>
+  </si>
+  <si>
+    <t>4660674643550</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель King Size на резинке 200х200х30 - М - 4216 Серебро с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674643543</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро Макси на резинке 180х200х30 - М - 60S Белый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674643536</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 80 х 200 х 10 - М - 142 ГОСТ - Изумруд</t>
+  </si>
+  <si>
+    <t>4660674643529</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 80 х 200 х 10 - М - 142 ГОСТ - Фуксин</t>
+  </si>
+  <si>
+    <t>4660674643512</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 70 х 70 - М - Перламутр</t>
+  </si>
+  <si>
+    <t>4660674643505</t>
+  </si>
+  <si>
+    <t>Простыня Тенсель на резинке 90х200х20 - "Марципан"</t>
+  </si>
+  <si>
+    <t>4660674643499</t>
+  </si>
+  <si>
+    <t>Наволочка Тенсель 70х70 - "Марципан"</t>
+  </si>
+  <si>
+    <t>4660674643482</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 300х300 - "Природный Абстракт"</t>
+  </si>
+  <si>
+    <t>4660674643475</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин на резинке 140х200х20 - "Фрезия" 1х1</t>
+  </si>
+  <si>
+    <t>4660674643468</t>
+  </si>
+  <si>
+    <t>Наволочка из перкаля 70 х 70 - М - 110 - Пепита бежевая</t>
+  </si>
+  <si>
+    <t>4660674643451</t>
+  </si>
+  <si>
+    <t>Простыня твил-сатин 220 х 240 - "Лебединое перо"</t>
+  </si>
+  <si>
+    <t>4660674643444</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 200х200х40 - М - 60S Белый</t>
+  </si>
+  <si>
+    <t>4660674643437</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 200х220 - "Шторм"</t>
+  </si>
+  <si>
+    <t>4660674643420</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 50 х 70 - "Бриллиантовые кружева"</t>
+  </si>
+  <si>
+    <t>4660674643413</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 180 х 200 х 40 - "Кленовая зелень"</t>
+  </si>
+  <si>
+    <t>4660674643406</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 220 х 240 - М - Санто Стефано</t>
+  </si>
+  <si>
+    <t>4660674643390</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин Евро - М - 135 - Форастеро 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674643383</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 175 х 215 - М - Меропа</t>
+  </si>
+  <si>
+    <t>4660674643376</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 200 х 220 - М - Небесный Пиксель А+В</t>
+  </si>
+  <si>
+    <t>4660674643369</t>
+  </si>
+  <si>
+    <t>Наволочка из поплина 40 х 60 - М - Берлинская лазурь</t>
+  </si>
+  <si>
+    <t>4660674643352</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 240 х 260 - М - Пыльная роза</t>
+  </si>
+  <si>
+    <t>4660674643345</t>
+  </si>
+  <si>
+    <t>Простыня поплин на резинке 160 х 200 х 20 - "Бриллиантовые кружева"</t>
+  </si>
+  <si>
+    <t>4660674643338</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 120х200х40 - М - Графит (меланж)</t>
+  </si>
+  <si>
+    <t>4660674643321</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 200 х 220 - "Крылатые сны"</t>
+  </si>
+  <si>
+    <t>4660674643314</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 200 - М - 60S 129 Темно-зеленый</t>
+  </si>
+  <si>
+    <t>4660674643307</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 240х260 - "Легкий роман"</t>
+  </si>
+  <si>
+    <t>4660674643291</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - Насыщенный розовый</t>
+  </si>
+  <si>
+    <t>4660674643284</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 2 спальное на резинке 160х200х20 - "Белава" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674643277</t>
+  </si>
+  <si>
+    <t>Пододеяльник твил-сатин 150 х 200 - "Котик в космосе"</t>
+  </si>
+  <si>
+    <t>4660674643260</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 145х215 - 130 - "Олива" 1х1</t>
+  </si>
+  <si>
+    <t>4660674643253</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 150 х 200 - М - 135 - Фирюз 1х1</t>
+  </si>
+  <si>
+    <t>4660674643246</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина-жаккарда 175 х 215 - М - Макадамия</t>
+  </si>
+  <si>
+    <t>4660674643239</t>
+  </si>
+  <si>
+    <t>Простыня из перкаля 240 х 260 - М - 125 - Радмила</t>
+  </si>
+  <si>
+    <t>4660674643222</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро Макси на резинке 180х200х30 - М - Ажур с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674643215</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 40 х 40 - М - 125 - Виолет Мореля</t>
+  </si>
+  <si>
+    <t>4660674643208</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 220 х 240 - М - 125 - Дом Периньон</t>
+  </si>
+  <si>
+    <t>4660674643192</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 50 х 70 - М - 142 - Рецепт любви</t>
+  </si>
+  <si>
+    <t>4660674643185</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 200х220х30 - М - Черный блеск</t>
+  </si>
+  <si>
+    <t>4660674643178</t>
+  </si>
+  <si>
+    <t>Простыня непромокаемая 180 х 220 - М - Мулетон Полиэстер</t>
+  </si>
+  <si>
+    <t>4660674643161</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 2 спальное на резинке 140х200х30 - "Легкий роман" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674643154</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро макси - "Ночная Симфония"</t>
+  </si>
+  <si>
+    <t>4660674643147</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин Евро на резинке 160х200х30 - "Белава" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674643130</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё перкаль семейное на резинке 160х200х30 - М - 110 - Белоснежный луч с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674643758</t>
+  </si>
+  <si>
+    <t>Пеленка непромокаемая мулетон 150 х 200 - М - Белая (100% полиэстер)</t>
+  </si>
+  <si>
+    <t>4660674643765</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро - М - 60S 4216 Серебро с наволочками 50х70</t>
   </si>
 </sst>
 </file>
@@ -8236,7 +8620,7 @@
   <dimension ref="B1:P11478"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A846" sqref="A846"/>
+      <selection activeCell="A1313" sqref="A1313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -18742,6 +19126,518 @@
         <v>2619</v>
       </c>
     </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1313" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1314" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1315" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1316" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1317" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1318" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1319" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1320" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1321" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1322" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1323" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1324" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1325" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1326" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1327" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1328" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1329" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1330" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1331" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1332" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1333" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1334" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1335" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1336" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1337" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1338" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1339" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1340" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1341" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1342" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1343" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1344" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1345" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1346" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1347" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1348" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1349" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1350" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1351" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1352" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1353" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1354" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1355" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1356" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1357" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1358" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1359" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1360" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1361" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1362" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1363" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1364" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1365" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1366" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1367" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1368" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1369" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1370" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1371" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1372" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1373" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1374" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1375" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1376" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>2747</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56AB988-C99D-46C6-9450-F2D37080A290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Краткий отчет" state="visible" r:id="rId4"/>
+    <sheet name="Краткий отчет" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="2748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="2798">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -8258,35 +8259,185 @@
   </si>
   <si>
     <t>КПБ Постельное бельё тенсель Евро - М - 60S 4216 Серебро с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674644014</t>
+  </si>
+  <si>
+    <t>Наволочка из поплина 50 х 70 - М - Небесный Пиксель А+В</t>
+  </si>
+  <si>
+    <t>4660674644007</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 1,5 спальное на резинке 140х200х30 - "Бланманже" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674643994</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин Евро макси - "Эвергрин" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674643987</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 1,5 спальное на резинке 120х200х30 - "Страстный гранат" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674643970</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 1,5 спальное на резинке 120х200х30 - "Небосвод" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674643963</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 180х200х40 - "Эвергрин"</t>
+  </si>
+  <si>
+    <t>4660674643956</t>
+  </si>
+  <si>
+    <t>Пододеяльник Микрофибра 200х200 - "Марисоль"</t>
+  </si>
+  <si>
+    <t>4660674643949</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 50х70 - М - Сапфировый</t>
+  </si>
+  <si>
+    <t>4660674643932</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин 220х240 - 125 - "Шампань" 1х1</t>
+  </si>
+  <si>
+    <t>4660674643925</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 1,5 спальное на резинке 90х200х30 - М - 142 - Сиреневые маки</t>
+  </si>
+  <si>
+    <t>4660674643918</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро на резинке 160х200х30 - М - Горчица</t>
+  </si>
+  <si>
+    <t>4660674643901</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье тенсель семейное - "Осенняя Слива" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674643895</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное на резинке 180х200х30 - "Бархатный Букет" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674643888</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное - "Туманная Ветвь"</t>
+  </si>
+  <si>
+    <t>4660674643871</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Микрофибра семейное на резинке 160х200х30 - "Эстрелья"</t>
+  </si>
+  <si>
+    <t>4660674643864</t>
+  </si>
+  <si>
+    <t>Наволочка твил-сатин 50 х 70 - "Алоха"</t>
+  </si>
+  <si>
+    <t>4660674643857</t>
+  </si>
+  <si>
+    <t>Простыня круглая страйп Микрофибра на резинке 200х200х30 - "Альбелла" 1х1</t>
+  </si>
+  <si>
+    <t>4660674643840</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - Брызги прибоя</t>
+  </si>
+  <si>
+    <t>4660674643833</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье тенсель 2 спальное с Евро простыней - "Ларион"</t>
+  </si>
+  <si>
+    <t>4660674643826</t>
+  </si>
+  <si>
+    <t>Простыня микросатин на резинке 200х220х30 - "Розанна"</t>
+  </si>
+  <si>
+    <t>4660674643819</t>
+  </si>
+  <si>
+    <t>Простыня из сатина-жаккарда 150 х 220 - М - Макадамия</t>
+  </si>
+  <si>
+    <t>4660674643802</t>
+  </si>
+  <si>
+    <t>Простыня сатин на резинке 120х200х30 - "Красная медь"</t>
+  </si>
+  <si>
+    <t>4660674643796</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 180х200х40 - "Бирюзовый Рельеф"</t>
+  </si>
+  <si>
+    <t>4660674643789</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 2 спальное на резинке 140х200х30 - "Бездна"</t>
+  </si>
+  <si>
+    <t>4660674643772</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 2 спальное на резинке 140х200х30 - "Страстный гранат"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -8312,10 +8463,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -8339,7 +8498,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8616,26 +8775,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P11478"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P11478"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A1313" sqref="A1313"/>
+    <sheetView tabSelected="1" topLeftCell="A1366" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1377" sqref="A1377:B1401"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="177" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8662,7 +8821,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8670,7 +8829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -8678,7 +8837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8686,7 +8845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -8694,7 +8853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -8702,7 +8861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -8710,7 +8869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -8718,7 +8877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -8726,7 +8885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -8734,7 +8893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -8742,7 +8901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -8750,7 +8909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -19638,13 +19797,213 @@
         <v>2747</v>
       </c>
     </row>
+    <row r="1377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1377" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1378" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1379" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1380" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1381" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1382" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1383" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1384" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1385" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1386" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1387" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1388" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1389" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1390" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1391" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1392" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1393" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1394" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1395" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1396" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1397" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1398" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1399" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1400" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1401" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>2797</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>
     <row r="4853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4853" s="7"/>
     </row>
-    <row r="4890" ht="26.25" customHeight="1" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="4890" spans="7:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4890" s="7"/>
     </row>
     <row r="7716" spans="2:2" x14ac:dyDescent="0.25">
@@ -19660,6 +20019,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56AB988-C99D-46C6-9450-F2D37080A290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Краткий отчет" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Краткий отчет" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="2798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="2902">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -8409,35 +8408,347 @@
   </si>
   <si>
     <t>КПБ Постельное белье микросатин 2 спальное на резинке 140х200х30 - "Страстный гранат"</t>
+  </si>
+  <si>
+    <t>4660674644472</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 2 спальное на резинке 140х200х30 - "Лазурный Мегаполис" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674644465</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 70 х 70 - М - 142 - Сиреневые маки</t>
+  </si>
+  <si>
+    <t>4660674644458</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное - М - 60S Белый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674644441</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 1,5 спальное на резинке 140х200х30 - М - Сливочно-кремовый</t>
+  </si>
+  <si>
+    <t>4660674644434</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 150 х 220 - М - 142 ГОСТ - Оранжевый</t>
+  </si>
+  <si>
+    <t>4660674644427</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - Горький шоколад</t>
+  </si>
+  <si>
+    <t>4660674644410</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин семейное на резинке 160х200х30 - "Зайга"</t>
+  </si>
+  <si>
+    <t>4660674644403</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 200х200х40 - "Олуфими"</t>
+  </si>
+  <si>
+    <t>4660674644397</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 4307 Сливочный Страйп 1х1</t>
+  </si>
+  <si>
+    <t>4660674644380</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 280 х 280 - М - 125 - Дымка 1х1</t>
+  </si>
+  <si>
+    <t>4660674644373</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 180х200х40 - "Аврела"</t>
+  </si>
+  <si>
+    <t>4660674644366</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 120х200х30 - "Бирюзовый Рельеф" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674644359</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 180х200х40 - М - 60S 129 Темно-зеленый</t>
+  </si>
+  <si>
+    <t>4660674644342</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 180 х 220 - М - 60S 4225 Зелёный лесной</t>
+  </si>
+  <si>
+    <t>4660674644335</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 180 х 200 х 40 - М - 125 - Капучино</t>
+  </si>
+  <si>
+    <t>4660674644328</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300 х 300 - М - 125 - Шампань 3х3</t>
+  </si>
+  <si>
+    <t>4660674644311</t>
+  </si>
+  <si>
+    <t>Пододеяльник твил-сатин 150 х 200 - "Лесная тень"</t>
+  </si>
+  <si>
+    <t>4660674644304</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Браш 1,5 спальное на резинке 140х200х30 - М - Кремовый бархат</t>
+  </si>
+  <si>
+    <t>4660674644298</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье тенсель 2 спальное с Евро простыней - "Карибская волна"</t>
+  </si>
+  <si>
+    <t>4660674644281</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин семейное - М - Прелат А+В с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674644274</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 300х300 - "Мелиссит"</t>
+  </si>
+  <si>
+    <t>4660674644267</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё перкаль 1,5 спальное на резинке 90х200х30 - М - 125 - Дождевая туча с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674644250</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное с Евро простыней - "Звёздный туман"</t>
+  </si>
+  <si>
+    <t>4660674644243</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 70 х 70 - М - 142 - Плата</t>
+  </si>
+  <si>
+    <t>4660674644236</t>
+  </si>
+  <si>
+    <t>Пододеяльник твил-сатин 220 х 240 - "Ламы"</t>
+  </si>
+  <si>
+    <t>4660674644229</t>
+  </si>
+  <si>
+    <t>Простыня тенсель 200х220 - "Чёрный Страйп"</t>
+  </si>
+  <si>
+    <t>4660674644212</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - 60S 22 Светло-розовый</t>
+  </si>
+  <si>
+    <t>4660674644205</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 2 спальное - "Корги-пати"</t>
+  </si>
+  <si>
+    <t>4660674644199</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп сатина 150х200 - 130 - "Изумрудный малахит" 1х1</t>
+  </si>
+  <si>
+    <t>4660674644182</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин 280х280 - "Дюмар" 1х1</t>
+  </si>
+  <si>
+    <t>4660674644175</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин 280х280 - "Калинте" 1х1</t>
+  </si>
+  <si>
+    <t>4660674644168</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - Черный блеск</t>
+  </si>
+  <si>
+    <t>4660674644151</t>
+  </si>
+  <si>
+    <t>Пододеяльник твил-сатин 150 х 200 - "Ламы"</t>
+  </si>
+  <si>
+    <t>4660674644144</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё перкаль Евро макси - М - 125 - Дождевая туча с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674644137</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 1,5 спальное - М - 120 - Голубая Латка</t>
+  </si>
+  <si>
+    <t>4660674644120</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 280х280 - "Линнея"</t>
+  </si>
+  <si>
+    <t>4660674644113</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 280х280 - "Глисса"</t>
+  </si>
+  <si>
+    <t>4660674644106</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 280х280 - "Глубь"</t>
+  </si>
+  <si>
+    <t>4660674644090</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 220х240 - "Легкий роман"</t>
+  </si>
+  <si>
+    <t>4660674644083</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 280х280 - "Эвергрин"</t>
+  </si>
+  <si>
+    <t>4660674644076</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 280х280 - "Легкий роман"</t>
+  </si>
+  <si>
+    <t>4660674644069</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 220х240 - "Страстный гранат"</t>
+  </si>
+  <si>
+    <t>4660674644052</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 150 х 200 - "Астролябия" А+В</t>
+  </si>
+  <si>
+    <t>4660674644045</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 1,5 спальное на резинке 120х200х30 - М - Сарсуэла с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674644038</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 50 х 70 - М - Чёрная гавань</t>
+  </si>
+  <si>
+    <t>4660674644021</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - Горчица</t>
+  </si>
+  <si>
+    <t>4660674644489</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 160х200х40 - "Лесная Мелодия"</t>
+  </si>
+  <si>
+    <t>4660674644526</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 180х200х30 - М - Королевский пурпур</t>
+  </si>
+  <si>
+    <t>4660674644519</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 200х220 - "Лериса"</t>
+  </si>
+  <si>
+    <t>4660674644502</t>
+  </si>
+  <si>
+    <t>Простыня из поплина 220 х 240 - М - В ассортименте</t>
+  </si>
+  <si>
+    <t>4660674644496</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 40х60 - "Ягуар"</t>
+  </si>
+  <si>
+    <t>4660674644533</t>
+  </si>
+  <si>
+    <t>Простыня из креп-жатки 180 х 220 - М - 80 - Теплые Пожелания</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -8463,18 +8774,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -8498,7 +8801,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8775,26 +9078,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11478"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P11478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1366" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1377" sqref="A1377:B1401"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A1377" sqref="A1377"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="177" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8821,7 +9124,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8829,7 +9132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -8837,7 +9140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8845,7 +9148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -8853,7 +9156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -8861,7 +9164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -8869,7 +9172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -8877,7 +9180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -8885,7 +9188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -8893,7 +9196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -8901,7 +9204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -8909,7 +9212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -19997,13 +20300,429 @@
         <v>2797</v>
       </c>
     </row>
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1402" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1403" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1404" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1405" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1406" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1407" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1408" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1409" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1410" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1411" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1412" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1413" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1414" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1415" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1416" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1417" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1418" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1419" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1420" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1421" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1422" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1423" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1424" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1425" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1426" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1427" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1428" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1429" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1430" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1431" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1432" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1433" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1434" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1435" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1436" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1437" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1438" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1439" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1440" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1441" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1442" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1443" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1444" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1445" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1446" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1447" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1448" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1449" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1450" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1451" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1452" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1453" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>2901</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>
     <row r="4853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4853" s="7"/>
     </row>
-    <row r="4890" spans="7:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4890" ht="26.25" customHeight="1" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G4890" s="7"/>
     </row>
     <row r="7716" spans="2:2" x14ac:dyDescent="0.25">
@@ -20019,6 +20738,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="2902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="2966">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -8720,6 +8720,198 @@
   </si>
   <si>
     <t>Простыня из креп-жатки 180 х 220 - М - 80 - Теплые Пожелания</t>
+  </si>
+  <si>
+    <t>4660674644854</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 60 х 60 - М - 120 - Воздушность А+В</t>
+  </si>
+  <si>
+    <t>4660674644847</t>
+  </si>
+  <si>
+    <t>Наволочка из перкаля 50 х 70 - М - 110 - Изысканность</t>
+  </si>
+  <si>
+    <t>4660674644830</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 160х200х30 - М - Черный блеск</t>
+  </si>
+  <si>
+    <t>4660674644823</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 2 спальное на резинке 140х200х30 - "Флафи"</t>
+  </si>
+  <si>
+    <t>4660674644816</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок 1,5 спальное на резинке 120х200х30 - М - Бертолеция с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674644809</t>
+  </si>
+  <si>
+    <t>Простыня из сатина-жаккарда на резинке 140 х 200 х 30 - М - Снежное королевство</t>
+  </si>
+  <si>
+    <t>4660674644793</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель King Size на резинке 200х200х30 - М - 60S 4225 Зелёный лесной с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674644786</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - Прохлада ментола</t>
+  </si>
+  <si>
+    <t>4660674644779</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 50 х 70 - М - ГОСТ 142 - Зверята на желтом</t>
+  </si>
+  <si>
+    <t>4660674644762</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 150 х 220 - М - 120 - Лунные Овечки на голубом</t>
+  </si>
+  <si>
+    <t>4660674644755</t>
+  </si>
+  <si>
+    <t>Наволочка из перкаля 50 х 70 - М - 110 - Лайнс</t>
+  </si>
+  <si>
+    <t>4660674644748</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 70 х 70 - "Золотой блеск"</t>
+  </si>
+  <si>
+    <t>4660674644731</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 150 х 220 - М - Белое облако</t>
+  </si>
+  <si>
+    <t>4660674644724</t>
+  </si>
+  <si>
+    <t>Простыня круглая из страйп сатина на резинке 200x200х30 - М - 130 - "Лавандула" 1х1</t>
+  </si>
+  <si>
+    <t>4660674644717</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 200 х 220 х 40 - М - 135 - Марриотт Белый 3х3</t>
+  </si>
+  <si>
+    <t>4660674644700</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 145 х 215 - М - Фазенда Лиара</t>
+  </si>
+  <si>
+    <t>4660674644694</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - 60S 4229 Коричневая</t>
+  </si>
+  <si>
+    <t>4660674644687</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 240 х 260 - М - Фазенда Лиара</t>
+  </si>
+  <si>
+    <t>4660674644670</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Евро макси - М - 140 - Белый Лучик</t>
+  </si>
+  <si>
+    <t>4660674644663</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 180х220 - "Угольная Паутинка"</t>
+  </si>
+  <si>
+    <t>4660674644656</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин семейное на резинке 160х200х30 - М - 80 - Югацу</t>
+  </si>
+  <si>
+    <t>4660674644649</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 160х200х30 - М - 60S 74 Оливковый</t>
+  </si>
+  <si>
+    <t>4660674644632</t>
+  </si>
+  <si>
+    <t>Простыня поплин на резинке 80 х 200 х 20 - "Вакита"</t>
+  </si>
+  <si>
+    <t>4660674644625</t>
+  </si>
+  <si>
+    <t>Наволочка из твил-сатина 70 х 70 - М - Индостан</t>
+  </si>
+  <si>
+    <t>4660674644618</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин семейное на резинке 180х200х30 - "Глубь" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674644601</t>
+  </si>
+  <si>
+    <t>Наволочка Тенсель 70х70 - "Нуга"</t>
+  </si>
+  <si>
+    <t>4660674644595</t>
+  </si>
+  <si>
+    <t>Наволочка сатин Браш 70 х 70 - М - Кремовый бархат</t>
+  </si>
+  <si>
+    <t>4660674644588</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 70 х 70 - М - 140 - Сияющая бирюза</t>
+  </si>
+  <si>
+    <t>4660674644571</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - 60S 4217 Бежевый</t>
+  </si>
+  <si>
+    <t>4660674644564</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 2 спальное с Евро простыней - "Мелори" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674644557</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё из бязи 2 спальное с Евро простыней - "Митсу" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674644540</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 200х220 - 125 - "Крем" 1х1</t>
   </si>
 </sst>
 </file>
@@ -20716,6 +20908,262 @@
         <v>2901</v>
       </c>
     </row>
+    <row r="1454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1454" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1455" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1456" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1457" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1458" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1459" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1460" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1461" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1462" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1463" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1464" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1465" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1466" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1467" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1468" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1469" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1470" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1471" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1472" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1473" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1474" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1475" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1476" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1477" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1478" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1479" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1480" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1481" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1482" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1483" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1484" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1485" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>2965</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DCFECC-92D5-4BE1-A88A-2FC2219BD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Краткий отчет" state="visible" r:id="rId4"/>
+    <sheet name="Краткий отчет" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="2966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="3003">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -8912,35 +8913,146 @@
   </si>
   <si>
     <t>Пододеяльник страйп-сатин 200х220 - 125 - "Крем" 1х1</t>
+  </si>
+  <si>
+    <t>4660674645011</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное - М - 140 - Росток 1х1 Универсал</t>
+  </si>
+  <si>
+    <t>4660674645004</t>
+  </si>
+  <si>
+    <t>Простыня круглая из страйп сатина на резинке 200 x 200 х 20 - М - 130 - Серый туман 1х1</t>
+  </si>
+  <si>
+    <t>4660674644991</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 220 х 240 - М - 120 - В ассортименте</t>
+  </si>
+  <si>
+    <t>4660674644984</t>
+  </si>
+  <si>
+    <t>КПБ Детское постельное бельё бязь 1,5 спальное - М - 120 - Колыбель на зеленом</t>
+  </si>
+  <si>
+    <t>4660674644977</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 220х240 - "Смоки"</t>
+  </si>
+  <si>
+    <t>4660674644960</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 50 - М - 130 - Мятный фреш 1х1</t>
+  </si>
+  <si>
+    <t>4660674644953</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин на резинке 160х200х40 - 125 - "Серебро" 1х1</t>
+  </si>
+  <si>
+    <t>4660674644946</t>
+  </si>
+  <si>
+    <t>Простыня тенсель на резинке 160х200х30 - М - Морской</t>
+  </si>
+  <si>
+    <t>4660674644939</t>
+  </si>
+  <si>
+    <t>Наволочка Жатка 70х70 - "Бирюзовый Рельеф"</t>
+  </si>
+  <si>
+    <t>4660674644922</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 200х200 - "Бирюзовый Рельеф"</t>
+  </si>
+  <si>
+    <t>4660674644915</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 160х200х20 - "Бирюзовый Рельеф"</t>
+  </si>
+  <si>
+    <t>4660674644908</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 50 х 70 - М - Серо-зелёный</t>
+  </si>
+  <si>
+    <t>4660674644892</t>
+  </si>
+  <si>
+    <t>Наволочка ранфорс 50х70 - "Фантасмагория"</t>
+  </si>
+  <si>
+    <t>4660674644885</t>
+  </si>
+  <si>
+    <t>Простыня круглая микросатин на резинке 200х200х20 - "Шторм"</t>
+  </si>
+  <si>
+    <t>4660674644878</t>
+  </si>
+  <si>
+    <t>Простыня круглая микросатин на резинке 200х200х20 - "Бездна"</t>
+  </si>
+  <si>
+    <t>4660674644861</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 200х200 - "Эдже"</t>
+  </si>
+  <si>
+    <t>4660674645035</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 70х70 - "Розовый Флёр"</t>
+  </si>
+  <si>
+    <t>4660674645028</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 200х200 - "Гриновей" 1х1</t>
+  </si>
+  <si>
+    <t>Дата создания</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -8966,10 +9078,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -8993,7 +9113,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9270,26 +9390,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P11478"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P11478"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A1377" sqref="A1377"/>
+    <sheetView tabSelected="1" topLeftCell="A1483" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1504" sqref="A1504:C1505"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="177" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9301,7 +9422,9 @@
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>3002</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -9316,7 +9439,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9324,7 +9447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -9332,7 +9455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -9340,7 +9463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -9348,7 +9471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -9356,7 +9479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -9364,7 +9487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -9372,7 +9495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -9380,7 +9503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -9388,7 +9511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -9396,7 +9519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -9404,7 +9527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -21164,13 +21287,157 @@
         <v>2965</v>
       </c>
     </row>
+    <row r="1486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1486" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1487" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1488" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1489" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1490" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1491" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1492" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1493" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1494" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1495" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1496" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1497" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1498" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1499" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1500" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1501" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1502" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1503" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>3001</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>
     <row r="4853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4853" s="7"/>
     </row>
-    <row r="4890" ht="26.25" customHeight="1" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="4890" spans="7:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4890" s="7"/>
     </row>
     <row r="7716" spans="2:2" x14ac:dyDescent="0.25">
@@ -21186,6 +21453,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F9E58B-BD64-4A75-A497-C0D58805AED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Краткий отчет" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Краткий отчет" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="3092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="3227">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -9291,35 +9290,440 @@
   </si>
   <si>
     <t>КПБ Постельное бельё страйп-сатин 2 спальное с Евро простыней - М - 135 - Айсфогель 1х1</t>
+  </si>
+  <si>
+    <t>4660674646148</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 220 х 240 - М - 130 - Белый</t>
+  </si>
+  <si>
+    <t>09-02-2026</t>
+  </si>
+  <si>
+    <t>4660674646131</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 50 х 50 - М - 142 ГОСТ - Бирюза</t>
+  </si>
+  <si>
+    <t>4660674646124</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 300х300 - "Замороженный Перец"</t>
+  </si>
+  <si>
+    <t>4660674646117</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 150х200 - "Гриновей" 1х1</t>
+  </si>
+  <si>
+    <t>4660674646100</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 120 х 200 х 20 - М - 142 ГОСТ - Серый</t>
+  </si>
+  <si>
+    <t>4660674646094</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное на резинке 140х200х30 - М - Горчица с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674646087</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное - М - 135 - Цитрус 3х3 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674646070</t>
+  </si>
+  <si>
+    <t>Наволочка из перкали 50 х 70 - Р - М - Туманное утро роз.</t>
+  </si>
+  <si>
+    <t>4660674646063</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 50х50 - "Мелиссит"</t>
+  </si>
+  <si>
+    <t>4660674646056</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 180х200х30 - "Элефас"</t>
+  </si>
+  <si>
+    <t>4660674646049</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 145х215 - "Элефас"</t>
+  </si>
+  <si>
+    <t>4660674646032</t>
+  </si>
+  <si>
+    <t>Простыня микросатин на резинке 200х220х30 - "Бежевый шлейф"</t>
+  </si>
+  <si>
+    <t>4660674646025</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс на резинке 200х220х30 - "Ванильный раф"</t>
+  </si>
+  <si>
+    <t>4660674646018</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин на резинке 200х200х30 - 125 - "Олива" 1х1</t>
+  </si>
+  <si>
+    <t>4660674646001</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин на резинке 200х200х20 - 125 - "Миндаль" 1х1</t>
+  </si>
+  <si>
+    <t>4660674645998</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 200 х 220 х 40 - М - 135 - Дионис 1х1</t>
+  </si>
+  <si>
+    <t>4660674645981</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 150х200 - "Бонетто"</t>
+  </si>
+  <si>
+    <t>4660674645974</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное с Евро простыней - "Бирюзовый Рельеф"</t>
+  </si>
+  <si>
+    <t>4660674645967</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 2 спальное с Евро простыней - "Вакита"</t>
+  </si>
+  <si>
+    <t>4660674645950</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс 180х220 - "Кремневый серый"</t>
+  </si>
+  <si>
+    <t>4660674645943</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное на резинке 160х200х30 - М - 60S 74 Оливковый</t>
+  </si>
+  <si>
+    <t>4660674645936</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное на резинке 180х200х30 - "Цветочный Шёпот" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674645929</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 1,5 спальное - М - Зимняя сказка Универсал с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674645912</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 1,5 спальное - М - 125 - Вибрация с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674645905</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 175х215 - "Ритва"</t>
+  </si>
+  <si>
+    <t>4660674645899</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 160х200х20 - "Ромашковая Нежность"</t>
+  </si>
+  <si>
+    <t>4660674645882</t>
+  </si>
+  <si>
+    <t>Простыня круглая полисатин на резинке 200х200х30 - "Белава"</t>
+  </si>
+  <si>
+    <t>4660674645875</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 150х200 - "Мяурель"</t>
+  </si>
+  <si>
+    <t>4660674645868</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Евро - "Небесный глянцевая" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674645851</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 200 - М - Голубой хрусталь</t>
+  </si>
+  <si>
+    <t>4660674645844</t>
+  </si>
+  <si>
+    <t>Простыня из поплина 220 х 240 - М - Сливочно-кремовый</t>
+  </si>
+  <si>
+    <t>4660674645837</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 200х200 - "Лазурный Мегаполис"</t>
+  </si>
+  <si>
+    <t>4660674645820</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 90х200х30 - М - Молочный</t>
+  </si>
+  <si>
+    <t>4660674645813</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё твил-сатин Евро - "Ламы" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674645806</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 300х300 - "Глисса"</t>
+  </si>
+  <si>
+    <t>4660674645790</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 300х300 - "Туманная Аура"</t>
+  </si>
+  <si>
+    <t>4660674645783</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное на резинке 120х200х30 - "Флорес" 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674645776</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - Гималайские маки</t>
+  </si>
+  <si>
+    <t>4660674645769</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 200 - М - Горький шоколад</t>
+  </si>
+  <si>
+    <t>4660674645752</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 1,5 спальное - "Розовый Сад" Универсал</t>
+  </si>
+  <si>
+    <t>4660674645745</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 200 х 220 - "Экзотический"</t>
+  </si>
+  <si>
+    <t>4660674645738</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 2 спальное - М - 120 - Воздушность А+В с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674645721</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 1,5 спальное на резинке 90х200х30 - "Туманная Аура" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674645714</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 150х200 - "Юнилайт"</t>
+  </si>
+  <si>
+    <t>4660674645707</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 150х200 - "Цветочная Графика"</t>
+  </si>
+  <si>
+    <t>4660674645691</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 150х200 - "Белый Этюд"</t>
+  </si>
+  <si>
+    <t>4660674645684</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 220х240 - "Элефас"</t>
+  </si>
+  <si>
+    <t>4660674645677</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное на резинке 140х200х30 - М - Серая умбра с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674645660</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 112 х 147 - М - 142 ГОСТ - Калейдоскоп Бабочек</t>
+  </si>
+  <si>
+    <t>4660674645653</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье тенсель 2 спальное на резинке 140х200х30 - "Осенняя Слива" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674645646</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье тенсель Евро Макси - "Серебро Облаков"</t>
+  </si>
+  <si>
+    <t>4660674645639</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - Пыльная роза</t>
+  </si>
+  <si>
+    <t>4660674645622</t>
+  </si>
+  <si>
+    <t>Наволочка Тенсель 40х60 - "Нуга"</t>
+  </si>
+  <si>
+    <t>4660674645615</t>
+  </si>
+  <si>
+    <t>Наволочка Тенсель 50х70 - "Латунь"</t>
+  </si>
+  <si>
+    <t>4660674645608</t>
+  </si>
+  <si>
+    <t>Простыня Тенсель 220х240 - "Нуга"</t>
+  </si>
+  <si>
+    <t>4660674645592</t>
+  </si>
+  <si>
+    <t>Пододеяльник Тенсель 240х260 - "Латунь"</t>
+  </si>
+  <si>
+    <t>4660674645585</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - 125 - Тёплый песок</t>
+  </si>
+  <si>
+    <t>4660674645578</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 240 х 260 - М - 125 - Тёплый песок</t>
+  </si>
+  <si>
+    <t>4660674645561</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 240 х 260 - М - 125 - Тёплый песок</t>
+  </si>
+  <si>
+    <t>4660674645554</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин семейное на резинке 160х200х30 - "Страстный гранат"</t>
+  </si>
+  <si>
+    <t>4660674645547</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 40 х 60 - "Ледяная Мята"</t>
+  </si>
+  <si>
+    <t>4660674645530</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 175 х 215 - "Ледяная Мята"</t>
+  </si>
+  <si>
+    <t>4660674645523</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное на резинке 90х200х30 - М - Петроль с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674645516</t>
+  </si>
+  <si>
+    <t>Простыня бязь на резинке 80х200х10 - М - "История сов"</t>
+  </si>
+  <si>
+    <t>4660674645509</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин Евро Макси на резинке 180х200х30 - "Страстный гранат"</t>
+  </si>
+  <si>
+    <t>4660674645493</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное на резинке 140х200х30 - "Звёздный туман" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674645486</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 200х200 - "Песочная роза"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -9345,18 +9749,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -9380,7 +9776,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9657,27 +10053,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11478"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P11478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1521" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B1547"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="177" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9706,7 +10102,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -9714,7 +10110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -9722,7 +10118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -9730,7 +10126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -9738,7 +10134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -9746,7 +10142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -9754,7 +10150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -9762,7 +10158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -9770,7 +10166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -9778,7 +10174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -9786,7 +10182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -9794,7 +10190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -21578,7 +21974,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="1489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1489" t="s">
         <v>2973</v>
       </c>
@@ -21586,7 +21982,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="1490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1490" t="s">
         <v>2975</v>
       </c>
@@ -21594,7 +21990,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="1491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1491" t="s">
         <v>2977</v>
       </c>
@@ -21602,7 +21998,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="1492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1492" t="s">
         <v>2979</v>
       </c>
@@ -21610,7 +22006,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="1493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1493" t="s">
         <v>2981</v>
       </c>
@@ -21618,7 +22014,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="1494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1494" t="s">
         <v>2983</v>
       </c>
@@ -21626,7 +22022,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="1495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1495" t="s">
         <v>2985</v>
       </c>
@@ -21634,7 +22030,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="1496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1496" t="s">
         <v>2987</v>
       </c>
@@ -21642,7 +22038,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="1497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1497" t="s">
         <v>2989</v>
       </c>
@@ -21650,7 +22046,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="1498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1498" t="s">
         <v>2991</v>
       </c>
@@ -21658,7 +22054,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="1499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1499" t="s">
         <v>2993</v>
       </c>
@@ -21666,7 +22062,7 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="1500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1500" t="s">
         <v>2995</v>
       </c>
@@ -21674,7 +22070,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="1501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1501" t="s">
         <v>2997</v>
       </c>
@@ -21682,7 +22078,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="1502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1502" t="s">
         <v>2999</v>
       </c>
@@ -21690,7 +22086,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="1503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1503" t="s">
         <v>3001</v>
       </c>
@@ -22182,13 +22578,750 @@
         <v>3005</v>
       </c>
     </row>
+    <row r="1548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1548" t="s">
+        <v>3092</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1549" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1550" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1551" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1552" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1553" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1554" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>3106</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1555" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>3108</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1556" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1557" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>3112</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1558" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1559" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>3116</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1560" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>3118</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1561" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1562" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>3122</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1563" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>3124</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1564" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1565" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1566" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1567" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1568" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>3134</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1569" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1570" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1571" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1572" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1573" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1574" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1575" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1576" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>3150</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1577" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1578" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>3154</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1579" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>3156</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1580" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1581" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1582" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1583" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1584" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1585" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1586" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1587" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>3172</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1588" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>3174</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1589" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1590" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1591" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>3180</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1592" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1593" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>3184</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1594" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1595" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>3188</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1596" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1597" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>3192</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1598" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1599" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1600" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1601" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1602" t="s">
+        <v>3201</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1603" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1604" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1605" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1606" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1607" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1608" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1609" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1610" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>3218</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1611" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1612" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>3222</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1613" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1614" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>3094</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>
     <row r="4853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4853" s="7"/>
     </row>
-    <row r="4890" spans="7:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4890" ht="26.25" customHeight="1" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G4890" s="7"/>
     </row>
     <row r="7716" spans="2:2" x14ac:dyDescent="0.25">
@@ -22204,6 +23337,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BE1535-92CE-486C-9F05-8E110E5CD568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Краткий отчет" state="visible" r:id="rId4"/>
+    <sheet name="Краткий отчет" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="3227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="3245">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -9695,35 +9696,89 @@
   </si>
   <si>
     <t>Пододеяльник тенсель 200х200 - "Песочная роза"</t>
+  </si>
+  <si>
+    <t>4660674646230</t>
+  </si>
+  <si>
+    <t>Простыня из перкаля 200 х 220 - М - 110 - Озеро Цветов</t>
+  </si>
+  <si>
+    <t>4660674646223</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Евро на резинке 160х200х30 - "Флорал"</t>
+  </si>
+  <si>
+    <t>4660674646216</t>
+  </si>
+  <si>
+    <t>Простыня круглая из сатина на резинке 200 х 200 х 40 - М - 120 - Урубамба</t>
+  </si>
+  <si>
+    <t>4660674646209</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 200 х 220 - М - 140 - Мускусная дыня 1х1</t>
+  </si>
+  <si>
+    <t>4660674646193</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро Макси - "Белый Страйп"</t>
+  </si>
+  <si>
+    <t>4660674646186</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин 260х260 - "Элиот" 1х1</t>
+  </si>
+  <si>
+    <t>4660674646179</t>
+  </si>
+  <si>
+    <t>Наволочка из поплина 40 х 40 - М - Гуава</t>
+  </si>
+  <si>
+    <t>4660674646162</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё твил-сатин семейное на резинке 160х200х30 - М - Индостан с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674646155</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё твил-сатин Евро макси - "Лебединое перо" с наволочками 50х70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -9749,10 +9804,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -9776,7 +9839,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10053,27 +10116,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P11478"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P11478"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A1611" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1548" sqref="A1548"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="177" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -10102,7 +10165,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10110,7 +10173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -10118,7 +10181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -10126,7 +10189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -10134,7 +10197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -10142,7 +10205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -10150,7 +10213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -10158,7 +10221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -10166,7 +10229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -10174,7 +10237,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -10182,7 +10245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -10190,7 +10253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -21974,7 +22037,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="1489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1489" t="s">
         <v>2973</v>
       </c>
@@ -21982,7 +22045,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="1490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1490" t="s">
         <v>2975</v>
       </c>
@@ -21990,7 +22053,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="1491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1491" t="s">
         <v>2977</v>
       </c>
@@ -21998,7 +22061,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="1492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1492" t="s">
         <v>2979</v>
       </c>
@@ -22006,7 +22069,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="1493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1493" t="s">
         <v>2981</v>
       </c>
@@ -22014,7 +22077,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="1494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1494" t="s">
         <v>2983</v>
       </c>
@@ -22022,7 +22085,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="1495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1495" t="s">
         <v>2985</v>
       </c>
@@ -22030,7 +22093,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="1496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1496" t="s">
         <v>2987</v>
       </c>
@@ -22038,7 +22101,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="1497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1497" t="s">
         <v>2989</v>
       </c>
@@ -22046,7 +22109,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="1498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1498" t="s">
         <v>2991</v>
       </c>
@@ -22054,7 +22117,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="1499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1499" t="s">
         <v>2993</v>
       </c>
@@ -22062,7 +22125,7 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="1500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1500" t="s">
         <v>2995</v>
       </c>
@@ -22070,7 +22133,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="1501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1501" t="s">
         <v>2997</v>
       </c>
@@ -22078,7 +22141,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="1502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1502" t="s">
         <v>2999</v>
       </c>
@@ -22086,7 +22149,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="1503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1503" t="s">
         <v>3001</v>
       </c>
@@ -23315,13 +23378,112 @@
         <v>3094</v>
       </c>
     </row>
+    <row r="1615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1615" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>3228</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1616" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1617" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1618" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1619" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1620" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1621" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>3240</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1622" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>3242</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1623" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>3094</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>
     <row r="4853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4853" s="7"/>
     </row>
-    <row r="4890" ht="26.25" customHeight="1" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="4890" spans="7:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4890" s="7"/>
     </row>
     <row r="7716" spans="2:2" x14ac:dyDescent="0.25">
@@ -23337,6 +23499,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BE1535-92CE-486C-9F05-8E110E5CD568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Краткий отчет" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Краткий отчет" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="3245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3408" uniqueCount="3276">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -9750,35 +9749,128 @@
   </si>
   <si>
     <t>КПБ Постельное бельё твил-сатин Евро макси - "Лебединое перо" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674646384</t>
+  </si>
+  <si>
+    <t>Простыня круглая из сатина на резинке 230 х 230 х 30 - М - 120 - Морион</t>
+  </si>
+  <si>
+    <t>10-02-2026</t>
+  </si>
+  <si>
+    <t>4660674646377</t>
+  </si>
+  <si>
+    <t>Пододеяльник из перкаля 220 х 240 - М - 110 - Лайнс</t>
+  </si>
+  <si>
+    <t>4660674646360</t>
+  </si>
+  <si>
+    <t>Пододеяльник из перкаля 220 х 240 - М - 110 - Каори на зеленом</t>
+  </si>
+  <si>
+    <t>4660674646353</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 175 х 215 - М - 125 - Тапиока</t>
+  </si>
+  <si>
+    <t>4660674646346</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 90 х 200 х 20 - М - 142 ГОСТ - Оранжевый</t>
+  </si>
+  <si>
+    <t>4660674646339</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 120х200х20 - "Глубь"</t>
+  </si>
+  <si>
+    <t>4660674646322</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 50 х 50 - М - 233 Ментол</t>
+  </si>
+  <si>
+    <t>4660674646315</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 120х200х20 - "Розелина"</t>
+  </si>
+  <si>
+    <t>4660674646308</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 200 х 200 х 20 - М - 140 - Сирень 1х1</t>
+  </si>
+  <si>
+    <t>4660674646292</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 220х240 - "Бежевый шлейф"</t>
+  </si>
+  <si>
+    <t>4660674646285</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 150 х 220 - М - Льняной</t>
+  </si>
+  <si>
+    <t>4660674646278</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 300х300 - "Глубь"</t>
+  </si>
+  <si>
+    <t>4660674646261</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 220 х 240 - М - Серая умбра</t>
+  </si>
+  <si>
+    <t>4660674646254</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 200х200х30 - М - Королевский пурпур</t>
+  </si>
+  <si>
+    <t>4660674646247</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 220 - М - Королевский пурпур</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -9804,18 +9896,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -9839,7 +9923,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10116,27 +10200,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11478"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P11478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1611" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A1548" sqref="A1548"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="177" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -10165,7 +10249,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10173,7 +10257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -10181,7 +10265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -10189,7 +10273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -10197,7 +10281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -10205,7 +10289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -10213,7 +10297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -10221,7 +10305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -10229,7 +10313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -10237,7 +10321,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -10245,7 +10329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -10253,7 +10337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -22037,7 +22121,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="1489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1489" t="s">
         <v>2973</v>
       </c>
@@ -22045,7 +22129,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="1490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1490" t="s">
         <v>2975</v>
       </c>
@@ -22053,7 +22137,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="1491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1491" t="s">
         <v>2977</v>
       </c>
@@ -22061,7 +22145,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="1492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1492" t="s">
         <v>2979</v>
       </c>
@@ -22069,7 +22153,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="1493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1493" t="s">
         <v>2981</v>
       </c>
@@ -22077,7 +22161,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="1494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1494" t="s">
         <v>2983</v>
       </c>
@@ -22085,7 +22169,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="1495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1495" t="s">
         <v>2985</v>
       </c>
@@ -22093,7 +22177,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="1496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1496" t="s">
         <v>2987</v>
       </c>
@@ -22101,7 +22185,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="1497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1497" t="s">
         <v>2989</v>
       </c>
@@ -22109,7 +22193,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="1498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1498" t="s">
         <v>2991</v>
       </c>
@@ -22117,7 +22201,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="1499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1499" t="s">
         <v>2993</v>
       </c>
@@ -22125,7 +22209,7 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="1500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1500" t="s">
         <v>2995</v>
       </c>
@@ -22133,7 +22217,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="1501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1501" t="s">
         <v>2997</v>
       </c>
@@ -22141,7 +22225,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="1502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1502" t="s">
         <v>2999</v>
       </c>
@@ -22149,7 +22233,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="1503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1503" t="s">
         <v>3001</v>
       </c>
@@ -23477,13 +23561,178 @@
         <v>3094</v>
       </c>
     </row>
+    <row r="1624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1624" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>3246</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1625" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>3249</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1626" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1627" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1628" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>3255</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1629" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1630" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>3259</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1631" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1632" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1633" t="s">
+        <v>3264</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1634" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>3267</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1635" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1636" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>3271</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1637" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1638" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>3275</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>3247</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>
     <row r="4853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4853" s="7"/>
     </row>
-    <row r="4890" spans="7:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4890" ht="26.25" customHeight="1" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G4890" s="7"/>
     </row>
     <row r="7716" spans="2:2" x14ac:dyDescent="0.25">
@@ -23499,6 +23748,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3408" uniqueCount="3276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3441" uniqueCount="3298">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -9842,6 +9842,72 @@
   </si>
   <si>
     <t>Пододеяльник из тенселя 200 х 220 - М - Королевский пурпур</t>
+  </si>
+  <si>
+    <t>4660674646476</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 280 х 280 - М - 125 - Римская спаржа</t>
+  </si>
+  <si>
+    <t>4660674646469</t>
+  </si>
+  <si>
+    <t>Простыня сатин Браш 280 х 280 - М - Лайлак</t>
+  </si>
+  <si>
+    <t>4660674646452</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 2 спальное - "Экзотический" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674646445</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 50 х 70 - "Корги-пати"</t>
+  </si>
+  <si>
+    <t>4660674646438</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 175х215 - "Цветочная Графика"</t>
+  </si>
+  <si>
+    <t>4660674646421</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 2 спальное - "Золотое солнце" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674646414</t>
+  </si>
+  <si>
+    <t>Наволочка твил-сатин 50 х 70 - "Хризоколла"</t>
+  </si>
+  <si>
+    <t>4660674646407</t>
+  </si>
+  <si>
+    <t>Простыня твил-сатин на резинке 180х200х40 - "Хризоколла"</t>
+  </si>
+  <si>
+    <t>4660674646391</t>
+  </si>
+  <si>
+    <t>Наволочка твил-сатин 70 х 70 - "Хризоколла"</t>
+  </si>
+  <si>
+    <t>4660674646483</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 50х70 - "Глубь"</t>
+  </si>
+  <si>
+    <t>4660674646490</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 200х220 - "Макена"</t>
   </si>
 </sst>
 </file>
@@ -10204,7 +10270,7 @@
   <dimension ref="B1:P11478"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A1548" sqref="A1548"/>
+      <selection activeCell="A1648" sqref="A1648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -23726,6 +23792,127 @@
         <v>3247</v>
       </c>
     </row>
+    <row r="1639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1639" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1640" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>3279</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1641" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1642" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>3283</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1643" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>3285</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1644" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1645" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>3289</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1646" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1647" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1648" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1649" t="s">
+        <v>3296</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>3247</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3441" uniqueCount="3298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="3365">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -9908,6 +9908,207 @@
   </si>
   <si>
     <t>Пододеяльник Жатка 200х220 - "Макена"</t>
+  </si>
+  <si>
+    <t>4660674646575</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 200 х 220 - М - Черный матовый</t>
+  </si>
+  <si>
+    <t>11-02-2026</t>
+  </si>
+  <si>
+    <t>4660674646568</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 40х60 - "Осенняя Слива"</t>
+  </si>
+  <si>
+    <t>4660674646551</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 2 спальное с Евро простыней - "Бездна" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674646544</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 40х60 - "Сирента"</t>
+  </si>
+  <si>
+    <t>4660674646537</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 150х200 - "Звёздный Вальс"</t>
+  </si>
+  <si>
+    <t>4660674646520</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 60х60 - "Белава"</t>
+  </si>
+  <si>
+    <t>4660674646513</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё твил-сатин 1,5 спальное на резинке 120х200х30 - М - Сладкий сон (А+В) с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674646506</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50 х 70 - М - Морской</t>
+  </si>
+  <si>
+    <t>4660674646827</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 260х260 - "Аврела"</t>
+  </si>
+  <si>
+    <t>4660674646810</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 150 х 200 - М - Эгрет А+В</t>
+  </si>
+  <si>
+    <t>4660674646803</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 40 - М - Маренго</t>
+  </si>
+  <si>
+    <t>4660674646797</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 200х200х30 - "Глубь"</t>
+  </si>
+  <si>
+    <t>4660674646780</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 300х300 - "Белый Этюд"</t>
+  </si>
+  <si>
+    <t>4660674646773</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 50х70 - "Лериса"</t>
+  </si>
+  <si>
+    <t>4660674646766</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 150х200 - "Лериса"</t>
+  </si>
+  <si>
+    <t>4660674646759</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 150х200 - "Сирента"</t>
+  </si>
+  <si>
+    <t>4660674646742</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 50х70 - "Сирента"</t>
+  </si>
+  <si>
+    <t>4660674646735</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 200 х 200 - М - 135 - Пудра глянцевая</t>
+  </si>
+  <si>
+    <t>4660674646728</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина-жаккарда 150 х 200 - М - Флорибунда</t>
+  </si>
+  <si>
+    <t>4660674646711</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 145х215 - "Инспайр"</t>
+  </si>
+  <si>
+    <t>4660674646704</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 2 спальное с Евро простыней - "Гридель" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674646698</t>
+  </si>
+  <si>
+    <t>Пододеяльник из твил сатина 145 х 215 - М - Индостан</t>
+  </si>
+  <si>
+    <t>4660674646681</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 280х280 - "Аврела"</t>
+  </si>
+  <si>
+    <t>4660674646674</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 280 х 280 - М - Фазенда Лиара</t>
+  </si>
+  <si>
+    <t>4660674646667</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 150х200 - "Зелёный Страйп"</t>
+  </si>
+  <si>
+    <t>4660674646650</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - 60S 74 Оливковый</t>
+  </si>
+  <si>
+    <t>4660674646643</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 60х60 - "Бархатный Букет"</t>
+  </si>
+  <si>
+    <t>4660674646636</t>
+  </si>
+  <si>
+    <t>Простыня сатин Браш на резинке 120х200х20 - "Блю Айс"</t>
+  </si>
+  <si>
+    <t>4660674646629</t>
+  </si>
+  <si>
+    <t>Наволочка сатин Браш 50х70 - "Блю Айс"</t>
+  </si>
+  <si>
+    <t>4660674646612</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 2 спальное на резинке 160х200х30 - М - 135 - Мокрый асфальт 1х1</t>
+  </si>
+  <si>
+    <t>4660674646605</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё креп-жатка 1,5 спальное на резинке 120х200х30 - М - 80 - Теплые Пожелания с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674646599</t>
+  </si>
+  <si>
+    <t>Наволочка из перкаля 70 х 70 - М - 110 - Каори на зеленом</t>
+  </si>
+  <si>
+    <t>4660674646582</t>
+  </si>
+  <si>
+    <t>Простыня из перкаля 300 х 300 - М - 110 - Каори на зеленом</t>
   </si>
 </sst>
 </file>
@@ -23913,6 +24114,369 @@
         <v>3247</v>
       </c>
     </row>
+    <row r="1650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1650" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>3299</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1651" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1652" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1653" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1654" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>3308</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1655" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>3310</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1656" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>3312</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1657" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>3314</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1658" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>3316</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1659" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>3318</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1660" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>3320</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1661" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>3322</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1662" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>3324</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1663" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>3326</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1664" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1665" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>3330</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1666" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1667" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>3334</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1668" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1669" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>3338</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1670" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>3340</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1671" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>3342</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1672" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>3344</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1673" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C1673" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1674" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>3348</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1675" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>3350</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1676" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>3352</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1677" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B1677" t="s">
+        <v>3354</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1678" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1679" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1680" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>3360</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1681" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>3362</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1682" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>3364</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>3300</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="3365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="3424">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -10109,6 +10109,183 @@
   </si>
   <si>
     <t>Простыня из перкаля 300 х 300 - М - 110 - Каори на зеленом</t>
+  </si>
+  <si>
+    <t>4660674647114</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 120х200х30 - "Угольная Паутинка"</t>
+  </si>
+  <si>
+    <t>12-02-2026</t>
+  </si>
+  <si>
+    <t>4660674647107</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 200 х 220 х 30 - М - 125 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>4660674647091</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 220 - М - Светлая орхидея</t>
+  </si>
+  <si>
+    <t>4660674647084</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное - М - 140 - Миндаль 1х1 Универсал</t>
+  </si>
+  <si>
+    <t>4660674647077</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 180х200х20 - М - Каштановый</t>
+  </si>
+  <si>
+    <t>4660674647060</t>
+  </si>
+  <si>
+    <t>Пододеяльник сатин 200х220 - "Красная медь"</t>
+  </si>
+  <si>
+    <t>4660674647053</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Браш 2 спальное на резинке 160х200х30 - М - Кремовый бархат</t>
+  </si>
+  <si>
+    <t>4660674647046</t>
+  </si>
+  <si>
+    <t>Простыня Микрофибра на резинке 200х200х40 - "Петкана"</t>
+  </si>
+  <si>
+    <t>4660674647039</t>
+  </si>
+  <si>
+    <t>Простыня твил-сатин на резинке 160х200х20 - "Лесная тень"</t>
+  </si>
+  <si>
+    <t>4660674647022</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 135 - Цитрус 3х3</t>
+  </si>
+  <si>
+    <t>4660674647015</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 1,5 спальное - "Серебро Лондона"</t>
+  </si>
+  <si>
+    <t>4660674647008</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 160х200х20 - "Эвергрин"</t>
+  </si>
+  <si>
+    <t>4660674646995</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 2 спальное с Евро простыней - М - 140 - Белый Лучик с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674646988</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 2 спальное с Евро простыней - М - 125 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>4660674646971</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 220х240 - "Анхела"</t>
+  </si>
+  <si>
+    <t>4660674646964</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 280х280 - "Серебро Лондона"</t>
+  </si>
+  <si>
+    <t>4660674646957</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 120х200х20 - "Альфредо"</t>
+  </si>
+  <si>
+    <t>4660674646940</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 175х215 - "Альфредо"</t>
+  </si>
+  <si>
+    <t>4660674646933</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 140х200х40 - М - 60S 4323 Бежево-розовый</t>
+  </si>
+  <si>
+    <t>4660674646926</t>
+  </si>
+  <si>
+    <t>Наволочка твил-сатин 50 х 50 - "Лямур"</t>
+  </si>
+  <si>
+    <t>4660674646919</t>
+  </si>
+  <si>
+    <t>Пододеяльник твил-сатин 200 х 200 - "Лесная тень"</t>
+  </si>
+  <si>
+    <t>4660674646902</t>
+  </si>
+  <si>
+    <t>Наволочка сатин Браш 50 х 70 - М - Кремовый бархат</t>
+  </si>
+  <si>
+    <t>4660674646896</t>
+  </si>
+  <si>
+    <t>Простыня круглая страйп-сатин на резинке 210х210х30 - 125 - "Крем" 1х1</t>
+  </si>
+  <si>
+    <t>4660674646889</t>
+  </si>
+  <si>
+    <t>Наволочка из поплина 40 х 40 - М - Глазурь</t>
+  </si>
+  <si>
+    <t>4660674646872</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё перкаль 1,5 спальное - М - 125 - Терракота с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674646865</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 150х200 - "Далиян"</t>
+  </si>
+  <si>
+    <t>4660674646858</t>
+  </si>
+  <si>
+    <t>Простыня микросатин на резинке 200х220х30 - "Смоки"</t>
+  </si>
+  <si>
+    <t>4660674646841</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 180 х 220 - М - Голубая сталь</t>
+  </si>
+  <si>
+    <t>4660674646834</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 2 спальное с Евро простыней - Р - М - 140 - Белый 3х3 с наволочками 50х70</t>
   </si>
 </sst>
 </file>
@@ -24477,6 +24654,325 @@
         <v>3300</v>
       </c>
     </row>
+    <row r="1683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1683" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1684" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>3369</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1685" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C1685" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1686" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>3373</v>
+      </c>
+      <c r="C1686" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1687" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>3375</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1688" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1689" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1690" t="s">
+        <v>3380</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1691" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1692" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>3385</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1693" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1694" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>3389</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1695" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C1695" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1696" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>3393</v>
+      </c>
+      <c r="C1696" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1697" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C1697" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1698" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>3397</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1699" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>3399</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1700" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>3401</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1701" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>3403</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1702" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>3405</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1703" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1704" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>3409</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1705" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>3411</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1706" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1707" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>3415</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1708" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1709" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1710" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>3421</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1711" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>3423</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>3367</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="3424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3642" uniqueCount="3434">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -10286,6 +10286,36 @@
   </si>
   <si>
     <t>КПБ Постельное бельё страйп-сатин 2 спальное с Евро простыней - Р - М - 140 - Белый 3х3 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674647169</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Микрофибра 1,5 спальное на резинке 80х200х30 - "Марисоль"</t>
+  </si>
+  <si>
+    <t>4660674647152</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 1,5 спальное на резинке 90х200х30 - "Гуголету"</t>
+  </si>
+  <si>
+    <t>4660674647145</t>
+  </si>
+  <si>
+    <t>Простыня круглая Жатка на резинке 210х210х30 - "Белый Этюд"</t>
+  </si>
+  <si>
+    <t>4660674647138</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 145 х 215 - М - Блестящий миндаль</t>
+  </si>
+  <si>
+    <t>4660674647121</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 200х220 - "Легкий роман"</t>
   </si>
 </sst>
 </file>
@@ -24973,6 +25003,61 @@
         <v>3367</v>
       </c>
     </row>
+    <row r="1712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1712" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>3425</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1713" t="s">
+        <v>3426</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>3427</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1714" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>3429</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1715" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1716" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>3367</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3642" uniqueCount="3434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3951" uniqueCount="3641">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -10316,6 +10316,627 @@
   </si>
   <si>
     <t>Пододеяльник микросатин 200х220 - "Легкий роман"</t>
+  </si>
+  <si>
+    <t>4610594530096</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 300 х 300 - М - 130 - Антрацитовый</t>
+  </si>
+  <si>
+    <t>15-02-2026</t>
+  </si>
+  <si>
+    <t>4610594530089</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи детская 70 х 70 - Р - М - Разноцветные</t>
+  </si>
+  <si>
+    <t>4610594530072</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп Микрофибра Евро - "Альбелла" 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594530065</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 80 х 200 х 10 - М - 120 - Оттенки Звезд</t>
+  </si>
+  <si>
+    <t>4610594530058</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 150х200 - "Бирюзовый Рельеф"</t>
+  </si>
+  <si>
+    <t>4610594530041</t>
+  </si>
+  <si>
+    <t>Наволочка ранфорс 50х50 - "Фантасмагория"</t>
+  </si>
+  <si>
+    <t>4610594530034</t>
+  </si>
+  <si>
+    <t>Простыня из перкаля на резинке 200 х 200 х 30 - М - 125 - Радмила</t>
+  </si>
+  <si>
+    <t>4610594530027</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 220 х 240 - М - 60S 74 Оливковый</t>
+  </si>
+  <si>
+    <t>4610594530010</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 140 х 200 х 20 - "Кианит"</t>
+  </si>
+  <si>
+    <t>4660674648104</t>
+  </si>
+  <si>
+    <t>Простыня бязь на резинке 90 х 200 х 20 - "Астер грей"</t>
+  </si>
+  <si>
+    <t>4660674648098</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 200х220 - "Мяурель"</t>
+  </si>
+  <si>
+    <t>4660674648081</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин Евро - "Мяурель"</t>
+  </si>
+  <si>
+    <t>4660674648074</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 80 х 200 х 20 - М - 142 ГОСТ - Оранжевый</t>
+  </si>
+  <si>
+    <t>4660674648067</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 40 х 60 - М - 142 ГОСТ - Оранжевый</t>
+  </si>
+  <si>
+    <t>4660674648050</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50х70 - "Снежный Лепесток"</t>
+  </si>
+  <si>
+    <t>4660674648043</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё ранфорс 1,5 спальное на резинке 140х200х30 - Белый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674648036</t>
+  </si>
+  <si>
+    <t>Простыня круглая полисатин на резинке 200х200х30 - "Малика"</t>
+  </si>
+  <si>
+    <t>4660674648029</t>
+  </si>
+  <si>
+    <t>Простыня круглая полисатин на резинке 200х200х30 - "Аврела"</t>
+  </si>
+  <si>
+    <t>4660674648012</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Браш 2 спальное на резинке 160х200х30 - М - Мастард</t>
+  </si>
+  <si>
+    <t>4660674648005</t>
+  </si>
+  <si>
+    <t>Простыня сатин-жаккард 300х300 - "Элеонора"</t>
+  </si>
+  <si>
+    <t>4660674647992</t>
+  </si>
+  <si>
+    <t>Наволочка сатин-жаккард 70х70 - "Элеонора"</t>
+  </si>
+  <si>
+    <t>4660674647985</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 70 х 70 - М - 125 - Папирус темный 1х1 4</t>
+  </si>
+  <si>
+    <t>4660674647978</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 120х200х40 - "Звёздный туман"</t>
+  </si>
+  <si>
+    <t>4660674647961</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 180 х 220 - М - 125 - В ассортименте</t>
+  </si>
+  <si>
+    <t>4660674647954</t>
+  </si>
+  <si>
+    <t>Наволочка из поплина 60 х 60 - М - Кружева на голубом</t>
+  </si>
+  <si>
+    <t>4660674647947</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 180 х 220 - М - 142 ГОСТ - Белый</t>
+  </si>
+  <si>
+    <t>4660674647930</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 200 х 200 - "Корги-пати"</t>
+  </si>
+  <si>
+    <t>4660674647923</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин Евро макси - "Тирас"</t>
+  </si>
+  <si>
+    <t>4660674647916</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 200х220 - "Страстный гранат"</t>
+  </si>
+  <si>
+    <t>4660674647909</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 175 х 215 - М - Пинклайт</t>
+  </si>
+  <si>
+    <t>4660674647893</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 160х200х40 - "Тирас"</t>
+  </si>
+  <si>
+    <t>4660674647886</t>
+  </si>
+  <si>
+    <t>Наволочка перкаль 70х70 - "Лазурная гладь"</t>
+  </si>
+  <si>
+    <t>4660674647879</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 40х40 - "Селинто"</t>
+  </si>
+  <si>
+    <t>4660674647862</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 1,5 спальное - "Легкий роман" Универсал</t>
+  </si>
+  <si>
+    <t>4660674647855</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 175х215 - "Фиалетта" 1х1</t>
+  </si>
+  <si>
+    <t>4660674647848</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин Евро на резинке 160х200х30 - "Крылатые сны" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674647831</t>
+  </si>
+  <si>
+    <t>КПБ Детское постельное бельё из бязи для детских кроваток - Р - М - Арбузики 1 бирюз.</t>
+  </si>
+  <si>
+    <t>4660674647824</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - 60S 4217 Бежевый</t>
+  </si>
+  <si>
+    <t>4660674647817</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин семейное на резинке 180х200х30 - "Ритва"</t>
+  </si>
+  <si>
+    <t>4660674647800</t>
+  </si>
+  <si>
+    <t>Наволочка из полисатина 50 х 70 - М - 90 - Франция</t>
+  </si>
+  <si>
+    <t>4660674647794</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Евро на резинке 160х200х30 - М - 135 - Грей Нимбус</t>
+  </si>
+  <si>
+    <t>4660674647787</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин на резинке 160х200х20 - "Вилайн" 1х1</t>
+  </si>
+  <si>
+    <t>4660674647770</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 200 х 220 - "Бриллиантовые кружева"</t>
+  </si>
+  <si>
+    <t>4660674647763</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 40 - М - Блу Скай</t>
+  </si>
+  <si>
+    <t>4660674647756</t>
+  </si>
+  <si>
+    <t>Простыня из страйп сатина на резинке 160 х 200 х 30 - М - 140 - Белый Люкс 3х3</t>
+  </si>
+  <si>
+    <t>4660674647749</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 70х70 - "Ягуар"</t>
+  </si>
+  <si>
+    <t>4660674647732</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Полисатин 1,5 спальное на резинке 120х200х30 - "Белый персик" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674647725</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок 1,5 спальное на резинке 140х200х30 - М - 224 Розовый</t>
+  </si>
+  <si>
+    <t>4660674647718</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 60 х 60 - "Голубая дымка"</t>
+  </si>
+  <si>
+    <t>4660674647701</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 300х300 - "Серебро Лондона"</t>
+  </si>
+  <si>
+    <t>4660674647695</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное на резинке 140х200х30 - "Альфредо" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674647688</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 220х240 - "Аделаида"</t>
+  </si>
+  <si>
+    <t>4660674647671</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное - "Природный Абстракт" Универсал</t>
+  </si>
+  <si>
+    <t>4660674647664</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 300х300 - "Угольная Паутинка"</t>
+  </si>
+  <si>
+    <t>4660674647657</t>
+  </si>
+  <si>
+    <t>Пододеяльник ранфорс 145х215 - "Кремневый серый"</t>
+  </si>
+  <si>
+    <t>4660674647640</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 150х200 - "Элефас"</t>
+  </si>
+  <si>
+    <t>4660674647633</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок 2 спальное с Евро простыней - М - Голубая сталь</t>
+  </si>
+  <si>
+    <t>4660674647626</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 160 х 200 х 30 - М - 135 - Платина 1х1</t>
+  </si>
+  <si>
+    <t>4660674647619</t>
+  </si>
+  <si>
+    <t>Простыня микросатин на резинке 140х200х40 - "Смоки"</t>
+  </si>
+  <si>
+    <t>4660674647602</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок 1,5 спальное на резинке 140х200х30 - М - Каштановый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674647596</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро - "Соколиная охота" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674647589</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 140х200х40 - "Графитовый Зигзаг"</t>
+  </si>
+  <si>
+    <t>4660674647572</t>
+  </si>
+  <si>
+    <t>Наволочка Микрофибра 40х40 - "Эстрелья"</t>
+  </si>
+  <si>
+    <t>4660674647565</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 1,5 спальное - М - 142 ГОСТ - Кружащие перья</t>
+  </si>
+  <si>
+    <t>4660674647558</t>
+  </si>
+  <si>
+    <t>Простыня непромокаемая 180 х 220 - М - Мулетон Хлопок</t>
+  </si>
+  <si>
+    <t>4660674647541</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 80х200х20 - "Лемпи"</t>
+  </si>
+  <si>
+    <t>4660674647534</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок Евро на резинке 160х200х30 - М - Зеленый чай с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674647527</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 90х200х30 - "Звёздный Вальс" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674647510</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное на резинке 120х200х30 - М - 140 - Агатовый серый 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674647503</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 1,5 спальное на резинке 120х200х30 - М - 130 - Антрацитовый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674647497</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 1,5 спальное - М - 125 - Паслен А+В с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674647480</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное на резинке 90х200х30 - М - 125 - Папирус темный 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674647473</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро - "Элефас"</t>
+  </si>
+  <si>
+    <t>4660674647466</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 150х200 - "Мирелле"</t>
+  </si>
+  <si>
+    <t>4660674647459</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное на резинке 140х200х30 - "Сердечный Вихрь"</t>
+  </si>
+  <si>
+    <t>4660674647442</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё перкаль Евро на резинке 160х200х20 - М - 110 - Посев Одуванчика А+В</t>
+  </si>
+  <si>
+    <t>4660674647435</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 220х240 - "Лемпи"</t>
+  </si>
+  <si>
+    <t>4660674647428</t>
+  </si>
+  <si>
+    <t>Пододеяльник твил-сатин 150 х 200 - "Нева"</t>
+  </si>
+  <si>
+    <t>4660674647411</t>
+  </si>
+  <si>
+    <t>Наволочка твил-сатин 50 х 70 - "Нева"</t>
+  </si>
+  <si>
+    <t>4660674647404</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 1,5 спальное на резинке 140х200х30 - М - 142 - Биг Бен с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674647398</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин семейное на резинке 180х200х30 - М - 120 - Спелая малина</t>
+  </si>
+  <si>
+    <t>4660674647381</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 240 х 260 - М - 140 - Голубой 1х1</t>
+  </si>
+  <si>
+    <t>4660674647374</t>
+  </si>
+  <si>
+    <t>Простыня тенсель 150х220 - "Карибская волна"</t>
+  </si>
+  <si>
+    <t>4660674647367</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин-жаккард семейное на резинке 160х200х30 - М - Треббиано с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674647350</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 280х280 - "Лемпи"</t>
+  </si>
+  <si>
+    <t>4660674647343</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс 280х280 - "Ванильный раф"</t>
+  </si>
+  <si>
+    <t>4660674647336</t>
+  </si>
+  <si>
+    <t>Простыня тенсель 300х300 - "Песочная роза"</t>
+  </si>
+  <si>
+    <t>4660674647329</t>
+  </si>
+  <si>
+    <t>Наволочка страйп-сатин 50х70 - "Филлис" 1х1</t>
+  </si>
+  <si>
+    <t>4660674647312</t>
+  </si>
+  <si>
+    <t>Наволочка страйп-сатин 70х70 - "Филлис" 1х1</t>
+  </si>
+  <si>
+    <t>4660674647305</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин на резинке 160х200х30 - "Филлис" 1х1</t>
+  </si>
+  <si>
+    <t>4660674647299</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 220х240 - "Филлис" 1х1</t>
+  </si>
+  <si>
+    <t>4660674647282</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное на резинке 120х200х30 - М - 135 - Мираваль 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674647275</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 1,5 спальное на резинке 90х200х30 - "Лунная Пальма" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674647268</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Перкаль Евро макси - "Чёрное масло" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674647251</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 200х220х30 - М - 60S 4225 Зелёный лесной</t>
+  </si>
+  <si>
+    <t>4660674647244</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное на резинке 140х200х30 - "Альфредо"</t>
+  </si>
+  <si>
+    <t>4660674647237</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 200х220 - "Оливейт"</t>
+  </si>
+  <si>
+    <t>4660674647220</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 280х280 - "Элефас"</t>
+  </si>
+  <si>
+    <t>4660674647213</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье Тенсель Евро на резинке 160х200х30 - "Асунсьон" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674647206</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок Евро на резинке 160х200х30 - М - Ванильный</t>
+  </si>
+  <si>
+    <t>4660674647190</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 300 х 300 - М - Бертолеция</t>
+  </si>
+  <si>
+    <t>4660674647183</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро на резинке 160х200х30 - "Плюмас" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4660674647176</t>
+  </si>
+  <si>
+    <t>Пододеяльник из перкаля 150 х 200 - М - 110 - Озеро Цветов</t>
   </si>
 </sst>
 </file>
@@ -25058,6 +25679,1139 @@
         <v>3367</v>
       </c>
     </row>
+    <row r="1717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1717" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>3435</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1718" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>3438</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1719" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1720" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>3442</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1721" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>3444</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1722" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>3446</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1723" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>3448</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1724" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>3450</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1725" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>3452</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1726" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1727" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>3456</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1728" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1729" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>3460</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1730" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>3462</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1731" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>3464</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1732" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>3466</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1733" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1734" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>3470</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1735" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>3472</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1736" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>3474</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1737" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>3476</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1738" t="s">
+        <v>3477</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>3478</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1739" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>3480</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1740" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>3482</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1741" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>3484</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1742" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1743" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1744" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>3490</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1745" t="s">
+        <v>3491</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>3492</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1746" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>3494</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1747" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1748" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>3498</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1749" t="s">
+        <v>3499</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1750" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>3502</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1751" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>3504</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1752" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>3506</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1753" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1754" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1755" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>3512</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1756" t="s">
+        <v>3513</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>3514</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1757" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1758" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>3518</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1759" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1760" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>3522</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1761" t="s">
+        <v>3523</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>3524</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1762" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1763" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1764" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1765" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>3532</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1766" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>3534</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1767" t="s">
+        <v>3535</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>3536</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1768" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1769" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>3540</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1770" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1771" t="s">
+        <v>3543</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>3544</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1772" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>3546</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1773" t="s">
+        <v>3547</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>3548</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1774" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>3550</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1775" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>3552</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1776" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1777" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>3556</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1778" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>3558</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1779" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>3560</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1780" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1781" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1782" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>3566</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1783" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1784" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>3570</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1785" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>3572</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1786" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>3574</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1787" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>3576</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1788" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1789" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>3580</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1790" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>3582</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1791" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>3584</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1792" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>3586</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1793" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>3588</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1794" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>3590</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1795" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>3592</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1796" t="s">
+        <v>3593</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1797" t="s">
+        <v>3595</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>3596</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1798" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>3598</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1799" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>3600</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1800" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>3602</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1801" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>3604</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1802" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>3606</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1803" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>3608</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1804" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>3610</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1805" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>3612</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1806" t="s">
+        <v>3613</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>3614</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1807" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>3616</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1808" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>3618</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1809" t="s">
+        <v>3619</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>3620</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1810" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>3622</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1811" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>3624</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1812" t="s">
+        <v>3625</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>3626</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1813" t="s">
+        <v>3627</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>3628</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1814" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>3630</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1815" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>3632</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1816" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>3634</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1817" t="s">
+        <v>3635</v>
+      </c>
+      <c r="B1817" t="s">
+        <v>3636</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1818" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>3638</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1819" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>3640</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>3436</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3951" uniqueCount="3641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4173" uniqueCount="3790">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -10937,6 +10937,453 @@
   </si>
   <si>
     <t>Пододеяльник из перкаля 150 х 200 - М - 110 - Озеро Цветов</t>
+  </si>
+  <si>
+    <t>4610594530805</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро макси на резинке 180х200х30 - "Лав юселф" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>16-02-2026</t>
+  </si>
+  <si>
+    <t>4610594530799</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 150 х 220 - М - 125 - Мяу-мяу</t>
+  </si>
+  <si>
+    <t>4610594530782</t>
+  </si>
+  <si>
+    <t>Наволочка Микрофибра 60х60 - "Эстрелья"</t>
+  </si>
+  <si>
+    <t>4610594530775</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 60 х 60 - М - 125 - Дневной Аромат</t>
+  </si>
+  <si>
+    <t>4610594530768</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 200 х 220 - М - Воздушная Мелодия А+В</t>
+  </si>
+  <si>
+    <t>4610594530751</t>
+  </si>
+  <si>
+    <t>Наволочка из поплина 50 х 50 - М - 110 - Сад Единорога</t>
+  </si>
+  <si>
+    <t>4610594530744</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина-жаккарда 70 х 70 - М - Снежное королевство</t>
+  </si>
+  <si>
+    <t>4610594530737</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - Фазенда Лиара</t>
+  </si>
+  <si>
+    <t>4610594530720</t>
+  </si>
+  <si>
+    <t>Наволочка твил-сатин 40 х 60 - "Нева"</t>
+  </si>
+  <si>
+    <t>4610594530713</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 200 х 220 - М - 140 - Белый Люкс</t>
+  </si>
+  <si>
+    <t>4610594530706</t>
+  </si>
+  <si>
+    <t>Наволочка твил-сатин 70 х 70 - "Сахарная роза"</t>
+  </si>
+  <si>
+    <t>4610594530690</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 175х215 - "Аврела"</t>
+  </si>
+  <si>
+    <t>4610594530683</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50 х 50 - "Бейж"</t>
+  </si>
+  <si>
+    <t>4610594530676</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 160х200х40 - "Гуголету"</t>
+  </si>
+  <si>
+    <t>4610594530669</t>
+  </si>
+  <si>
+    <t>Пододеяльник ранфорс 240х260 - "Фантасмагория"</t>
+  </si>
+  <si>
+    <t>4610594530652</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 150х200 - "Песчаный ветер"</t>
+  </si>
+  <si>
+    <t>4610594530645</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 140х200х20 - "Сердечный Вихрь"</t>
+  </si>
+  <si>
+    <t>4610594530638</t>
+  </si>
+  <si>
+    <t>Простыня из поплина 220 х 240 - М - Белоснежное</t>
+  </si>
+  <si>
+    <t>4610594530621</t>
+  </si>
+  <si>
+    <t>Простыня круглая из страйп-сатина на резинке 220 х 220 х 30 - М - 135 - Принцесс Эн 1х1</t>
+  </si>
+  <si>
+    <t>4610594530614</t>
+  </si>
+  <si>
+    <t>Простыня круглая микросатин на резинке 220х220х30 - "Страстный гранат"</t>
+  </si>
+  <si>
+    <t>4610594530607</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 175х215 - "Анхела"</t>
+  </si>
+  <si>
+    <t>4610594530591</t>
+  </si>
+  <si>
+    <t>Пододеяльник Тенсель 150х200 - "Дасти Роуз"</t>
+  </si>
+  <si>
+    <t>4610594530584</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 150 х 220 - М - 120 - Колыбель на сиреневом</t>
+  </si>
+  <si>
+    <t>4610594530577</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 120х200х30 - "Альфредо"</t>
+  </si>
+  <si>
+    <t>4610594530560</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё твил-сатин семейное - "Солнечные лучи"</t>
+  </si>
+  <si>
+    <t>4610594530553</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное на резинке 140х200х30 - "Элефас"</t>
+  </si>
+  <si>
+    <t>4610594530546</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин Евро макси на резинке 180х200х30 - "Тирас"</t>
+  </si>
+  <si>
+    <t>4610594530539</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - Петроль</t>
+  </si>
+  <si>
+    <t>4610594530522</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 40х40 - "Флафи"</t>
+  </si>
+  <si>
+    <t>4610594530515</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 200х220х20 - М - 60S 4294 Перламутровый</t>
+  </si>
+  <si>
+    <t>4610594530508</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 160 х 200 х 30 - "Кленовая зелень"</t>
+  </si>
+  <si>
+    <t>4610594530492</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Браш 2 спальное с Евро простыней - М - Кремовый бархат</t>
+  </si>
+  <si>
+    <t>4610594530485</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное с Евро простыней - "Природный Абстракт"</t>
+  </si>
+  <si>
+    <t>4610594530478</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 70 х 70 - Р - М - 120 - Отбеленная</t>
+  </si>
+  <si>
+    <t>4610594530461</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50 х 70 - "Медный"</t>
+  </si>
+  <si>
+    <t>4610594530454</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 220х240 - М - 130 - "Лавандула" 1х1</t>
+  </si>
+  <si>
+    <t>4610594530447</t>
+  </si>
+  <si>
+    <t>Простыня перкаль 300х300 - "Лазурная гладь"</t>
+  </si>
+  <si>
+    <t>4610594530430</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 220х240 - 125 - "Индиго" 1х1</t>
+  </si>
+  <si>
+    <t>4610594530423</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 220 х 240 - М - Данделионс А+В</t>
+  </si>
+  <si>
+    <t>4610594530416</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 220х240 - "Лав юселф"</t>
+  </si>
+  <si>
+    <t>4610594530409</t>
+  </si>
+  <si>
+    <t>Наволочка из перкаля 40 х 40 - М - 110 - Каори на зеленом</t>
+  </si>
+  <si>
+    <t>4610594530393</t>
+  </si>
+  <si>
+    <t>Простыня из перкаля на резинке 180 х 200 х 40 - М - 110 - Каори на зеленом</t>
+  </si>
+  <si>
+    <t>4610594530386</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 200 х 200 - М - Морской</t>
+  </si>
+  <si>
+    <t>4610594530379</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - "Сиренево-розовый"</t>
+  </si>
+  <si>
+    <t>4610594530362</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 120х200х30 - "Белава"</t>
+  </si>
+  <si>
+    <t>4610594530355</t>
+  </si>
+  <si>
+    <t>Простыня Полисатин на резинке 120х200х30 - "Эбру"</t>
+  </si>
+  <si>
+    <t>4610594530348</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 145 х 215 - М - 125 - Слонята на желтом</t>
+  </si>
+  <si>
+    <t>4610594530331</t>
+  </si>
+  <si>
+    <t>Простыня круглая из сатина на резинке 200 x 200 х 40 - М - 135 - Пудра глянцевая</t>
+  </si>
+  <si>
+    <t>4610594530324</t>
+  </si>
+  <si>
+    <t>Простыня из перкали 220 х 240 - М - Пурпурный</t>
+  </si>
+  <si>
+    <t>4610594530317</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 1,5 спальное на резинке 140х200х30 - "Коралловый Шёлк"</t>
+  </si>
+  <si>
+    <t>4610594530300</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 150х200 - "Мелиссит"</t>
+  </si>
+  <si>
+    <t>4610594530294</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 2 спальное на резинке 160х200х20 - М - 142 - Антиквариат</t>
+  </si>
+  <si>
+    <t>4610594530287</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка семейное на резинке 180х200х30 - "Угольная Паутинка"</t>
+  </si>
+  <si>
+    <t>4610594530270</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро - "Серебряный Папоротник"</t>
+  </si>
+  <si>
+    <t>4610594530263</t>
+  </si>
+  <si>
+    <t>Простыня круглая Жатка на резинке 200х200х30 - "Серебряный Папоротник"</t>
+  </si>
+  <si>
+    <t>4610594530256</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 160х200х40 - "Аметистовый Шёлк"</t>
+  </si>
+  <si>
+    <t>4610594530249</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 160х200х40 - М - Королевский пурпур</t>
+  </si>
+  <si>
+    <t>4610594530232</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное - М - 60S 4235 Темно-синий</t>
+  </si>
+  <si>
+    <t>4610594530225</t>
+  </si>
+  <si>
+    <t>Простыня тенсель на резинке 160х200х30 - "Дюна"</t>
+  </si>
+  <si>
+    <t>4610594530218</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 220 - М - 60S 4217 Бежевый</t>
+  </si>
+  <si>
+    <t>4610594530201</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50 х 50 - "Оранж"</t>
+  </si>
+  <si>
+    <t>4610594530195</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 160х200х40 - "Малика"</t>
+  </si>
+  <si>
+    <t>4610594530188</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 160х200х40 - "Аврела"</t>
+  </si>
+  <si>
+    <t>4610594530171</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 112 х 147 - М - 142 ГОСТ - Кленовый</t>
+  </si>
+  <si>
+    <t>4610594530164</t>
+  </si>
+  <si>
+    <t>Простыня твил-сатин 300 х 300 - "Нева"</t>
+  </si>
+  <si>
+    <t>4610594530157</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро макси на резинке 180х200х30 - "Белый Этюд"</t>
+  </si>
+  <si>
+    <t>4610594530140</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300 х 300 - М - 135 - Секондо колоро 1х1</t>
+  </si>
+  <si>
+    <t>4610594530133</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 150х220 - "Белава"</t>
+  </si>
+  <si>
+    <t>4610594530126</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро на резинке 160х200х30 - "Звёздный Вальс" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594530119</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин семейное на резинке 160х200х30 - "Кленовая зелень" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594530102</t>
+  </si>
+  <si>
+    <t>Простыня из поплина на резинке 90 х 200 х 20 - М - Маршрут</t>
+  </si>
+  <si>
+    <t>4610594530812</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 40х60 - "Цветочный Шёпот"</t>
+  </si>
+  <si>
+    <t>4610594530836</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 220 - М - Черный блеск</t>
+  </si>
+  <si>
+    <t>4610594530829</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 220 х 240 - М - Черный блеск</t>
   </si>
 </sst>
 </file>
@@ -26812,6 +27259,820 @@
         <v>3436</v>
       </c>
     </row>
+    <row r="1820" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1820" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>3642</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1821" t="s">
+        <v>3644</v>
+      </c>
+      <c r="B1821" t="s">
+        <v>3645</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1822" t="s">
+        <v>3646</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>3647</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1823" t="s">
+        <v>3648</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>3649</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1824" t="s">
+        <v>3650</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1825" t="s">
+        <v>3652</v>
+      </c>
+      <c r="B1825" t="s">
+        <v>3653</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1826" t="s">
+        <v>3654</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>3655</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1827" t="s">
+        <v>3656</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>3657</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1828" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>3659</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1829" t="s">
+        <v>3660</v>
+      </c>
+      <c r="B1829" t="s">
+        <v>3661</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1830" t="s">
+        <v>3662</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>3663</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1831" t="s">
+        <v>3664</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>3665</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1832" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>3667</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1833" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>3669</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1834" t="s">
+        <v>3670</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>3671</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1835" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B1835" t="s">
+        <v>3673</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1836" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>3675</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1837" t="s">
+        <v>3676</v>
+      </c>
+      <c r="B1837" t="s">
+        <v>3677</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1838" t="s">
+        <v>3678</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>3679</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1839" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B1839" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1840" t="s">
+        <v>3682</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>3683</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1841" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B1841" t="s">
+        <v>3685</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1842" t="s">
+        <v>3686</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>3687</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1843" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B1843" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1844" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>3691</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1845" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B1845" t="s">
+        <v>3693</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1846" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>3695</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1847" t="s">
+        <v>3696</v>
+      </c>
+      <c r="B1847" t="s">
+        <v>3697</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1848" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1849" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B1849" t="s">
+        <v>3701</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1850" t="s">
+        <v>3702</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1851" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>3705</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1852" t="s">
+        <v>3706</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>3707</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1853" t="s">
+        <v>3708</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>3709</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1854" t="s">
+        <v>3710</v>
+      </c>
+      <c r="B1854" t="s">
+        <v>3711</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1855" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B1855" t="s">
+        <v>3713</v>
+      </c>
+      <c r="C1855" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1856" t="s">
+        <v>3714</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>3715</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1857" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1858" t="s">
+        <v>3718</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1859" t="s">
+        <v>3720</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>3721</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1860" t="s">
+        <v>3722</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1861" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1862" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1863" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1864" t="s">
+        <v>3730</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1865" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>3733</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1866" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1867" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>3737</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1868" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>3739</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1869" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1870" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1871" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B1871" t="s">
+        <v>3745</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1872" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>3747</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1873" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B1873" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C1873" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1874" t="s">
+        <v>3750</v>
+      </c>
+      <c r="B1874" t="s">
+        <v>3751</v>
+      </c>
+      <c r="C1874" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1875" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B1875" t="s">
+        <v>3753</v>
+      </c>
+      <c r="C1875" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1876" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B1876" t="s">
+        <v>3755</v>
+      </c>
+      <c r="C1876" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1877" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B1877" t="s">
+        <v>3757</v>
+      </c>
+      <c r="C1877" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1878" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B1878" t="s">
+        <v>3759</v>
+      </c>
+      <c r="C1878" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1879" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B1879" t="s">
+        <v>3761</v>
+      </c>
+      <c r="C1879" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1880" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B1880" t="s">
+        <v>3763</v>
+      </c>
+      <c r="C1880" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1881" t="s">
+        <v>3764</v>
+      </c>
+      <c r="B1881" t="s">
+        <v>3765</v>
+      </c>
+      <c r="C1881" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1882" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B1882" t="s">
+        <v>3767</v>
+      </c>
+      <c r="C1882" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1883" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B1883" t="s">
+        <v>3769</v>
+      </c>
+      <c r="C1883" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1884" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B1884" t="s">
+        <v>3771</v>
+      </c>
+      <c r="C1884" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1885" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B1885" t="s">
+        <v>3773</v>
+      </c>
+      <c r="C1885" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1886" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B1886" t="s">
+        <v>3775</v>
+      </c>
+      <c r="C1886" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1887" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B1887" t="s">
+        <v>3777</v>
+      </c>
+      <c r="C1887" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1888" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B1888" t="s">
+        <v>3779</v>
+      </c>
+      <c r="C1888" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1889" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B1889" t="s">
+        <v>3781</v>
+      </c>
+      <c r="C1889" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1890" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>3783</v>
+      </c>
+      <c r="C1890" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1891" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B1891" t="s">
+        <v>3785</v>
+      </c>
+      <c r="C1891" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1892" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>3787</v>
+      </c>
+      <c r="C1892" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1893" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B1893" t="s">
+        <v>3789</v>
+      </c>
+      <c r="C1893" t="s">
+        <v>3643</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4173" uniqueCount="3790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4281" uniqueCount="3863">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -11384,6 +11384,225 @@
   </si>
   <si>
     <t>Простыня из тенселя 220 х 240 - М - Черный блеск</t>
+  </si>
+  <si>
+    <t>4610594531192</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 80х200х30 - М - 60S 4247 Сирень</t>
+  </si>
+  <si>
+    <t>17-02-2026</t>
+  </si>
+  <si>
+    <t>4610594531185</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 80 х 200 х 20 - М - 142 ГОСТ - Спящий Мишка на голубом</t>
+  </si>
+  <si>
+    <t>4610594531178</t>
+  </si>
+  <si>
+    <t>Пододеяльник из перкаля 220 х 240 - М - 110 - Изысканность</t>
+  </si>
+  <si>
+    <t>4610594531161</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 150х200 - "Серебряная Фантазия"</t>
+  </si>
+  <si>
+    <t>4610594531154</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 160х200х30 - "Линнея"</t>
+  </si>
+  <si>
+    <t>4610594531147</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье тенсель семейное - М - Черный блеск</t>
+  </si>
+  <si>
+    <t>4610594531130</t>
+  </si>
+  <si>
+    <t>Простыня твил-сатин 280 х 280 - "Хризоколла"</t>
+  </si>
+  <si>
+    <t>4610594531123</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 200х220х20 - М - Изумруд Эсмеральды</t>
+  </si>
+  <si>
+    <t>4610594531116</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок Евро на резинке 160х200х30 - М - Чёрная гавань с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594531109</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 70 х 70 - М - Сиена</t>
+  </si>
+  <si>
+    <t>4610594531093</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 175 х 215 - "Вакита"</t>
+  </si>
+  <si>
+    <t>4610594531086</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 200х220 - "Глубь"</t>
+  </si>
+  <si>
+    <t>4610594531079</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 40х40 - "Глубь"</t>
+  </si>
+  <si>
+    <t>4610594531062</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок 1,5 спальное на резинке 120х200х30 - М - 224 Розовый</t>
+  </si>
+  <si>
+    <t>4610594531055</t>
+  </si>
+  <si>
+    <t>Простыня круглая полисатин на резинке 210х210х30 - "Олуфими"</t>
+  </si>
+  <si>
+    <t>4610594531048</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 1,5 спальное на резинке 120х200х30 - М - 142 - Таунхаус с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594531031</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 70х70 - "Румянец"</t>
+  </si>
+  <si>
+    <t>4610594531024</t>
+  </si>
+  <si>
+    <t>Наволочка Тенсель 70х70 - "Ларион"</t>
+  </si>
+  <si>
+    <t>4610594531017</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 70х70 - "Призрачная лагуна"</t>
+  </si>
+  <si>
+    <t>4610594531000</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 220 х 240 - М - Морской</t>
+  </si>
+  <si>
+    <t>4610594530997</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 220 х 240 - М - 135 - Темно-синий 0,5х0,5</t>
+  </si>
+  <si>
+    <t>4610594530980</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 220 х 240 - М - 135 - Дарк Блу 1х1</t>
+  </si>
+  <si>
+    <t>4610594530973</t>
+  </si>
+  <si>
+    <t>Пододеяльник из варёного хлопка 220х240 - М - Сапфировый</t>
+  </si>
+  <si>
+    <t>4610594530966</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 220 х 240 - М - 60S 4235 Темно-синий</t>
+  </si>
+  <si>
+    <t>4610594530959</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 220 х 240 - М - Петроль</t>
+  </si>
+  <si>
+    <t>4610594530942</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 220 х 240 - М - 140 - Чернила 1х1</t>
+  </si>
+  <si>
+    <t>4610594530935</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 220х240 - "Эльвас" 1х1</t>
+  </si>
+  <si>
+    <t>4610594530928</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 220 х 240 - М - 120 - Синий кобальт</t>
+  </si>
+  <si>
+    <t>4610594530911</t>
+  </si>
+  <si>
+    <t>Простыня микросатин на резинке 200х220х30 - "Страстный гранат"</t>
+  </si>
+  <si>
+    <t>4610594530904</t>
+  </si>
+  <si>
+    <t>Наволочка страйп-сатин 70х70 - "Вилайн" 1х1</t>
+  </si>
+  <si>
+    <t>4610594530898</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 240х260 - "Вилайн" 1х1</t>
+  </si>
+  <si>
+    <t>4610594530881</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин на резинке 200х220х30 - "Манцель" 3х3</t>
+  </si>
+  <si>
+    <t>4610594530874</t>
+  </si>
+  <si>
+    <t>Простыня из сатина-жаккарда на резинке 200 х 220 х 40 - М - Вайт Фейри</t>
+  </si>
+  <si>
+    <t>4610594530867</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 200 х 220 х 30 - М - 130 - Белая 1х1</t>
+  </si>
+  <si>
+    <t>4610594530850</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 200х220х40 - М - 323 Серый</t>
+  </si>
+  <si>
+    <t>4610594530843</t>
+  </si>
+  <si>
+    <t>Простыня Микрофибра на резинке 180х200х40 - "Эстрелья"</t>
   </si>
 </sst>
 </file>
@@ -28073,6 +28292,402 @@
         <v>3643</v>
       </c>
     </row>
+    <row r="1894" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1894" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B1894" t="s">
+        <v>3791</v>
+      </c>
+      <c r="C1894" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1895" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B1895" t="s">
+        <v>3794</v>
+      </c>
+      <c r="C1895" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1896" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B1896" t="s">
+        <v>3796</v>
+      </c>
+      <c r="C1896" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1897" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B1897" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C1897" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1898" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B1898" t="s">
+        <v>3800</v>
+      </c>
+      <c r="C1898" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1899" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B1899" t="s">
+        <v>3802</v>
+      </c>
+      <c r="C1899" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1900" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B1900" t="s">
+        <v>3804</v>
+      </c>
+      <c r="C1900" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1901" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1901" t="s">
+        <v>3806</v>
+      </c>
+      <c r="C1901" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1902" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B1902" t="s">
+        <v>3808</v>
+      </c>
+      <c r="C1902" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1903" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B1903" t="s">
+        <v>3810</v>
+      </c>
+      <c r="C1903" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1904" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B1904" t="s">
+        <v>3812</v>
+      </c>
+      <c r="C1904" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1905" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B1905" t="s">
+        <v>3814</v>
+      </c>
+      <c r="C1905" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1906" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B1906" t="s">
+        <v>3816</v>
+      </c>
+      <c r="C1906" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1907" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B1907" t="s">
+        <v>3818</v>
+      </c>
+      <c r="C1907" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1908" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B1908" t="s">
+        <v>3820</v>
+      </c>
+      <c r="C1908" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1909" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B1909" t="s">
+        <v>3822</v>
+      </c>
+      <c r="C1909" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1910" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B1910" t="s">
+        <v>3824</v>
+      </c>
+      <c r="C1910" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1911" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B1911" t="s">
+        <v>3826</v>
+      </c>
+      <c r="C1911" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1912" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B1912" t="s">
+        <v>3828</v>
+      </c>
+      <c r="C1912" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1913" t="s">
+        <v>3829</v>
+      </c>
+      <c r="B1913" t="s">
+        <v>3830</v>
+      </c>
+      <c r="C1913" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1914" t="s">
+        <v>3831</v>
+      </c>
+      <c r="B1914" t="s">
+        <v>3832</v>
+      </c>
+      <c r="C1914" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1915" t="s">
+        <v>3833</v>
+      </c>
+      <c r="B1915" t="s">
+        <v>3834</v>
+      </c>
+      <c r="C1915" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1916" t="s">
+        <v>3835</v>
+      </c>
+      <c r="B1916" t="s">
+        <v>3836</v>
+      </c>
+      <c r="C1916" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1917" t="s">
+        <v>3837</v>
+      </c>
+      <c r="B1917" t="s">
+        <v>3838</v>
+      </c>
+      <c r="C1917" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1918" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B1918" t="s">
+        <v>3840</v>
+      </c>
+      <c r="C1918" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1919" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B1919" t="s">
+        <v>3842</v>
+      </c>
+      <c r="C1919" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1920" t="s">
+        <v>3843</v>
+      </c>
+      <c r="B1920" t="s">
+        <v>3844</v>
+      </c>
+      <c r="C1920" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1921" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B1921" t="s">
+        <v>3846</v>
+      </c>
+      <c r="C1921" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1922" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B1922" t="s">
+        <v>3848</v>
+      </c>
+      <c r="C1922" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1923" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B1923" t="s">
+        <v>3850</v>
+      </c>
+      <c r="C1923" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1924" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B1924" t="s">
+        <v>3852</v>
+      </c>
+      <c r="C1924" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1925" t="s">
+        <v>3853</v>
+      </c>
+      <c r="B1925" t="s">
+        <v>3854</v>
+      </c>
+      <c r="C1925" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1926" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B1926" t="s">
+        <v>3856</v>
+      </c>
+      <c r="C1926" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1927" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B1927" t="s">
+        <v>3858</v>
+      </c>
+      <c r="C1927" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1928" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B1928" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C1928" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1929" t="s">
+        <v>3861</v>
+      </c>
+      <c r="B1929" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C1929" t="s">
+        <v>3792</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4281" uniqueCount="3863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4338" uniqueCount="3902">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -11603,6 +11603,123 @@
   </si>
   <si>
     <t>Простыня Микрофибра на резинке 180х200х40 - "Эстрелья"</t>
+  </si>
+  <si>
+    <t>4610594531383</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 200х220 - "Бежевый шлейф"</t>
+  </si>
+  <si>
+    <t>18-02-2026</t>
+  </si>
+  <si>
+    <t>4610594531376</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин на резинке 180х200х30 - "Гриновей" 1х1</t>
+  </si>
+  <si>
+    <t>4610594531369</t>
+  </si>
+  <si>
+    <t>Пододеяльник бязь 145х215 - "Траектория"</t>
+  </si>
+  <si>
+    <t>4610594531352</t>
+  </si>
+  <si>
+    <t>Наволочка Тенсель 70х70 - "Твист"</t>
+  </si>
+  <si>
+    <t>4610594531345</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 200 - М - Серая умбра</t>
+  </si>
+  <si>
+    <t>4610594531338</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 280х280 - "Бежевый шлейф"</t>
+  </si>
+  <si>
+    <t>4610594531321</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное на резинке 140х200х30 - "Астероид" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594531314</t>
+  </si>
+  <si>
+    <t>Простыня микросатин на резинке 200х220х30 - "Шторм"</t>
+  </si>
+  <si>
+    <t>4610594531307</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 150х200 - "Шторм"</t>
+  </si>
+  <si>
+    <t>4610594531291</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 200х220 - "Шторм"</t>
+  </si>
+  <si>
+    <t>4610594531284</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 70 х 70 - М - 125 - Вибрация</t>
+  </si>
+  <si>
+    <t>4610594531277</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин на резинке 200х220х20 - "Вердигри" 1х1</t>
+  </si>
+  <si>
+    <t>4610594531260</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 2 спальное на резинке 160х200х20 - "Звёздный Вальс"</t>
+  </si>
+  <si>
+    <t>4610594531253</t>
+  </si>
+  <si>
+    <t>Простыня варёный хлопок 180х220 - "Стальная тень" (меланж)</t>
+  </si>
+  <si>
+    <t>4610594531246</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 200 х 220 - "Кианит"</t>
+  </si>
+  <si>
+    <t>4610594531239</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 70х70 - "Серебро Лондона"</t>
+  </si>
+  <si>
+    <t>4610594531222</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин Евро - "Бриллиантовые кружева"</t>
+  </si>
+  <si>
+    <t>4610594531215</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 300х300 - "Ночная Симфония"</t>
+  </si>
+  <si>
+    <t>4610594531208</t>
+  </si>
+  <si>
+    <t>Простыня Микрофибра 300х300 - "Петкана"</t>
   </si>
 </sst>
 </file>
@@ -28688,6 +28805,215 @@
         <v>3792</v>
       </c>
     </row>
+    <row r="1930" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1930" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B1930" t="s">
+        <v>3864</v>
+      </c>
+      <c r="C1930" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1931" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B1931" t="s">
+        <v>3867</v>
+      </c>
+      <c r="C1931" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1932" t="s">
+        <v>3868</v>
+      </c>
+      <c r="B1932" t="s">
+        <v>3869</v>
+      </c>
+      <c r="C1932" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1933" t="s">
+        <v>3870</v>
+      </c>
+      <c r="B1933" t="s">
+        <v>3871</v>
+      </c>
+      <c r="C1933" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1934" t="s">
+        <v>3872</v>
+      </c>
+      <c r="B1934" t="s">
+        <v>3873</v>
+      </c>
+      <c r="C1934" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1935" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B1935" t="s">
+        <v>3875</v>
+      </c>
+      <c r="C1935" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1936" t="s">
+        <v>3876</v>
+      </c>
+      <c r="B1936" t="s">
+        <v>3877</v>
+      </c>
+      <c r="C1936" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1937" t="s">
+        <v>3878</v>
+      </c>
+      <c r="B1937" t="s">
+        <v>3879</v>
+      </c>
+      <c r="C1937" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1938" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B1938" t="s">
+        <v>3881</v>
+      </c>
+      <c r="C1938" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1939" t="s">
+        <v>3882</v>
+      </c>
+      <c r="B1939" t="s">
+        <v>3883</v>
+      </c>
+      <c r="C1939" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1940" t="s">
+        <v>3884</v>
+      </c>
+      <c r="B1940" t="s">
+        <v>3885</v>
+      </c>
+      <c r="C1940" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1941" t="s">
+        <v>3886</v>
+      </c>
+      <c r="B1941" t="s">
+        <v>3887</v>
+      </c>
+      <c r="C1941" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1942" t="s">
+        <v>3888</v>
+      </c>
+      <c r="B1942" t="s">
+        <v>3889</v>
+      </c>
+      <c r="C1942" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1943" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B1943" t="s">
+        <v>3891</v>
+      </c>
+      <c r="C1943" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1944" t="s">
+        <v>3892</v>
+      </c>
+      <c r="B1944" t="s">
+        <v>3893</v>
+      </c>
+      <c r="C1944" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1945" t="s">
+        <v>3894</v>
+      </c>
+      <c r="B1945" t="s">
+        <v>3895</v>
+      </c>
+      <c r="C1945" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1946" t="s">
+        <v>3896</v>
+      </c>
+      <c r="B1946" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C1946" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1947" t="s">
+        <v>3898</v>
+      </c>
+      <c r="B1947" t="s">
+        <v>3899</v>
+      </c>
+      <c r="C1947" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1948" t="s">
+        <v>3900</v>
+      </c>
+      <c r="B1948" t="s">
+        <v>3901</v>
+      </c>
+      <c r="C1948" t="s">
+        <v>3865</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4338" uniqueCount="3902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4389" uniqueCount="3937">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -11720,6 +11720,111 @@
   </si>
   <si>
     <t>Простыня Микрофибра 300х300 - "Петкана"</t>
+  </si>
+  <si>
+    <t>4610594531550</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 70х70 - "Чёрный Страйп"</t>
+  </si>
+  <si>
+    <t>19-02-2026</t>
+  </si>
+  <si>
+    <t>4610594531543</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 120х200х30 - "Звёздный Вальс" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594531536</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 2 спальное с Евро простыней - "Бонетто" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594531529</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 200 х 200 - М - 142 - Простор поля</t>
+  </si>
+  <si>
+    <t>4610594531512</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро на резинке 160х200х30 - "Медный" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594531505</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - 60S 74 Оливковый</t>
+  </si>
+  <si>
+    <t>4610594531499</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 40х60 - "Карибская волна"</t>
+  </si>
+  <si>
+    <t>4610594531482</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 240х260 - "Карибская волна"</t>
+  </si>
+  <si>
+    <t>4610594531475</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 240 х 260 - М - 135 - Эмерэльд 1х1</t>
+  </si>
+  <si>
+    <t>4610594531468</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок 2 спальное на резинке 140х200х30 - М - Светло-пюсовый</t>
+  </si>
+  <si>
+    <t>4610594531451</t>
+  </si>
+  <si>
+    <t>Наволочка сатин-жаккард 50х70 - "Элеонора"</t>
+  </si>
+  <si>
+    <t>4610594531444</t>
+  </si>
+  <si>
+    <t>Пододеяльник из твил сатина 150 х 200 - М - Прерия</t>
+  </si>
+  <si>
+    <t>4610594531437</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 200х200 - "Элефас"</t>
+  </si>
+  <si>
+    <t>4610594531420</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь Евро макси - М - 120 - Литера с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594531413</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 2 спальное - "Белава"</t>
+  </si>
+  <si>
+    <t>4610594531406</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 90 х 200 х 20 - М - 142 ГОСТ - Черный</t>
+  </si>
+  <si>
+    <t>4610594531390</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье тенсель 1,5 спальное - М - Малахит с наволочками 50х70</t>
   </si>
 </sst>
 </file>
@@ -29014,6 +29119,193 @@
         <v>3865</v>
       </c>
     </row>
+    <row r="1949" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1949" t="s">
+        <v>3902</v>
+      </c>
+      <c r="B1949" t="s">
+        <v>3903</v>
+      </c>
+      <c r="C1949" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1950" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B1950" t="s">
+        <v>3906</v>
+      </c>
+      <c r="C1950" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1951" t="s">
+        <v>3907</v>
+      </c>
+      <c r="B1951" t="s">
+        <v>3908</v>
+      </c>
+      <c r="C1951" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1952" t="s">
+        <v>3909</v>
+      </c>
+      <c r="B1952" t="s">
+        <v>3910</v>
+      </c>
+      <c r="C1952" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1953" t="s">
+        <v>3911</v>
+      </c>
+      <c r="B1953" t="s">
+        <v>3912</v>
+      </c>
+      <c r="C1953" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1954" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B1954" t="s">
+        <v>3914</v>
+      </c>
+      <c r="C1954" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1955" t="s">
+        <v>3915</v>
+      </c>
+      <c r="B1955" t="s">
+        <v>3916</v>
+      </c>
+      <c r="C1955" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1956" t="s">
+        <v>3917</v>
+      </c>
+      <c r="B1956" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C1956" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1957" t="s">
+        <v>3919</v>
+      </c>
+      <c r="B1957" t="s">
+        <v>3920</v>
+      </c>
+      <c r="C1957" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1958" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B1958" t="s">
+        <v>3922</v>
+      </c>
+      <c r="C1958" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1959" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B1959" t="s">
+        <v>3924</v>
+      </c>
+      <c r="C1959" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1960" t="s">
+        <v>3925</v>
+      </c>
+      <c r="B1960" t="s">
+        <v>3926</v>
+      </c>
+      <c r="C1960" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1961" t="s">
+        <v>3927</v>
+      </c>
+      <c r="B1961" t="s">
+        <v>3928</v>
+      </c>
+      <c r="C1961" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1962" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B1962" t="s">
+        <v>3930</v>
+      </c>
+      <c r="C1962" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1963" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B1963" t="s">
+        <v>3932</v>
+      </c>
+      <c r="C1963" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1964" t="s">
+        <v>3933</v>
+      </c>
+      <c r="B1964" t="s">
+        <v>3934</v>
+      </c>
+      <c r="C1964" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1965" t="s">
+        <v>3935</v>
+      </c>
+      <c r="B1965" t="s">
+        <v>3936</v>
+      </c>
+      <c r="C1965" t="s">
+        <v>3904</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4389" uniqueCount="3937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4440" uniqueCount="3972">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -11825,6 +11825,111 @@
   </si>
   <si>
     <t>КПБ Постельное белье тенсель 1,5 спальное - М - Малахит с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594531727</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин семейное - "Сумбари" 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>20-02-2026</t>
+  </si>
+  <si>
+    <t>4610594531710</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин на резинке 120х200х20 - "Сумбари" 1х1</t>
+  </si>
+  <si>
+    <t>4610594531703</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 120 х 200 х 30 - М - 135 - Мокрый асфальт 1х1</t>
+  </si>
+  <si>
+    <t>4610594531697</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 120 х 200 х 20 - М - 125 - Черный 1х1</t>
+  </si>
+  <si>
+    <t>4610594531680</t>
+  </si>
+  <si>
+    <t>Пододеяльник страйп-сатин 200х220 - "Фрезия" 1х1</t>
+  </si>
+  <si>
+    <t>4610594531673</t>
+  </si>
+  <si>
+    <t>Наволочка страйп-сатин 50х70 - "Фрезия" 1х1</t>
+  </si>
+  <si>
+    <t>4610594531666</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин на резинке 200х200х40 - "Фрезия" 1х1</t>
+  </si>
+  <si>
+    <t>4610594531659</t>
+  </si>
+  <si>
+    <t>Наволочка страйп-сатин 40х60 - 125 - "Серебро" 1х1</t>
+  </si>
+  <si>
+    <t>4610594531642</t>
+  </si>
+  <si>
+    <t>Простыня страйп Микрофибра 220х240 - "Альбелла" 1х1</t>
+  </si>
+  <si>
+    <t>4610594531635</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 145х215 - "Цветочный Шёпот"</t>
+  </si>
+  <si>
+    <t>4610594531628</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 150х200 - "Смоки"</t>
+  </si>
+  <si>
+    <t>4610594531611</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 2 спальное на резинке 160х200х30 - М - 60S 4225 Зелёный лесной с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594531604</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 2 спальное на резинке 140х200х30 - М - Сливочно-кремовый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594531598</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё перкаль 1,5 спальное на резинке 140х200х30 - М - 110 - Белый Космос</t>
+  </si>
+  <si>
+    <t>4610594531581</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - Горький шоколад</t>
+  </si>
+  <si>
+    <t>4610594531574</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - Голубой хрусталь</t>
+  </si>
+  <si>
+    <t>4610594531567</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 160 х 200 х 20 - М - 140 - Миндаль 1х1</t>
   </si>
 </sst>
 </file>
@@ -29306,6 +29411,193 @@
         <v>3904</v>
       </c>
     </row>
+    <row r="1966" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1966" t="s">
+        <v>3937</v>
+      </c>
+      <c r="B1966" t="s">
+        <v>3938</v>
+      </c>
+      <c r="C1966" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1967" t="s">
+        <v>3940</v>
+      </c>
+      <c r="B1967" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C1967" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1968" t="s">
+        <v>3942</v>
+      </c>
+      <c r="B1968" t="s">
+        <v>3943</v>
+      </c>
+      <c r="C1968" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1969" t="s">
+        <v>3944</v>
+      </c>
+      <c r="B1969" t="s">
+        <v>3945</v>
+      </c>
+      <c r="C1969" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1970" t="s">
+        <v>3946</v>
+      </c>
+      <c r="B1970" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C1970" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1971" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B1971" t="s">
+        <v>3949</v>
+      </c>
+      <c r="C1971" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1972" t="s">
+        <v>3950</v>
+      </c>
+      <c r="B1972" t="s">
+        <v>3951</v>
+      </c>
+      <c r="C1972" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1973" t="s">
+        <v>3952</v>
+      </c>
+      <c r="B1973" t="s">
+        <v>3953</v>
+      </c>
+      <c r="C1973" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1974" t="s">
+        <v>3954</v>
+      </c>
+      <c r="B1974" t="s">
+        <v>3955</v>
+      </c>
+      <c r="C1974" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1975" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B1975" t="s">
+        <v>3957</v>
+      </c>
+      <c r="C1975" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1976" t="s">
+        <v>3958</v>
+      </c>
+      <c r="B1976" t="s">
+        <v>3959</v>
+      </c>
+      <c r="C1976" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1977" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B1977" t="s">
+        <v>3961</v>
+      </c>
+      <c r="C1977" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1978" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B1978" t="s">
+        <v>3963</v>
+      </c>
+      <c r="C1978" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1979" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B1979" t="s">
+        <v>3965</v>
+      </c>
+      <c r="C1979" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1980" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B1980" t="s">
+        <v>3967</v>
+      </c>
+      <c r="C1980" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1981" t="s">
+        <v>3968</v>
+      </c>
+      <c r="B1981" t="s">
+        <v>3969</v>
+      </c>
+      <c r="C1981" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1982" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B1982" t="s">
+        <v>3971</v>
+      </c>
+      <c r="C1982" t="s">
+        <v>3939</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4440" uniqueCount="3972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4680" uniqueCount="4133">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -11930,6 +11930,489 @@
   </si>
   <si>
     <t>Простыня из страйп-сатина на резинке 160 х 200 х 20 - М - 140 - Миндаль 1х1</t>
+  </si>
+  <si>
+    <t>4610594532526</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 200х220 - "Линнея"</t>
+  </si>
+  <si>
+    <t>23-02-2026</t>
+  </si>
+  <si>
+    <t>4610594532519</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь 1,5 спальное на резинке 120х200х30 - М - 120 - Литера</t>
+  </si>
+  <si>
+    <t>4610594532502</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин Евро на резинке 160х200х20 - М - Белоснежное</t>
+  </si>
+  <si>
+    <t>4610594532496</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 70х70 - "Папоротниковый"</t>
+  </si>
+  <si>
+    <t>4610594532489</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 120х200х30 - "Дюраль"</t>
+  </si>
+  <si>
+    <t>4610594532472</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин семейное на резинке 160х200х30 - "Лериса"</t>
+  </si>
+  <si>
+    <t>4610594532465</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 40х40 - "Далиян"</t>
+  </si>
+  <si>
+    <t>4610594532458</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - Сарсуэла</t>
+  </si>
+  <si>
+    <t>4610594532441</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 200 х 220 - М - Сарсуэла</t>
+  </si>
+  <si>
+    <t>4610594532434</t>
+  </si>
+  <si>
+    <t>Наволочка ранфорс 50х70 - "Лазурный бриз"</t>
+  </si>
+  <si>
+    <t>4610594532427</t>
+  </si>
+  <si>
+    <t>Простыня из креп-жатки 200 х 220 - М - 80 - Теплые Пожелания</t>
+  </si>
+  <si>
+    <t>4610594532410</t>
+  </si>
+  <si>
+    <t>Наволочка страйп-сатин 40х40 - "Манцель" 3х3</t>
+  </si>
+  <si>
+    <t>4610594532403</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - Серая умбра</t>
+  </si>
+  <si>
+    <t>4610594532397</t>
+  </si>
+  <si>
+    <t>Пододеяльник Перкаль 145х215 - "Асуль"</t>
+  </si>
+  <si>
+    <t>4610594532380</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 280х280 - "Страстный гранат"</t>
+  </si>
+  <si>
+    <t>4610594532373</t>
+  </si>
+  <si>
+    <t>Пододеяльник сатин 240х260 - "Красная медь"</t>
+  </si>
+  <si>
+    <t>4610594532366</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 260х260 - "Олуфими"</t>
+  </si>
+  <si>
+    <t>4610594532359</t>
+  </si>
+  <si>
+    <t>Простыня из креп-жатки 150 х 220 - М - 80 - Теплые Пожелания</t>
+  </si>
+  <si>
+    <t>4610594532342</t>
+  </si>
+  <si>
+    <t>Наволочка из твил сатина 40 х 60 - М - Индостан</t>
+  </si>
+  <si>
+    <t>4610594532335</t>
+  </si>
+  <si>
+    <t>Пододеяльник из твил сатина 220 х 240 - М - Индостан</t>
+  </si>
+  <si>
+    <t>4610594532328</t>
+  </si>
+  <si>
+    <t>Простыня страйп Микрофибра 280х280 - "Альбелла" 1х1</t>
+  </si>
+  <si>
+    <t>4610594532311</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин семейное на резинке 160х200х30 - М - 135 - Углерод 1х1</t>
+  </si>
+  <si>
+    <t>4610594532304</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин Евро макси на резинке 180х200х30 - М - 135 - Эмерэльд 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594532298</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 150х200 - "Карибская волна"</t>
+  </si>
+  <si>
+    <t>4610594532281</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 200х220 - "Карибская волна"</t>
+  </si>
+  <si>
+    <t>4610594532274</t>
+  </si>
+  <si>
+    <t>Простыня тенсель на резинке 160х200х30 - "Карибская волна"</t>
+  </si>
+  <si>
+    <t>4610594532267</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 1,5 спальное на резинке 120х200х30 - "Линнея" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594532250</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 1,5 спальное на резинке 120х200х30 - "Розанна" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594532243</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин на резинке 200х230х20 - 130 - "Серый туман" 1х1</t>
+  </si>
+  <si>
+    <t>4610594532236</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - Черничный смузи</t>
+  </si>
+  <si>
+    <t>4610594532229</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 70 х 70 - М - 142 ГОСТ - Бирюза</t>
+  </si>
+  <si>
+    <t>4610594532212</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин 2 спальное на резинке 160х200х30 - М - 120 - Морион с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594532205</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё перкаль 2 спальное - М - 110 - Каори на зеленом с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594532199</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 160х200х30 - М - 60S 4323 Бежево-розовый</t>
+  </si>
+  <si>
+    <t>4610594532182</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - Аргентум</t>
+  </si>
+  <si>
+    <t>4610594532175</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 200х220 - "Лесная Мелодия"</t>
+  </si>
+  <si>
+    <t>4610594532168</t>
+  </si>
+  <si>
+    <t>Наволочка из поплина 50 х 70 - "Веселые Корги"</t>
+  </si>
+  <si>
+    <t>4610594532151</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин 300х300 - 130 - "Летний дождь" 1х1</t>
+  </si>
+  <si>
+    <t>4610594532144</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 200 х 220 х 20 - М - 140 - Лаванда 1х1</t>
+  </si>
+  <si>
+    <t>4610594532137</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка семейное - "Бирюзовый Рельеф"</t>
+  </si>
+  <si>
+    <t>4610594532120</t>
+  </si>
+  <si>
+    <t>Наволочка сатин Браш 70х70 - "Блю Айс"</t>
+  </si>
+  <si>
+    <t>4610594532113</t>
+  </si>
+  <si>
+    <t>Наволочка из поплина 50 х 70 - М - Кружева на баклажановом</t>
+  </si>
+  <si>
+    <t>4610594532106</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 60 х 60 - М - Прохлада ментола</t>
+  </si>
+  <si>
+    <t>4610594532090</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 70 х 70 - М - 140 - Белый Лучик</t>
+  </si>
+  <si>
+    <t>4610594532083</t>
+  </si>
+  <si>
+    <t>Простыня Микрофибра на резинке 200х200х30 - "Петкана"</t>
+  </si>
+  <si>
+    <t>4610594532076</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 1,5 спальное - "Бездна" Универсал</t>
+  </si>
+  <si>
+    <t>4610594532069</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро макси на резинке 180х200х30 - "Парижский Шарм" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594532052</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 180 х 220 - М - 135 - Лаймкват 1х1</t>
+  </si>
+  <si>
+    <t>4610594532045</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 135 - Лаймкват 1х1</t>
+  </si>
+  <si>
+    <t>4610594532038</t>
+  </si>
+  <si>
+    <t>Простыня из поплина на резинке 90 х 200 х 30 - М - Танец под водой</t>
+  </si>
+  <si>
+    <t>4610594532021</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 145 х 215 - М - Танец под водой</t>
+  </si>
+  <si>
+    <t>4610594532014</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 160х200х30 - "Графитовый Зигзаг"</t>
+  </si>
+  <si>
+    <t>4610594532007</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 160х200х30 - "Угольная Паутинка"</t>
+  </si>
+  <si>
+    <t>4610594531994</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 140 х 200 х 40 - М - 135 - Бежевый крем 1х1</t>
+  </si>
+  <si>
+    <t>4610594531987</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 200х200 - "ЭкоФлора"</t>
+  </si>
+  <si>
+    <t>4610594531970</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 80х200х20 - "Мелиссит"</t>
+  </si>
+  <si>
+    <t>4610594531963</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 50х70 - "Розовый Флёр"</t>
+  </si>
+  <si>
+    <t>4610594531956</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 200х200х20 - М - 60S 129 Темно-зеленый</t>
+  </si>
+  <si>
+    <t>4610594531949</t>
+  </si>
+  <si>
+    <t>Простыня из сатина-жаккарда 200 х 220 - М - Вайт Фейри</t>
+  </si>
+  <si>
+    <t>4610594531932</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 140 х 200 х 30 - М - 130 - Белый</t>
+  </si>
+  <si>
+    <t>4610594531925</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 120 х 200 х 30 - М - 120 - Литера</t>
+  </si>
+  <si>
+    <t>4610594531918</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 200 - М - 60S 043 Морская волна</t>
+  </si>
+  <si>
+    <t>4610594531901</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 50 х 50 - М - 142 - Белый Бамбук</t>
+  </si>
+  <si>
+    <t>4610594531895</t>
+  </si>
+  <si>
+    <t>Простыня страйп-сатин 220х240 - 130 - "Изумрудный малахит" 1х1</t>
+  </si>
+  <si>
+    <t>4610594531888</t>
+  </si>
+  <si>
+    <t>Простыня полисатин на резинке 180х200х40 - "Тирас"</t>
+  </si>
+  <si>
+    <t>4610594531871</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро Макси - М - Зюйд Ост</t>
+  </si>
+  <si>
+    <t>4610594531864</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 150х220 - "Севим"</t>
+  </si>
+  <si>
+    <t>4610594531857</t>
+  </si>
+  <si>
+    <t>Наволочка сатин 50 х 70 - "Розовый Сад"</t>
+  </si>
+  <si>
+    <t>4610594531840</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 200х200 - "Цветочная Графика"</t>
+  </si>
+  <si>
+    <t>4610594531833</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 150 х 200 - М - 142 ГОСТ - Белый</t>
+  </si>
+  <si>
+    <t>4610594531826</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 120 х 200 х 30 - М - 125 - Серый</t>
+  </si>
+  <si>
+    <t>4610594531819</t>
+  </si>
+  <si>
+    <t>Простыня перкаль 80 х 120 - "Морские приключения"</t>
+  </si>
+  <si>
+    <t>4610594531802</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 200 х 200 - "Голубая дымка"</t>
+  </si>
+  <si>
+    <t>4610594531796</t>
+  </si>
+  <si>
+    <t>Простыня ранфорс 300х300 - Белый</t>
+  </si>
+  <si>
+    <t>4610594531789</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 240 х 260 - М - 135 - Форастеро 1х1</t>
+  </si>
+  <si>
+    <t>4610594531772</t>
+  </si>
+  <si>
+    <t>Пододеяльник Жатка 200х220 - "Солнечный Лоск"</t>
+  </si>
+  <si>
+    <t>4610594531765</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 1,5 спальное на резинке 120х200х30 - "Хельми" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594531758</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 200х200 - "Зайга"</t>
+  </si>
+  <si>
+    <t>4610594531741</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 145 х 215 - М - 120 - Горчичный</t>
+  </si>
+  <si>
+    <t>4610594531734</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 175 х 215 - М - 130 - Пудровый 1х1</t>
   </si>
 </sst>
 </file>
@@ -29598,6 +30081,886 @@
         <v>3939</v>
       </c>
     </row>
+    <row r="1983" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1983" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B1983" t="s">
+        <v>3973</v>
+      </c>
+      <c r="C1983" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1984" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B1984" t="s">
+        <v>3976</v>
+      </c>
+      <c r="C1984" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1985" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B1985" t="s">
+        <v>3978</v>
+      </c>
+      <c r="C1985" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1986" t="s">
+        <v>3979</v>
+      </c>
+      <c r="B1986" t="s">
+        <v>3980</v>
+      </c>
+      <c r="C1986" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1987" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B1987" t="s">
+        <v>3982</v>
+      </c>
+      <c r="C1987" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1988" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B1988" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C1988" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1989" t="s">
+        <v>3985</v>
+      </c>
+      <c r="B1989" t="s">
+        <v>3986</v>
+      </c>
+      <c r="C1989" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1990" t="s">
+        <v>3987</v>
+      </c>
+      <c r="B1990" t="s">
+        <v>3988</v>
+      </c>
+      <c r="C1990" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1991" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B1991" t="s">
+        <v>3990</v>
+      </c>
+      <c r="C1991" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1992" t="s">
+        <v>3991</v>
+      </c>
+      <c r="B1992" t="s">
+        <v>3992</v>
+      </c>
+      <c r="C1992" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1993" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1993" t="s">
+        <v>3994</v>
+      </c>
+      <c r="C1993" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1994" t="s">
+        <v>3995</v>
+      </c>
+      <c r="B1994" t="s">
+        <v>3996</v>
+      </c>
+      <c r="C1994" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1995" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B1995" t="s">
+        <v>3998</v>
+      </c>
+      <c r="C1995" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1996" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B1996" t="s">
+        <v>4000</v>
+      </c>
+      <c r="C1996" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1997" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B1997" t="s">
+        <v>4002</v>
+      </c>
+      <c r="C1997" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1998" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B1998" t="s">
+        <v>4004</v>
+      </c>
+      <c r="C1998" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1999" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B1999" t="s">
+        <v>4006</v>
+      </c>
+      <c r="C1999" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2000" t="s">
+        <v>4007</v>
+      </c>
+      <c r="B2000" t="s">
+        <v>4008</v>
+      </c>
+      <c r="C2000" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2001" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B2001" t="s">
+        <v>4010</v>
+      </c>
+      <c r="C2001" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2002" t="s">
+        <v>4011</v>
+      </c>
+      <c r="B2002" t="s">
+        <v>4012</v>
+      </c>
+      <c r="C2002" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2003" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B2003" t="s">
+        <v>4014</v>
+      </c>
+      <c r="C2003" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2004" t="s">
+        <v>4015</v>
+      </c>
+      <c r="B2004" t="s">
+        <v>4016</v>
+      </c>
+      <c r="C2004" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2005" t="s">
+        <v>4017</v>
+      </c>
+      <c r="B2005" t="s">
+        <v>4018</v>
+      </c>
+      <c r="C2005" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2006" t="s">
+        <v>4019</v>
+      </c>
+      <c r="B2006" t="s">
+        <v>4020</v>
+      </c>
+      <c r="C2006" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2007" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B2007" t="s">
+        <v>4022</v>
+      </c>
+      <c r="C2007" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2008" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B2008" t="s">
+        <v>4024</v>
+      </c>
+      <c r="C2008" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2009" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B2009" t="s">
+        <v>4026</v>
+      </c>
+      <c r="C2009" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2010" t="s">
+        <v>4027</v>
+      </c>
+      <c r="B2010" t="s">
+        <v>4028</v>
+      </c>
+      <c r="C2010" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2011" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B2011" t="s">
+        <v>4030</v>
+      </c>
+      <c r="C2011" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2012" t="s">
+        <v>4031</v>
+      </c>
+      <c r="B2012" t="s">
+        <v>4032</v>
+      </c>
+      <c r="C2012" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2013" t="s">
+        <v>4033</v>
+      </c>
+      <c r="B2013" t="s">
+        <v>4034</v>
+      </c>
+      <c r="C2013" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2014" t="s">
+        <v>4035</v>
+      </c>
+      <c r="B2014" t="s">
+        <v>4036</v>
+      </c>
+      <c r="C2014" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2015" t="s">
+        <v>4037</v>
+      </c>
+      <c r="B2015" t="s">
+        <v>4038</v>
+      </c>
+      <c r="C2015" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2016" t="s">
+        <v>4039</v>
+      </c>
+      <c r="B2016" t="s">
+        <v>4040</v>
+      </c>
+      <c r="C2016" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2017" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B2017" t="s">
+        <v>4042</v>
+      </c>
+      <c r="C2017" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2018" t="s">
+        <v>4043</v>
+      </c>
+      <c r="B2018" t="s">
+        <v>4044</v>
+      </c>
+      <c r="C2018" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2019" t="s">
+        <v>4045</v>
+      </c>
+      <c r="B2019" t="s">
+        <v>4046</v>
+      </c>
+      <c r="C2019" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2020" t="s">
+        <v>4047</v>
+      </c>
+      <c r="B2020" t="s">
+        <v>4048</v>
+      </c>
+      <c r="C2020" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2021" t="s">
+        <v>4049</v>
+      </c>
+      <c r="B2021" t="s">
+        <v>4050</v>
+      </c>
+      <c r="C2021" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2022" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B2022" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C2022" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2023" t="s">
+        <v>4053</v>
+      </c>
+      <c r="B2023" t="s">
+        <v>4054</v>
+      </c>
+      <c r="C2023" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2024" t="s">
+        <v>4055</v>
+      </c>
+      <c r="B2024" t="s">
+        <v>4056</v>
+      </c>
+      <c r="C2024" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2025" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B2025" t="s">
+        <v>4058</v>
+      </c>
+      <c r="C2025" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2026" t="s">
+        <v>4059</v>
+      </c>
+      <c r="B2026" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C2026" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2027" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B2027" t="s">
+        <v>4062</v>
+      </c>
+      <c r="C2027" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2028" t="s">
+        <v>4063</v>
+      </c>
+      <c r="B2028" t="s">
+        <v>4064</v>
+      </c>
+      <c r="C2028" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2029" t="s">
+        <v>4065</v>
+      </c>
+      <c r="B2029" t="s">
+        <v>4066</v>
+      </c>
+      <c r="C2029" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2030" t="s">
+        <v>4067</v>
+      </c>
+      <c r="B2030" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C2030" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2031" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B2031" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C2031" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2032" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B2032" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C2032" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2033" t="s">
+        <v>4073</v>
+      </c>
+      <c r="B2033" t="s">
+        <v>4074</v>
+      </c>
+      <c r="C2033" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2034" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B2034" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C2034" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2035" t="s">
+        <v>4077</v>
+      </c>
+      <c r="B2035" t="s">
+        <v>4078</v>
+      </c>
+      <c r="C2035" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2036" t="s">
+        <v>4079</v>
+      </c>
+      <c r="B2036" t="s">
+        <v>4080</v>
+      </c>
+      <c r="C2036" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2037" t="s">
+        <v>4081</v>
+      </c>
+      <c r="B2037" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C2037" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2038" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B2038" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C2038" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2039" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B2039" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C2039" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2040" t="s">
+        <v>4087</v>
+      </c>
+      <c r="B2040" t="s">
+        <v>4088</v>
+      </c>
+      <c r="C2040" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2041" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B2041" t="s">
+        <v>4090</v>
+      </c>
+      <c r="C2041" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2042" t="s">
+        <v>4091</v>
+      </c>
+      <c r="B2042" t="s">
+        <v>4092</v>
+      </c>
+      <c r="C2042" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2043" t="s">
+        <v>4093</v>
+      </c>
+      <c r="B2043" t="s">
+        <v>4094</v>
+      </c>
+      <c r="C2043" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2044" t="s">
+        <v>4095</v>
+      </c>
+      <c r="B2044" t="s">
+        <v>4096</v>
+      </c>
+      <c r="C2044" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2045" t="s">
+        <v>4097</v>
+      </c>
+      <c r="B2045" t="s">
+        <v>4098</v>
+      </c>
+      <c r="C2045" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2046" t="s">
+        <v>4099</v>
+      </c>
+      <c r="B2046" t="s">
+        <v>4100</v>
+      </c>
+      <c r="C2046" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2047" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B2047" t="s">
+        <v>4102</v>
+      </c>
+      <c r="C2047" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2048" t="s">
+        <v>4103</v>
+      </c>
+      <c r="B2048" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C2048" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2049" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B2049" t="s">
+        <v>4106</v>
+      </c>
+      <c r="C2049" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2050" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B2050" t="s">
+        <v>4108</v>
+      </c>
+      <c r="C2050" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2051" t="s">
+        <v>4109</v>
+      </c>
+      <c r="B2051" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C2051" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2052" t="s">
+        <v>4111</v>
+      </c>
+      <c r="B2052" t="s">
+        <v>4112</v>
+      </c>
+      <c r="C2052" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2053" t="s">
+        <v>4113</v>
+      </c>
+      <c r="B2053" t="s">
+        <v>4114</v>
+      </c>
+      <c r="C2053" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2054" t="s">
+        <v>4115</v>
+      </c>
+      <c r="B2054" t="s">
+        <v>4116</v>
+      </c>
+      <c r="C2054" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2055" t="s">
+        <v>4117</v>
+      </c>
+      <c r="B2055" t="s">
+        <v>4118</v>
+      </c>
+      <c r="C2055" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2056" t="s">
+        <v>4119</v>
+      </c>
+      <c r="B2056" t="s">
+        <v>4120</v>
+      </c>
+      <c r="C2056" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2057" t="s">
+        <v>4121</v>
+      </c>
+      <c r="B2057" t="s">
+        <v>4122</v>
+      </c>
+      <c r="C2057" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2058" t="s">
+        <v>4123</v>
+      </c>
+      <c r="B2058" t="s">
+        <v>4124</v>
+      </c>
+      <c r="C2058" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2059" t="s">
+        <v>4125</v>
+      </c>
+      <c r="B2059" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C2059" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2060" t="s">
+        <v>4127</v>
+      </c>
+      <c r="B2060" t="s">
+        <v>4128</v>
+      </c>
+      <c r="C2060" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2061" t="s">
+        <v>4129</v>
+      </c>
+      <c r="B2061" t="s">
+        <v>4130</v>
+      </c>
+      <c r="C2061" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2062" t="s">
+        <v>4131</v>
+      </c>
+      <c r="B2062" t="s">
+        <v>4132</v>
+      </c>
+      <c r="C2062" t="s">
+        <v>3974</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4680" uniqueCount="4133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4710" uniqueCount="4154">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -12413,6 +12413,69 @@
   </si>
   <si>
     <t>Пододеяльник из страйп-сатина 175 х 215 - М - 130 - Пудровый 1х1</t>
+  </si>
+  <si>
+    <t>4610594532601</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 40х60 - "Глубь"</t>
+  </si>
+  <si>
+    <t>24-02-2026</t>
+  </si>
+  <si>
+    <t>4610594532595</t>
+  </si>
+  <si>
+    <t>Простыня круглая из сатина на резинке 220 х 220 х 20 - М - 140 - Белый Люкс</t>
+  </si>
+  <si>
+    <t>4610594532588</t>
+  </si>
+  <si>
+    <t>Простыня круглая страйп-сатин на резинке 220х220х20 - "Бежалис" 1х1</t>
+  </si>
+  <si>
+    <t>4610594532571</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 90 х 200 х 20 - М - 142 ГОСТ - Кленовый</t>
+  </si>
+  <si>
+    <t>4610594532564</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 220 х 240 - М - Ясное небо</t>
+  </si>
+  <si>
+    <t>4610594532557</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин 2 спальное на резинке 160х200х20 - "Кианит" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594532540</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 40 х 60 - М - 130 - Черешня 1х1</t>
+  </si>
+  <si>
+    <t>4610594532533</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 240х260 - "Лав юселф"</t>
+  </si>
+  <si>
+    <t>4610594532625</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё бязь Евро на резинке 160х200х20 - М - 125 - Предгорье</t>
+  </si>
+  <si>
+    <t>4610594532618</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 135 - Туман Адриатики 1х1</t>
   </si>
 </sst>
 </file>
@@ -30961,6 +31024,116 @@
         <v>3974</v>
       </c>
     </row>
+    <row r="2063" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2063" t="s">
+        <v>4133</v>
+      </c>
+      <c r="B2063" t="s">
+        <v>4134</v>
+      </c>
+      <c r="C2063" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2064" t="s">
+        <v>4136</v>
+      </c>
+      <c r="B2064" t="s">
+        <v>4137</v>
+      </c>
+      <c r="C2064" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2065" t="s">
+        <v>4138</v>
+      </c>
+      <c r="B2065" t="s">
+        <v>4139</v>
+      </c>
+      <c r="C2065" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2066" t="s">
+        <v>4140</v>
+      </c>
+      <c r="B2066" t="s">
+        <v>4141</v>
+      </c>
+      <c r="C2066" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2067" t="s">
+        <v>4142</v>
+      </c>
+      <c r="B2067" t="s">
+        <v>4143</v>
+      </c>
+      <c r="C2067" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2068" t="s">
+        <v>4144</v>
+      </c>
+      <c r="B2068" t="s">
+        <v>4145</v>
+      </c>
+      <c r="C2068" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2069" t="s">
+        <v>4146</v>
+      </c>
+      <c r="B2069" t="s">
+        <v>4147</v>
+      </c>
+      <c r="C2069" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2070" t="s">
+        <v>4148</v>
+      </c>
+      <c r="B2070" t="s">
+        <v>4149</v>
+      </c>
+      <c r="C2070" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2071" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B2071" t="s">
+        <v>4151</v>
+      </c>
+      <c r="C2071" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2072" t="s">
+        <v>4152</v>
+      </c>
+      <c r="B2072" t="s">
+        <v>4153</v>
+      </c>
+      <c r="C2072" t="s">
+        <v>4135</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4710" uniqueCount="4154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="4199">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -12476,6 +12476,141 @@
   </si>
   <si>
     <t>Наволочка из страйп-сатина 50 х 70 - М - 135 - Туман Адриатики 1х1</t>
+  </si>
+  <si>
+    <t>4610594532847</t>
+  </si>
+  <si>
+    <t>Простыня твил-сатин 280 х 280 - "Нева"</t>
+  </si>
+  <si>
+    <t>25-02-2026</t>
+  </si>
+  <si>
+    <t>4610594532830</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 220 х 240 - "Кленовая зелень"</t>
+  </si>
+  <si>
+    <t>4610594532823</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок 2 спальное на резинке 160х200х30 - М - Серо-зелёный с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594532816</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё ранфорс 1,5 спальное на резинке 140х200х30 - Голубой с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594532809</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 150х220 - "Парижский Шарм"</t>
+  </si>
+  <si>
+    <t>4610594532793</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 50х70 - "Оливейт"</t>
+  </si>
+  <si>
+    <t>4610594532786</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 50х70 - "Фиорис"</t>
+  </si>
+  <si>
+    <t>4610594532779</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 50х70 - "Глария"</t>
+  </si>
+  <si>
+    <t>4610594532762</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин 1,5 спальное на резинке 120х200х30 - "Элиот" 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594532755</t>
+  </si>
+  <si>
+    <t>Наволочка сатин Браш 60х60 - "Блю Айс"</t>
+  </si>
+  <si>
+    <t>4610594532748</t>
+  </si>
+  <si>
+    <t>Наволочка из поплина 50 х 50 - "Астролябия" А+В</t>
+  </si>
+  <si>
+    <t>4610594532731</t>
+  </si>
+  <si>
+    <t>Пододеяльник твил-сатин 150 х 200 - "Мишка в лесу"</t>
+  </si>
+  <si>
+    <t>4610594532724</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 2 спальное - "Бонетто"</t>
+  </si>
+  <si>
+    <t>4610594532717</t>
+  </si>
+  <si>
+    <t>Простыня Тенсель на резинке 160х200х30 - "Трендис"</t>
+  </si>
+  <si>
+    <t>4610594532700</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 160 х 200 х 30 - М - Премиум ТС 320 Кортес</t>
+  </si>
+  <si>
+    <t>4610594532694</t>
+  </si>
+  <si>
+    <t>Наволочка микросатин 60х60 - "Бездна"</t>
+  </si>
+  <si>
+    <t>4610594532687</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 220 х 240 - М - Магма А+В</t>
+  </si>
+  <si>
+    <t>4610594532670</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 70х70 - "Цветочный Шёпот"</t>
+  </si>
+  <si>
+    <t>4610594532663</t>
+  </si>
+  <si>
+    <t>Наволочка сатин-жаккард 70х70 - "Хромалит"</t>
+  </si>
+  <si>
+    <t>4610594532656</t>
+  </si>
+  <si>
+    <t>Наволочка Тенсель 50х70 - "Ларион"</t>
+  </si>
+  <si>
+    <t>4610594532649</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 150 х 220 - М - 120 - Отбеленная</t>
+  </si>
+  <si>
+    <t>4610594532632</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное на резинке 140х200х30 - М - Пыльная роза с наволочками 50х70</t>
   </si>
 </sst>
 </file>
@@ -31134,6 +31269,248 @@
         <v>4135</v>
       </c>
     </row>
+    <row r="2073" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2073" t="s">
+        <v>4154</v>
+      </c>
+      <c r="B2073" t="s">
+        <v>4155</v>
+      </c>
+      <c r="C2073" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2074" t="s">
+        <v>4157</v>
+      </c>
+      <c r="B2074" t="s">
+        <v>4158</v>
+      </c>
+      <c r="C2074" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2075" t="s">
+        <v>4159</v>
+      </c>
+      <c r="B2075" t="s">
+        <v>4160</v>
+      </c>
+      <c r="C2075" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2076" t="s">
+        <v>4161</v>
+      </c>
+      <c r="B2076" t="s">
+        <v>4162</v>
+      </c>
+      <c r="C2076" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2077" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B2077" t="s">
+        <v>4164</v>
+      </c>
+      <c r="C2077" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2078" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B2078" t="s">
+        <v>4166</v>
+      </c>
+      <c r="C2078" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2079" t="s">
+        <v>4167</v>
+      </c>
+      <c r="B2079" t="s">
+        <v>4168</v>
+      </c>
+      <c r="C2079" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2080" t="s">
+        <v>4169</v>
+      </c>
+      <c r="B2080" t="s">
+        <v>4170</v>
+      </c>
+      <c r="C2080" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2081" t="s">
+        <v>4171</v>
+      </c>
+      <c r="B2081" t="s">
+        <v>4172</v>
+      </c>
+      <c r="C2081" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2082" t="s">
+        <v>4173</v>
+      </c>
+      <c r="B2082" t="s">
+        <v>4174</v>
+      </c>
+      <c r="C2082" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2083" t="s">
+        <v>4175</v>
+      </c>
+      <c r="B2083" t="s">
+        <v>4176</v>
+      </c>
+      <c r="C2083" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2084" t="s">
+        <v>4177</v>
+      </c>
+      <c r="B2084" t="s">
+        <v>4178</v>
+      </c>
+      <c r="C2084" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2085" t="s">
+        <v>4179</v>
+      </c>
+      <c r="B2085" t="s">
+        <v>4180</v>
+      </c>
+      <c r="C2085" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2086" t="s">
+        <v>4181</v>
+      </c>
+      <c r="B2086" t="s">
+        <v>4182</v>
+      </c>
+      <c r="C2086" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2087" t="s">
+        <v>4183</v>
+      </c>
+      <c r="B2087" t="s">
+        <v>4184</v>
+      </c>
+      <c r="C2087" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2088" t="s">
+        <v>4185</v>
+      </c>
+      <c r="B2088" t="s">
+        <v>4186</v>
+      </c>
+      <c r="C2088" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2089" t="s">
+        <v>4187</v>
+      </c>
+      <c r="B2089" t="s">
+        <v>4188</v>
+      </c>
+      <c r="C2089" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2090" t="s">
+        <v>4189</v>
+      </c>
+      <c r="B2090" t="s">
+        <v>4190</v>
+      </c>
+      <c r="C2090" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2091" t="s">
+        <v>4191</v>
+      </c>
+      <c r="B2091" t="s">
+        <v>4192</v>
+      </c>
+      <c r="C2091" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2092" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B2092" t="s">
+        <v>4194</v>
+      </c>
+      <c r="C2092" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2093" t="s">
+        <v>4195</v>
+      </c>
+      <c r="B2093" t="s">
+        <v>4196</v>
+      </c>
+      <c r="C2093" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2094" t="s">
+        <v>4197</v>
+      </c>
+      <c r="B2094" t="s">
+        <v>4198</v>
+      </c>
+      <c r="C2094" t="s">
+        <v>4156</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="4199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="4236">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -12611,6 +12611,117 @@
   </si>
   <si>
     <t>КПБ Постельное бельё тенсель 1,5 спальное на резинке 140х200х30 - М - Пыльная роза с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594533028</t>
+  </si>
+  <si>
+    <t>Простыня из креп-жатки 300х300 - М - 80 - Теплые Пожелания</t>
+  </si>
+  <si>
+    <t>26-02-2026</t>
+  </si>
+  <si>
+    <t>4610594533011</t>
+  </si>
+  <si>
+    <t>Простыня микросатин 180х220 - "Розанна"</t>
+  </si>
+  <si>
+    <t>4610594533004</t>
+  </si>
+  <si>
+    <t>Наволочка микросатин 50х70 - "Розанна"</t>
+  </si>
+  <si>
+    <t>4610594532991</t>
+  </si>
+  <si>
+    <t>Наволочка микросатин 70х70 - "Розанна"</t>
+  </si>
+  <si>
+    <t>4610594532984</t>
+  </si>
+  <si>
+    <t>Простыня тенсель 220х240 - "Морозный туман"</t>
+  </si>
+  <si>
+    <t>4610594532977</t>
+  </si>
+  <si>
+    <t>Простыня тенсель 240х260 - "Серебро Облаков"</t>
+  </si>
+  <si>
+    <t>4610594532960</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 260 х 260 - М - Бертолеция</t>
+  </si>
+  <si>
+    <t>4610594532953</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - Насыщенный розовый</t>
+  </si>
+  <si>
+    <t>4610594532946</t>
+  </si>
+  <si>
+    <t>Простыня из перкаля 200 х 220 - М - 125 - Радмила</t>
+  </si>
+  <si>
+    <t>4610594532939</t>
+  </si>
+  <si>
+    <t>Гобеленовая наволочка 40х60 - М - 018D Зайчики</t>
+  </si>
+  <si>
+    <t>4610594532922</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка Евро на резинке 160х200х30 - "Лав юселф" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594532915</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 2 спальное - М - Кончерто гроссо</t>
+  </si>
+  <si>
+    <t>4610594532908</t>
+  </si>
+  <si>
+    <t>Наволочка Жатка 70х70 - "Лесная Мелодия"</t>
+  </si>
+  <si>
+    <t>4610594532892</t>
+  </si>
+  <si>
+    <t>Наволочка Жатка 50х70 - "Лесная Мелодия"</t>
+  </si>
+  <si>
+    <t>4610594532885</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное на резинке 140х200х30 - М - 60S 4247 Сирень с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594532878</t>
+  </si>
+  <si>
+    <t>Простыня Тенсель на резинке 160х200х30 - "Твист"</t>
+  </si>
+  <si>
+    <t>4610594532861</t>
+  </si>
+  <si>
+    <t>Простыня Жатка 200х220 - "Астероид"</t>
+  </si>
+  <si>
+    <t>4610594532854</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 50х70 - "Далиян"</t>
   </si>
 </sst>
 </file>
@@ -31511,6 +31622,204 @@
         <v>4156</v>
       </c>
     </row>
+    <row r="2095" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2095" t="s">
+        <v>4199</v>
+      </c>
+      <c r="B2095" t="s">
+        <v>4200</v>
+      </c>
+      <c r="C2095" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2096" t="s">
+        <v>4202</v>
+      </c>
+      <c r="B2096" t="s">
+        <v>4203</v>
+      </c>
+      <c r="C2096" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2097" t="s">
+        <v>4204</v>
+      </c>
+      <c r="B2097" t="s">
+        <v>4205</v>
+      </c>
+      <c r="C2097" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2098" t="s">
+        <v>4206</v>
+      </c>
+      <c r="B2098" t="s">
+        <v>4207</v>
+      </c>
+      <c r="C2098" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2099" t="s">
+        <v>4208</v>
+      </c>
+      <c r="B2099" t="s">
+        <v>4209</v>
+      </c>
+      <c r="C2099" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2100" t="s">
+        <v>4210</v>
+      </c>
+      <c r="B2100" t="s">
+        <v>4211</v>
+      </c>
+      <c r="C2100" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2101" t="s">
+        <v>4212</v>
+      </c>
+      <c r="B2101" t="s">
+        <v>4213</v>
+      </c>
+      <c r="C2101" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2102" t="s">
+        <v>4214</v>
+      </c>
+      <c r="B2102" t="s">
+        <v>4215</v>
+      </c>
+      <c r="C2102" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2103" t="s">
+        <v>4216</v>
+      </c>
+      <c r="B2103" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C2103" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2104" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B2104" t="s">
+        <v>4219</v>
+      </c>
+      <c r="C2104" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2105" t="s">
+        <v>4220</v>
+      </c>
+      <c r="B2105" t="s">
+        <v>4221</v>
+      </c>
+      <c r="C2105" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2106" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B2106" t="s">
+        <v>4223</v>
+      </c>
+      <c r="C2106" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2107" t="s">
+        <v>4224</v>
+      </c>
+      <c r="B2107" t="s">
+        <v>4225</v>
+      </c>
+      <c r="C2107" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2108" t="s">
+        <v>4226</v>
+      </c>
+      <c r="B2108" t="s">
+        <v>4227</v>
+      </c>
+      <c r="C2108" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2109" t="s">
+        <v>4228</v>
+      </c>
+      <c r="B2109" t="s">
+        <v>4229</v>
+      </c>
+      <c r="C2109" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2110" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B2110" t="s">
+        <v>4231</v>
+      </c>
+      <c r="C2110" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2111" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B2111" t="s">
+        <v>4233</v>
+      </c>
+      <c r="C2111" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2112" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B2112" t="s">
+        <v>4235</v>
+      </c>
+      <c r="C2112" t="s">
+        <v>4201</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="4236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4869" uniqueCount="4263">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -12722,6 +12722,87 @@
   </si>
   <si>
     <t>Наволочка поплин 50х70 - "Далиян"</t>
+  </si>
+  <si>
+    <t>4610594533158</t>
+  </si>
+  <si>
+    <t>Пододеяльник Микрофибра 200х200 - "Петкана"</t>
+  </si>
+  <si>
+    <t>27-02-2026</t>
+  </si>
+  <si>
+    <t>4610594533141</t>
+  </si>
+  <si>
+    <t>Простыня Микрофибра на резинке 160х200х20 - "Петкана"</t>
+  </si>
+  <si>
+    <t>4610594533134</t>
+  </si>
+  <si>
+    <t>Простыня варёный хлопок 260х260 - "Стальная тень" (меланж)</t>
+  </si>
+  <si>
+    <t>4610594533127</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё твил-сатин 1,5 спальное - М - Индостан с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594533110</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё твил-сатин 1,5 спальное - "Поэзис" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594533103</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 1,5 спальное - М - Кончерто гроссо с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594533097</t>
+  </si>
+  <si>
+    <t>Пододеяльник из бязи 150 х 200 - М - 142 - Сиреневые маки</t>
+  </si>
+  <si>
+    <t>4610594533080</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 140х200х30 - "Сердечный Вихрь"</t>
+  </si>
+  <si>
+    <t>4610594533073</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро Макси - М - Прохлада ментола</t>
+  </si>
+  <si>
+    <t>4610594533066</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 40 х 40 - М - 142 ГОСТ - Оранжевый</t>
+  </si>
+  <si>
+    <t>4610594533059</t>
+  </si>
+  <si>
+    <t>Простыня круглая из тенселя на резинке 200х200х20 - М - 60S 41-020 Серебряный</t>
+  </si>
+  <si>
+    <t>4610594533042</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 2 спальное с Евро простыней - "Ледяной Рассвет" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594533035</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 90х200х30 - "Камара"</t>
   </si>
 </sst>
 </file>
@@ -31820,6 +31901,149 @@
         <v>4201</v>
       </c>
     </row>
+    <row r="2113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2113" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B2113" t="s">
+        <v>4237</v>
+      </c>
+      <c r="C2113" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2114" t="s">
+        <v>4239</v>
+      </c>
+      <c r="B2114" t="s">
+        <v>4240</v>
+      </c>
+      <c r="C2114" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2115" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B2115" t="s">
+        <v>4242</v>
+      </c>
+      <c r="C2115" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2116" t="s">
+        <v>4243</v>
+      </c>
+      <c r="B2116" t="s">
+        <v>4244</v>
+      </c>
+      <c r="C2116" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2117" t="s">
+        <v>4245</v>
+      </c>
+      <c r="B2117" t="s">
+        <v>4246</v>
+      </c>
+      <c r="C2117" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2118" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B2118" t="s">
+        <v>4248</v>
+      </c>
+      <c r="C2118" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2119" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B2119" t="s">
+        <v>4250</v>
+      </c>
+      <c r="C2119" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2120" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B2120" t="s">
+        <v>4252</v>
+      </c>
+      <c r="C2120" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2121" t="s">
+        <v>4253</v>
+      </c>
+      <c r="B2121" t="s">
+        <v>4254</v>
+      </c>
+      <c r="C2121" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2122" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B2122" t="s">
+        <v>4256</v>
+      </c>
+      <c r="C2122" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2123" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B2123" t="s">
+        <v>4258</v>
+      </c>
+      <c r="C2123" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2124" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B2124" t="s">
+        <v>4260</v>
+      </c>
+      <c r="C2124" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2125" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B2125" t="s">
+        <v>4262</v>
+      </c>
+      <c r="C2125" t="s">
+        <v>4238</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>

--- a/public/Краткий отчет.xlsx
+++ b/public/Краткий отчет.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4869" uniqueCount="4263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4992" uniqueCount="4346">
   <si>
     <t>Краткий отчет по товарам</t>
   </si>
@@ -12803,6 +12803,255 @@
   </si>
   <si>
     <t>КПБ Постельное бельё Жатка 1,5 спальное на резинке 90х200х30 - "Камара"</t>
+  </si>
+  <si>
+    <t>4610594533561</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 180 х 220 - М - Бисквитный</t>
+  </si>
+  <si>
+    <t>01-03-2026</t>
+  </si>
+  <si>
+    <t>4610594533554</t>
+  </si>
+  <si>
+    <t>Наволочка поплин 50х70 - "Мяурель"</t>
+  </si>
+  <si>
+    <t>4610594533547</t>
+  </si>
+  <si>
+    <t>Пододеяльник поплин 150х200 - "Фиорис"</t>
+  </si>
+  <si>
+    <t>4610594533530</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 260х260 - "Белава"</t>
+  </si>
+  <si>
+    <t>4610594533523</t>
+  </si>
+  <si>
+    <t>Простыня полисатин 260х260 - "Эвергрин"</t>
+  </si>
+  <si>
+    <t>4610594533516</t>
+  </si>
+  <si>
+    <t>Простыня круглая из страйп сатина на резинке 200 x 200 х 30 - М - 140 - Мускусная дыня 1х1</t>
+  </si>
+  <si>
+    <t>4610594533509</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 70х70 - "Тирас"</t>
+  </si>
+  <si>
+    <t>4610594533493</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 50х70 - "Тирас"</t>
+  </si>
+  <si>
+    <t>4610594533486</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 200х220 - "Тирас"</t>
+  </si>
+  <si>
+    <t>4610594533479</t>
+  </si>
+  <si>
+    <t>КПБ Постельное белье микросатин 2 спальное - "Страстный гранат"</t>
+  </si>
+  <si>
+    <t>4610594533462</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 220 х 240 - М - Грей блес</t>
+  </si>
+  <si>
+    <t>4610594533455</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель Евро на резинке 160х200х30 - М - Серая умбра с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594533448</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 150 х 220 - М - 135 - Пармелия 1х1</t>
+  </si>
+  <si>
+    <t>4610594533431</t>
+  </si>
+  <si>
+    <t>Наволочка микросатин 50х70 - "Небосвод"</t>
+  </si>
+  <si>
+    <t>4610594533424</t>
+  </si>
+  <si>
+    <t>Пододеяльник ранфорс 200х200 - "Кремневый серый"</t>
+  </si>
+  <si>
+    <t>4610594533417</t>
+  </si>
+  <si>
+    <t>Пододеяльник микросатин 200х220 - "Бездна"</t>
+  </si>
+  <si>
+    <t>4610594533400</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё варёный хлопок семейное на резинке 180х200х30 - М - Бертолеция</t>
+  </si>
+  <si>
+    <t>4610594533394</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин Евро на резинке 160х200х30 - "Крылатые сны"</t>
+  </si>
+  <si>
+    <t>4610594533387</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 40 х 60 - М - 140 - Черный янтарь 3х3</t>
+  </si>
+  <si>
+    <t>4610594533370</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - 371 Черная</t>
+  </si>
+  <si>
+    <t>4610594533363</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 150 х 200 - М - Уголёк</t>
+  </si>
+  <si>
+    <t>4610594533356</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель семейное - М - 60S 4216 Серебро с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594533349</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 2 спальное на резинке 160х200х30 - "Чёрный Страйп" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594533332</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё страйп-сатин Евро макси - М - 135 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>4610594533325</t>
+  </si>
+  <si>
+    <t>Простыня Жатка на резинке 200х200х40 - "Звёздный Вальс"</t>
+  </si>
+  <si>
+    <t>4610594533318</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё тенсель 1,5 спальное - "Чёрный Страйп" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594533301</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин Евро на резинке 160х200х30 - "Мяурель" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594533295</t>
+  </si>
+  <si>
+    <t>Пододеяльник тенсель 240х260 - "Цветочный Шёпот"</t>
+  </si>
+  <si>
+    <t>4610594533288</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё поплин 2 спальное на резинке 140х200х30 - М - Небесный Пиксель А+В</t>
+  </si>
+  <si>
+    <t>4610594533271</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300 х 300 - М - 140 - Вулкан 1х1</t>
+  </si>
+  <si>
+    <t>4610594533264</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё сатин Евро на резинке 160х200х30 - "Нефритовый"</t>
+  </si>
+  <si>
+    <t>4610594533257</t>
+  </si>
+  <si>
+    <t>Простыня из страйп сатина 180 х 220 - М - 140 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>4610594533240</t>
+  </si>
+  <si>
+    <t>Простыня из сатина-жаккарда 240 х 260 - М - Вайт Фейри</t>
+  </si>
+  <si>
+    <t>4610594533233</t>
+  </si>
+  <si>
+    <t>Пододеяльник полисатин 145х215 - "Олуфими"</t>
+  </si>
+  <si>
+    <t>4610594533226</t>
+  </si>
+  <si>
+    <t>Наволочка из полисатина 50 х 70 - М - 80 - Витражи</t>
+  </si>
+  <si>
+    <t>4610594533219</t>
+  </si>
+  <si>
+    <t>Пододеяльник из полисатина 150 х 200 - М - 80 - Витражи</t>
+  </si>
+  <si>
+    <t>4610594533202</t>
+  </si>
+  <si>
+    <t>Наволочка полисатин 50х70 - "Бахати"</t>
+  </si>
+  <si>
+    <t>4610594533196</t>
+  </si>
+  <si>
+    <t>КПБ Постельное бельё полисатин Евро макси на резинке 180х200х30 - "Димитра" с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>4610594533189</t>
+  </si>
+  <si>
+    <t>Наволочка тенсель 70х70 - "Песочная роза"</t>
+  </si>
+  <si>
+    <t>4610594533172</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 30 х 50 - М - Черничный смузи</t>
+  </si>
+  <si>
+    <t>4610594533165</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 300х300 - М - Сапфировый</t>
   </si>
 </sst>
 </file>
@@ -32044,6 +32293,457 @@
         <v>4238</v>
       </c>
     </row>
+    <row r="2126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2126" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B2126" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C2126" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2127" t="s">
+        <v>4266</v>
+      </c>
+      <c r="B2127" t="s">
+        <v>4267</v>
+      </c>
+      <c r="C2127" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2128" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B2128" t="s">
+        <v>4269</v>
+      </c>
+      <c r="C2128" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2129" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B2129" t="s">
+        <v>4271</v>
+      </c>
+      <c r="C2129" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2130" t="s">
+        <v>4272</v>
+      </c>
+      <c r="B2130" t="s">
+        <v>4273</v>
+      </c>
+      <c r="C2130" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2131" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B2131" t="s">
+        <v>4275</v>
+      </c>
+      <c r="C2131" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2132" t="s">
+        <v>4276</v>
+      </c>
+      <c r="B2132" t="s">
+        <v>4277</v>
+      </c>
+      <c r="C2132" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2133" t="s">
+        <v>4278</v>
+      </c>
+      <c r="B2133" t="s">
+        <v>4279</v>
+      </c>
+      <c r="C2133" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2134" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B2134" t="s">
+        <v>4281</v>
+      </c>
+      <c r="C2134" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2135" t="s">
+        <v>4282</v>
+      </c>
+      <c r="B2135" t="s">
+        <v>4283</v>
+      </c>
+      <c r="C2135" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2136" t="s">
+        <v>4284</v>
+      </c>
+      <c r="B2136" t="s">
+        <v>4285</v>
+      </c>
+      <c r="C2136" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2137" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B2137" t="s">
+        <v>4287</v>
+      </c>
+      <c r="C2137" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2138" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B2138" t="s">
+        <v>4289</v>
+      </c>
+      <c r="C2138" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2139" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B2139" t="s">
+        <v>4291</v>
+      </c>
+      <c r="C2139" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2140" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B2140" t="s">
+        <v>4293</v>
+      </c>
+      <c r="C2140" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2141" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B2141" t="s">
+        <v>4295</v>
+      </c>
+      <c r="C2141" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2142" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B2142" t="s">
+        <v>4297</v>
+      </c>
+      <c r="C2142" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2143" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B2143" t="s">
+        <v>4299</v>
+      </c>
+      <c r="C2143" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2144" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B2144" t="s">
+        <v>4301</v>
+      </c>
+      <c r="C2144" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2145" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B2145" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C2145" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2146" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B2146" t="s">
+        <v>4305</v>
+      </c>
+      <c r="C2146" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2147" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B2147" t="s">
+        <v>4307</v>
+      </c>
+      <c r="C2147" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2148" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B2148" t="s">
+        <v>4309</v>
+      </c>
+      <c r="C2148" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2149" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B2149" t="s">
+        <v>4311</v>
+      </c>
+      <c r="C2149" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2150" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B2150" t="s">
+        <v>4313</v>
+      </c>
+      <c r="C2150" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2151" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B2151" t="s">
+        <v>4315</v>
+      </c>
+      <c r="C2151" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2152" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B2152" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C2152" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2153" t="s">
+        <v>4318</v>
+      </c>
+      <c r="B2153" t="s">
+        <v>4319</v>
+      </c>
+      <c r="C2153" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2154" t="s">
+        <v>4320</v>
+      </c>
+      <c r="B2154" t="s">
+        <v>4321</v>
+      </c>
+      <c r="C2154" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2155" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>4323</v>
+      </c>
+      <c r="C2155" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2156" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B2156" t="s">
+        <v>4325</v>
+      </c>
+      <c r="C2156" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2157" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B2157" t="s">
+        <v>4327</v>
+      </c>
+      <c r="C2157" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2158" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B2158" t="s">
+        <v>4329</v>
+      </c>
+      <c r="C2158" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2159" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B2159" t="s">
+        <v>4331</v>
+      </c>
+      <c r="C2159" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2160" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B2160" t="s">
+        <v>4333</v>
+      </c>
+      <c r="C2160" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2161" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B2161" t="s">
+        <v>4335</v>
+      </c>
+      <c r="C2161" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2162" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B2162" t="s">
+        <v>4337</v>
+      </c>
+      <c r="C2162" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2163" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B2163" t="s">
+        <v>4339</v>
+      </c>
+      <c r="C2163" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2164" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B2164" t="s">
+        <v>4341</v>
+      </c>
+      <c r="C2164" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2165" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B2165" t="s">
+        <v>4343</v>
+      </c>
+      <c r="C2165" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2166" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B2166" t="s">
+        <v>4345</v>
+      </c>
+      <c r="C2166" t="s">
+        <v>4265</v>
+      </c>
+    </row>
     <row r="3449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3449" s="6"/>
     </row>
